--- a/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{164F303F-178B-482E-BE55-81A0E570537A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A56A759-9089-4EF0-9688-BE7791C45280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,18 +764,18 @@
     <t>wind resource -- CF class won-DEU_40 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-DEU_40_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_40 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-DEU_40_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_40 -- cost class 4</t>
   </si>
   <si>
-    <t>e_won-DEU_40_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_40 -- cost class 3</t>
-  </si>
-  <si>
     <t>e_won-DEU_39_c3</t>
   </si>
   <si>
@@ -908,18 +908,18 @@
     <t>wind resource -- CF class won-DEU_35 -- cost class 4</t>
   </si>
   <si>
+    <t>e_won-DEU_34_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_34 -- cost class 1</t>
+  </si>
+  <si>
     <t>e_won-DEU_34_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_34 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-DEU_34_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_34 -- cost class 1</t>
-  </si>
-  <si>
     <t>e_won-DEU_34_c5</t>
   </si>
   <si>
@@ -944,18 +944,18 @@
     <t>wind resource -- CF class won-DEU_33 -- cost class 3</t>
   </si>
   <si>
+    <t>e_won-DEU_33_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_33 -- cost class 1</t>
+  </si>
+  <si>
     <t>e_won-DEU_33_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_33 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-DEU_33_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_33 -- cost class 1</t>
-  </si>
-  <si>
     <t>e_won-DEU_33_c5</t>
   </si>
   <si>
@@ -1184,18 +1184,18 @@
     <t>wind resource -- CF class won-DEU_25 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-DEU_25_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_25 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-DEU_25_c5</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_25 -- cost class 5</t>
   </si>
   <si>
-    <t>e_won-DEU_25_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_25 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-DEU_25_c4</t>
   </si>
   <si>
@@ -1310,18 +1310,18 @@
     <t>wind resource -- CF class won-DEU_21 -- cost class 4</t>
   </si>
   <si>
+    <t>e_won-DEU_21_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_21 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-DEU_21_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_21 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-DEU_21_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_21 -- cost class 3</t>
-  </si>
-  <si>
     <t>e_won-DEU_20_c4</t>
   </si>
   <si>
@@ -1352,16 +1352,16 @@
     <t>wind resource -- CF class won-DEU_20 -- cost class 2</t>
   </si>
   <si>
+    <t>e_won-DEU_19_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_19 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-DEU_19_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_19 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-DEU_19_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_19 -- cost class 3</t>
   </si>
   <si>
     <t>e_won-DEU_19_c1</t>
@@ -1899,7 +1899,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBFA3BDC-1D27-6A61-EDB1-0EC9D440E462}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C964AE-AD07-36F5-A7BC-9A24F53C633C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1954,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AE6AA4-348E-E8F5-5179-98FD7D6EFBC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D8425E-58B0-5497-47D5-198EFC57B722}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2009,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6326F82E-E118-CB6E-2189-3453D86ACEFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C48559A-6AB1-6DFD-342D-D03AB91640B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2064,7 +2064,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B05CC2-1D35-B0CA-2036-D8FFE6F11399}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F647BB9A-4971-533A-128A-651AB6BE286D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4591,7 +4591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68C6582-91F4-4AB3-A3A6-AB5BC360620D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21F3B00-AFAA-4048-BAFA-F8FB336E4715}">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5299,7 +5299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55C633B-3A50-4899-A1AF-596792528984}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9D0966-754F-4EF3-8958-8BD2E7D40B33}">
   <dimension ref="A1:P142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6436,16 +6436,16 @@
         <v>447</v>
       </c>
       <c r="M29" s="33">
-        <v>5.5514999999999999</v>
+        <v>7.7835000000000001</v>
       </c>
       <c r="N29" s="37">
         <v>0.39500000000000002</v>
       </c>
       <c r="O29" s="36">
-        <v>24.718827557464273</v>
+        <v>23.448410134596752</v>
       </c>
       <c r="P29" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:16">
@@ -6477,16 +6477,16 @@
         <v>447</v>
       </c>
       <c r="M30" s="32">
-        <v>7.7835000000000001</v>
+        <v>5.5514999999999999</v>
       </c>
       <c r="N30" s="35">
         <v>0.39500000000000002</v>
       </c>
       <c r="O30" s="34">
-        <v>23.448410134596752</v>
+        <v>24.718827557464273</v>
       </c>
       <c r="P30" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -6931,10 +6931,10 @@
         <v>16.640999999999998</v>
       </c>
       <c r="N41" s="37">
-        <v>0.36950000000000005</v>
+        <v>0.3695</v>
       </c>
       <c r="O41" s="36">
-        <v>22.967898136436066</v>
+        <v>22.967898136436006</v>
       </c>
       <c r="P41" s="33">
         <v>1</v>
@@ -7420,16 +7420,16 @@
         <v>447</v>
       </c>
       <c r="M53" s="33">
-        <v>8.3520000000000003</v>
+        <v>8.0355000000000008</v>
       </c>
       <c r="N53" s="37">
         <v>0.34399999999999997</v>
       </c>
       <c r="O53" s="36">
-        <v>29.525752457182815</v>
+        <v>26.712685306547712</v>
       </c>
       <c r="P53" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:16">
@@ -7461,16 +7461,16 @@
         <v>447</v>
       </c>
       <c r="M54" s="32">
-        <v>8.0355000000000008</v>
+        <v>8.3520000000000003</v>
       </c>
       <c r="N54" s="35">
         <v>0.34399999999999997</v>
       </c>
       <c r="O54" s="34">
-        <v>26.712685306547712</v>
+        <v>29.525752457182815</v>
       </c>
       <c r="P54" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="2:16">
@@ -7672,10 +7672,10 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="O59" s="36">
-        <v>29.656657548553735</v>
+        <v>28.749216532219847</v>
       </c>
       <c r="P59" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:16">
@@ -7713,10 +7713,10 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="O60" s="34">
-        <v>28.749216532219847</v>
+        <v>29.656657548553735</v>
       </c>
       <c r="P60" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:16">
@@ -9306,16 +9306,16 @@
         <v>447</v>
       </c>
       <c r="M99" s="33">
-        <v>8.1044999999999998</v>
+        <v>7.8719999999999999</v>
       </c>
       <c r="N99" s="37">
         <v>0.252</v>
       </c>
       <c r="O99" s="36">
-        <v>80.495990145941533</v>
+        <v>57.446988331059579</v>
       </c>
       <c r="P99" s="33">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="2:16">
@@ -9347,16 +9347,16 @@
         <v>447</v>
       </c>
       <c r="M100" s="32">
-        <v>7.8719999999999999</v>
+        <v>8.1044999999999998</v>
       </c>
       <c r="N100" s="35">
         <v>0.252</v>
       </c>
       <c r="O100" s="34">
-        <v>57.446988331059579</v>
+        <v>80.495990145941533</v>
       </c>
       <c r="P100" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="2:16">
@@ -10167,16 +10167,16 @@
         <v>447</v>
       </c>
       <c r="M120" s="32">
-        <v>8.4172499999999992</v>
+        <v>8.4120000000000008</v>
       </c>
       <c r="N120" s="35">
         <v>0.20699999999999999</v>
       </c>
       <c r="O120" s="34">
-        <v>76.409858436959482</v>
+        <v>87.662127039500405</v>
       </c>
       <c r="P120" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="2:16">
@@ -10208,16 +10208,16 @@
         <v>447</v>
       </c>
       <c r="M121" s="33">
-        <v>8.4120000000000008</v>
+        <v>8.4172499999999992</v>
       </c>
       <c r="N121" s="37">
         <v>0.20699999999999999</v>
       </c>
       <c r="O121" s="36">
-        <v>87.662127039500405</v>
+        <v>76.409858436959482</v>
       </c>
       <c r="P121" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="2:16">
@@ -10454,16 +10454,16 @@
         <v>447</v>
       </c>
       <c r="M127" s="33">
-        <v>7.8179999999999996</v>
+        <v>7.8937499999999998</v>
       </c>
       <c r="N127" s="37">
         <v>0.19</v>
       </c>
       <c r="O127" s="36">
-        <v>108.61046158892253</v>
+        <v>110.9698082313907</v>
       </c>
       <c r="P127" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="2:16">
@@ -10495,16 +10495,16 @@
         <v>447</v>
       </c>
       <c r="M128" s="32">
-        <v>7.8937499999999998</v>
+        <v>7.8179999999999996</v>
       </c>
       <c r="N128" s="35">
         <v>0.19</v>
       </c>
       <c r="O128" s="34">
-        <v>110.9698082313907</v>
+        <v>108.61046158892253</v>
       </c>
       <c r="P128" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="2:16">
@@ -11091,7 +11091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA25BAD-0429-46E0-BE7C-E62D61219ECB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180FDE9E-5E28-4B2B-B858-C58B4652DD28}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E1E27AC-56EA-4CBB-B469-CE3847A3EBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55179210-A823-4FF0-A5CB-686AB6AB9B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="542">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -649,102 +649,156 @@
     <t>ele</t>
   </si>
   <si>
+    <t>e_spv-DEU_17_c1</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_17 -- cost class 1</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_17_c4</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_17 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_17_c2</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_17 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_17_c3</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_17 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_16_c3</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_16 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_16_c4</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_16 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_16_c5</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_16 -- cost class 5</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_16_c2</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_16 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_16_c1</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_16 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_15_c3</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_15 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_15_c2</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_15 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_15_c1</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_15 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_15_c5</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_15 -- cost class 5</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_15_c4</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_15 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_14_c1</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_14 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_14_c5</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_14 -- cost class 5</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_14_c3</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_14 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_14_c4</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_14 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_14_c2</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_14 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_13_c1</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_13 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_13_c2</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_13 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_spv-DEU_13_c5</t>
+  </si>
+  <si>
+    <t>solar resource -- CF class spv-DEU_13 -- cost class 5</t>
+  </si>
+  <si>
     <t>e_spv-DEU_13_c4</t>
   </si>
   <si>
     <t>solar resource -- CF class spv-DEU_13 -- cost class 4</t>
   </si>
   <si>
-    <t>annual</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>e_spv-DEU_13_c2</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-DEU_13 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_spv-DEU_13_c1</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-DEU_13 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_spv-DEU_13_c5</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-DEU_13 -- cost class 5</t>
-  </si>
-  <si>
     <t>e_spv-DEU_13_c3</t>
   </si>
   <si>
     <t>solar resource -- CF class spv-DEU_13 -- cost class 3</t>
   </si>
   <si>
-    <t>e_spv-DEU_12_c1</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-DEU_12 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_spv-DEU_12_c2</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-DEU_12 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_spv-DEU_12_c3</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-DEU_12 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_spv-DEU_12_c4</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-DEU_12 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_spv-DEU_12_c5</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-DEU_12 -- cost class 5</t>
-  </si>
-  <si>
-    <t>e_spv-DEU_11_c1</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-DEU_11 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_spv-DEU_11_c3</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-DEU_11 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_spv-DEU_11_c5</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-DEU_11 -- cost class 5</t>
-  </si>
-  <si>
-    <t>e_spv-DEU_11_c4</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-DEU_11 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_spv-DEU_11_c2</t>
-  </si>
-  <si>
-    <t>solar resource -- CF class spv-DEU_11 -- cost class 2</t>
-  </si>
-  <si>
     <t>comm-out</t>
   </si>
   <si>
@@ -763,10 +817,76 @@
     <t>elc_spv-DEU</t>
   </si>
   <si>
-    <t>e_won-DEU_52_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_52 -- cost class 1</t>
+    <t>e_won-DEU_61_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_61 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_58_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_58 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_57_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_57 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_57_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_57 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_56_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_56 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_56_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_56 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_56_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_56 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_won-DEU_56_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_56 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_won-DEU_54_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_54 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_51_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_51 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_51_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_51 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_51_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_51 -- cost class 3</t>
   </si>
   <si>
     <t>e_won-DEU_50_c1</t>
@@ -775,22 +895,28 @@
     <t>wind resource -- CF class won-DEU_50 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_49_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_49 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-DEU_49_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_49 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-DEU_49_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_49 -- cost class 1</t>
+    <t>e_won-DEU_48_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_48 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_47_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_47 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_47_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_47 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_46_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_46 -- cost class 2</t>
   </si>
   <si>
     <t>e_won-DEU_46_c1</t>
@@ -805,88 +931,34 @@
     <t>wind resource -- CF class won-DEU_45 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-DEU_45_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_45 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-DEU_45_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_45 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_45_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_45 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-DEU_44_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_44 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_won-DEU_43_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_43 -- cost class 3</t>
-  </si>
-  <si>
     <t>e_won-DEU_43_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_43 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_43_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_43 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-DEU_43_c2</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_43 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-DEU_43_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_43 -- cost class 5</t>
-  </si>
-  <si>
     <t>e_won-DEU_42_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_42 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_42_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_42 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-DEU_42_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_42 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-DEU_42_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_42 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-DEU_41_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_41 -- cost class 3</t>
+    <t>e_won-DEU_41_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_41 -- cost class 2</t>
   </si>
   <si>
     <t>e_won-DEU_41_c1</t>
@@ -895,10 +967,16 @@
     <t>wind resource -- CF class won-DEU_41 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_41_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_41 -- cost class 2</t>
+    <t>e_won-DEU_40_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_40 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_won-DEU_40_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_40 -- cost class 1</t>
   </si>
   <si>
     <t>e_won-DEU_40_c2</t>
@@ -907,102 +985,24 @@
     <t>wind resource -- CF class won-DEU_40 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-DEU_40_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_40 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_won-DEU_40_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_40 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-DEU_40_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_40 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-DEU_39_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_39 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-DEU_39_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_39 -- cost class 5</t>
-  </si>
-  <si>
-    <t>e_won-DEU_39_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_39 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-DEU_39_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_39 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_39_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_39 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-DEU_38_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_38 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_38_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_38 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-DEU_38_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_38 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-DEU_38_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_38 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-DEU_37_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_37 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-DEU_37_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_37 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_37_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_37 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-DEU_37_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_37 -- cost class 5</t>
-  </si>
-  <si>
     <t>e_won-DEU_37_c2</t>
   </si>
   <si>
@@ -1033,6 +1033,18 @@
     <t>wind resource -- CF class won-DEU_35 -- cost class 2</t>
   </si>
   <si>
+    <t>e_won-DEU_35_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_35 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_won-DEU_35_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_35 -- cost class 5</t>
+  </si>
+  <si>
     <t>e_won-DEU_35_c3</t>
   </si>
   <si>
@@ -1045,16 +1057,16 @@
     <t>wind resource -- CF class won-DEU_35 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_35_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_35 -- cost class 5</t>
-  </si>
-  <si>
-    <t>e_won-DEU_35_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_35 -- cost class 4</t>
+    <t>e_won-DEU_34_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_34 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_34_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_34 -- cost class 4</t>
   </si>
   <si>
     <t>e_won-DEU_34_c2</t>
@@ -1063,10 +1075,10 @@
     <t>wind resource -- CF class won-DEU_34 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-DEU_34_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_34 -- cost class 1</t>
+    <t>e_won-DEU_34_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_34 -- cost class 3</t>
   </si>
   <si>
     <t>e_won-DEU_34_c5</t>
@@ -1075,16 +1087,22 @@
     <t>wind resource -- CF class won-DEU_34 -- cost class 5</t>
   </si>
   <si>
-    <t>e_won-DEU_34_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_34 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-DEU_34_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_34 -- cost class 3</t>
+    <t>e_won-DEU_33_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_33 -- cost class 5</t>
+  </si>
+  <si>
+    <t>e_won-DEU_33_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_33 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_33_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_33 -- cost class 4</t>
   </si>
   <si>
     <t>e_won-DEU_33_c3</t>
@@ -1093,28 +1111,22 @@
     <t>wind resource -- CF class won-DEU_33 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-DEU_33_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_33 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-DEU_33_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_33 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_33_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_33 -- cost class 5</t>
-  </si>
-  <si>
-    <t>e_won-DEU_33_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_33 -- cost class 4</t>
+    <t>e_won-DEU_32_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_32 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_won-DEU_32_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_32 -- cost class 2</t>
   </si>
   <si>
     <t>e_won-DEU_32_c1</t>
@@ -1123,40 +1135,40 @@
     <t>wind resource -- CF class won-DEU_32 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_32_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_32 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-DEU_32_c5</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_32 -- cost class 5</t>
   </si>
   <si>
-    <t>e_won-DEU_32_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_32 -- cost class 3</t>
-  </si>
-  <si>
     <t>e_won-DEU_32_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_32 -- cost class 4</t>
   </si>
   <si>
+    <t>e_won-DEU_31_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_31 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_won-DEU_31_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_31 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-DEU_31_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_31 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_31_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_31 -- cost class 3</t>
+    <t>e_won-DEU_31_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_31 -- cost class 5</t>
   </si>
   <si>
     <t>e_won-DEU_31_c4</t>
@@ -1165,16 +1177,22 @@
     <t>wind resource -- CF class won-DEU_31 -- cost class 4</t>
   </si>
   <si>
-    <t>e_won-DEU_31_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_31 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-DEU_31_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_31 -- cost class 5</t>
+    <t>e_won-DEU_30_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_30 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_30_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_30 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_won-DEU_30_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_30 -- cost class 2</t>
   </si>
   <si>
     <t>e_won-DEU_30_c5</t>
@@ -1183,46 +1201,34 @@
     <t>wind resource -- CF class won-DEU_30 -- cost class 5</t>
   </si>
   <si>
-    <t>e_won-DEU_30_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_30 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-DEU_30_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_30 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_won-DEU_30_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_30 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-DEU_30_c3</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_30 -- cost class 3</t>
   </si>
   <si>
+    <t>e_won-DEU_29_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_29 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_29_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_29 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-DEU_29_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_29 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_29_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_29 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-DEU_29_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_29 -- cost class 3</t>
+    <t>e_won-DEU_29_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_29 -- cost class 5</t>
   </si>
   <si>
     <t>e_won-DEU_29_c4</t>
@@ -1231,10 +1237,22 @@
     <t>wind resource -- CF class won-DEU_29 -- cost class 4</t>
   </si>
   <si>
-    <t>e_won-DEU_29_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_29 -- cost class 5</t>
+    <t>e_won-DEU_28_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_28 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_28_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_28 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_28_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_28 -- cost class 3</t>
   </si>
   <si>
     <t>e_won-DEU_28_c4</t>
@@ -1243,28 +1261,22 @@
     <t>wind resource -- CF class won-DEU_28 -- cost class 4</t>
   </si>
   <si>
-    <t>e_won-DEU_28_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_28 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_won-DEU_28_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_28 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-DEU_28_c5</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_28 -- cost class 5</t>
   </si>
   <si>
-    <t>e_won-DEU_28_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_28 -- cost class 3</t>
+    <t>e_won-DEU_27_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_27 -- cost class 5</t>
+  </si>
+  <si>
+    <t>e_won-DEU_27_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_27 -- cost class 4</t>
   </si>
   <si>
     <t>e_won-DEU_27_c2</t>
@@ -1273,12 +1285,6 @@
     <t>wind resource -- CF class won-DEU_27 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-DEU_27_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_27 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-DEU_27_c1</t>
   </si>
   <si>
@@ -1291,10 +1297,28 @@
     <t>wind resource -- CF class won-DEU_27 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-DEU_27_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_27 -- cost class 5</t>
+    <t>e_won-DEU_26_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_26 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_26_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_26 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_won-DEU_26_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_26 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_26_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_26 -- cost class 3</t>
   </si>
   <si>
     <t>e_won-DEU_26_c5</t>
@@ -1303,28 +1327,22 @@
     <t>wind resource -- CF class won-DEU_26 -- cost class 5</t>
   </si>
   <si>
-    <t>e_won-DEU_26_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_26 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_won-DEU_26_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_26 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-DEU_26_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_26 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-DEU_26_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_26 -- cost class 3</t>
+    <t>e_won-DEU_25_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_25 -- cost class 5</t>
+  </si>
+  <si>
+    <t>e_won-DEU_25_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_25 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_won-DEU_25_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_25 -- cost class 2</t>
   </si>
   <si>
     <t>e_won-DEU_25_c1</t>
@@ -1333,58 +1351,34 @@
     <t>wind resource -- CF class won-DEU_25 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_25_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_25 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-DEU_25_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_25 -- cost class 5</t>
-  </si>
-  <si>
     <t>e_won-DEU_25_c4</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_25 -- cost class 4</t>
   </si>
   <si>
-    <t>e_won-DEU_25_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_25 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-DEU_24_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_24 -- cost class 4</t>
-  </si>
-  <si>
     <t>e_won-DEU_24_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_24 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_24_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_24 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-DEU_24_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_24 -- cost class 5</t>
-  </si>
-  <si>
-    <t>e_won-DEU_24_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_24 -- cost class 3</t>
+    <t>e_won-DEU_23_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_23 -- cost class 5</t>
+  </si>
+  <si>
+    <t>e_won-DEU_23_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_23 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_won-DEU_23_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_23 -- cost class 2</t>
   </si>
   <si>
     <t>e_won-DEU_23_c3</t>
@@ -1393,18 +1387,6 @@
     <t>wind resource -- CF class won-DEU_23 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-DEU_23_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_23 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-DEU_23_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_23 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-DEU_23_c1</t>
   </si>
   <si>
@@ -1417,58 +1399,76 @@
     <t>wind resource -- CF class won-DEU_22 -- cost class 3</t>
   </si>
   <si>
+    <t>e_won-DEU_22_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_22 -- cost class 4</t>
+  </si>
+  <si>
     <t>e_won-DEU_22_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_22 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-DEU_22_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_22 -- cost class 2</t>
+  </si>
+  <si>
     <t>e_won-DEU_22_c5</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_22 -- cost class 5</t>
   </si>
   <si>
-    <t>e_won-DEU_22_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_22 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-DEU_22_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_22 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-DEU_21_c1</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_21 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-DEU_21_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_21 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_21_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_21 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_won-DEU_21_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_21 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-DEU_21_c5</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_21 -- cost class 5</t>
   </si>
   <si>
-    <t>e_won-DEU_21_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_21 -- cost class 4</t>
-  </si>
-  <si>
-    <t>e_won-DEU_21_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_21 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-DEU_21_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_21 -- cost class 2</t>
+    <t>e_won-DEU_20_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_20 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_won-DEU_20_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_20 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_20_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_20 -- cost class 5</t>
   </si>
   <si>
     <t>e_won-DEU_20_c4</t>
@@ -1483,22 +1483,10 @@
     <t>wind resource -- CF class won-DEU_20 -- cost class 1</t>
   </si>
   <si>
-    <t>e_won-DEU_20_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_20 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-DEU_20_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_20 -- cost class 5</t>
-  </si>
-  <si>
-    <t>e_won-DEU_20_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_20 -- cost class 2</t>
+    <t>e_won-DEU_19_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_19 -- cost class 2</t>
   </si>
   <si>
     <t>e_won-DEU_19_c3</t>
@@ -1507,12 +1495,6 @@
     <t>wind resource -- CF class won-DEU_19 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-DEU_19_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_19 -- cost class 2</t>
-  </si>
-  <si>
     <t>e_won-DEU_19_c1</t>
   </si>
   <si>
@@ -1525,34 +1507,46 @@
     <t>wind resource -- CF class won-DEU_19 -- cost class 4</t>
   </si>
   <si>
+    <t>e_won-DEU_18_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_18 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_won-DEU_18_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_18 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_18_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_18 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_18_c5</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_18 -- cost class 5</t>
+  </si>
+  <si>
     <t>e_won-DEU_18_c3</t>
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_18 -- cost class 3</t>
   </si>
   <si>
-    <t>e_won-DEU_18_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_18 -- cost class 2</t>
-  </si>
-  <si>
-    <t>e_won-DEU_18_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_18 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_won-DEU_18_c5</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_18 -- cost class 5</t>
-  </si>
-  <si>
-    <t>e_won-DEU_18_c4</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_18 -- cost class 4</t>
+    <t>e_won-DEU_17_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_17 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_17_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_17 -- cost class 3</t>
   </si>
   <si>
     <t>e_won-DEU_17_c2</t>
@@ -1561,22 +1555,10 @@
     <t>wind resource -- CF class won-DEU_17 -- cost class 2</t>
   </si>
   <si>
-    <t>e_won-DEU_17_c1</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_17 -- cost class 1</t>
-  </si>
-  <si>
-    <t>e_won-DEU_16_c3</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_16 -- cost class 3</t>
-  </si>
-  <si>
-    <t>e_won-DEU_16_c2</t>
-  </si>
-  <si>
-    <t>wind resource -- CF class won-DEU_16 -- cost class 2</t>
+    <t>e_won-DEU_17_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_17 -- cost class 4</t>
   </si>
   <si>
     <t>e_won-DEU_16_c1</t>
@@ -1585,6 +1567,18 @@
     <t>wind resource -- CF class won-DEU_16 -- cost class 1</t>
   </si>
   <si>
+    <t>e_won-DEU_15_c4</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_15 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_won-DEU_15_c3</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_15 -- cost class 3</t>
+  </si>
+  <si>
     <t>e_won-DEU_15_c2</t>
   </si>
   <si>
@@ -1595,6 +1589,96 @@
   </si>
   <si>
     <t>wind resource -- CF class won-DEU_15 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_14_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_14 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_13_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_13 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_12_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_12 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_11_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_11 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_11_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_11 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_10_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_10 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_9_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_9 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_9_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_9 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_7_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_7 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_5_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_5 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_5_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_5 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_3_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_3 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_3_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_3 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_won-DEU_2_c2</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_2 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_won-DEU_2_c1</t>
+  </si>
+  <si>
+    <t>wind resource -- CF class won-DEU_2 -- cost class 1</t>
   </si>
   <si>
     <t>elc_won-DEU</t>
@@ -2713,7 +2797,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3794EC-D03C-F58D-E983-FA674F67FD46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C183C4E3-6B03-DCC9-AC6B-9D290B00ED33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2852,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300BDA7E-61A5-FFD3-67D8-D99338C2B3F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469B5564-95C2-4D41-4EC4-2235BFF2310A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2907,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8DFCEC-2814-5365-5BD6-F94FB8B28467}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEEB80E4-0804-CA22-51F1-C860A495FAE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,7 +2962,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F90FFD6-6842-B624-F660-7479D36E22AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B90310-1A00-9D3D-CE01-7CD44291780F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6808,8 +6892,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2CEA55-B53F-42E9-9387-C62E0592797C}">
-  <dimension ref="A1:P18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3886466-D9F7-43DF-8C5F-0FBEF770D2C1}">
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -6876,19 +6960,19 @@
         <v>153</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O3" s="155" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="P3" s="155" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6917,19 +7001,19 @@
         <v>173</v>
       </c>
       <c r="L4" s="156" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M4" s="160">
-        <v>21.250499999999999</v>
+        <v>2.9460000000000002</v>
       </c>
       <c r="N4" s="161">
-        <v>0.12731527493470743</v>
+        <v>0.1662904323543602</v>
       </c>
       <c r="O4" s="160">
-        <v>66.914630134385561</v>
+        <v>267.49402871669906</v>
       </c>
       <c r="P4" s="158">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6958,19 +7042,19 @@
         <v>177</v>
       </c>
       <c r="L5" s="157" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M5" s="162">
-        <v>18.522749999999998</v>
+        <v>0.3765</v>
       </c>
       <c r="N5" s="163">
-        <v>0.12681941126452606</v>
+        <v>0.1660589409575936</v>
       </c>
       <c r="O5" s="162">
-        <v>63.392329348915766</v>
+        <v>298.96117819583588</v>
       </c>
       <c r="P5" s="159">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6999,19 +7083,19 @@
         <v>179</v>
       </c>
       <c r="L6" s="156" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M6" s="160">
-        <v>27.350249999999999</v>
+        <v>0.86850000000000005</v>
       </c>
       <c r="N6" s="161">
-        <v>0.12640924671620918</v>
+        <v>0.16603687133815981</v>
       </c>
       <c r="O6" s="160">
-        <v>62.151976739682887</v>
+        <v>285.79670832191294</v>
       </c>
       <c r="P6" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -7040,19 +7124,19 @@
         <v>181</v>
       </c>
       <c r="L7" s="157" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M7" s="162">
-        <v>24.141749999999998</v>
+        <v>2.3174999999999999</v>
       </c>
       <c r="N7" s="163">
-        <v>0.12631936375780545</v>
+        <v>0.16600998761152111</v>
       </c>
       <c r="O7" s="162">
-        <v>68.282094891773568</v>
+        <v>288.94491326936139</v>
       </c>
       <c r="P7" s="159">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7081,16 +7165,16 @@
         <v>183</v>
       </c>
       <c r="L8" s="156" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M8" s="160">
-        <v>30.820499999999999</v>
+        <v>12.33525</v>
       </c>
       <c r="N8" s="161">
-        <v>0.12630858519491897</v>
+        <v>0.15889783834417609</v>
       </c>
       <c r="O8" s="160">
-        <v>65.038363983103849</v>
+        <v>258.15633765267802</v>
       </c>
       <c r="P8" s="158">
         <v>3</v>
@@ -7122,19 +7206,19 @@
         <v>185</v>
       </c>
       <c r="L9" s="157" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M9" s="162">
-        <v>120.19275</v>
+        <v>3.2130000000000001</v>
       </c>
       <c r="N9" s="163">
-        <v>0.12048940763897988</v>
+        <v>0.15791618136540428</v>
       </c>
       <c r="O9" s="162">
-        <v>66.721763025584437</v>
+        <v>312.55074479958182</v>
       </c>
       <c r="P9" s="159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7163,19 +7247,19 @@
         <v>187</v>
       </c>
       <c r="L10" s="156" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M10" s="160">
-        <v>106.3455</v>
+        <v>0.30449999999999999</v>
       </c>
       <c r="N10" s="161">
-        <v>0.11890218203873223</v>
+        <v>0.15763049594795012</v>
       </c>
       <c r="O10" s="160">
-        <v>69.277251993780453</v>
+        <v>363.8034071980012</v>
       </c>
       <c r="P10" s="158">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7204,19 +7288,19 @@
         <v>189</v>
       </c>
       <c r="L11" s="157" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M11" s="162">
-        <v>104.901</v>
+        <v>18.218250000000001</v>
       </c>
       <c r="N11" s="163">
-        <v>0.11802694683558787</v>
+        <v>0.15724754825901865</v>
       </c>
       <c r="O11" s="162">
-        <v>71.134438400838548</v>
+        <v>246.62269817533621</v>
       </c>
       <c r="P11" s="159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7245,19 +7329,19 @@
         <v>191</v>
       </c>
       <c r="L12" s="156" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M12" s="160">
-        <v>106.20975</v>
+        <v>22.190999999999999</v>
       </c>
       <c r="N12" s="161">
-        <v>0.11710461610162907</v>
+        <v>0.15552395646352002</v>
       </c>
       <c r="O12" s="160">
-        <v>73.383582863942124</v>
+        <v>234.73391085633514</v>
       </c>
       <c r="P12" s="158">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -7286,19 +7370,19 @@
         <v>193</v>
       </c>
       <c r="L13" s="157" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M13" s="162">
-        <v>91.445999999999998</v>
+        <v>39.162750000000003</v>
       </c>
       <c r="N13" s="163">
-        <v>0.11566864050915296</v>
+        <v>0.15105495394601756</v>
       </c>
       <c r="O13" s="162">
-        <v>76.319037310590474</v>
+        <v>257.80138232373633</v>
       </c>
       <c r="P13" s="159">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -7327,19 +7411,19 @@
         <v>195</v>
       </c>
       <c r="L14" s="156" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M14" s="160">
-        <v>107.40225</v>
+        <v>51.257249999999999</v>
       </c>
       <c r="N14" s="161">
-        <v>0.11276503285545694</v>
+        <v>0.14917232056149105</v>
       </c>
       <c r="O14" s="160">
-        <v>70.670589749388398</v>
+        <v>234.63545974832456</v>
       </c>
       <c r="P14" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -7368,19 +7452,19 @@
         <v>197</v>
       </c>
       <c r="L15" s="157" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M15" s="162">
-        <v>97.701750000000004</v>
+        <v>56.616</v>
       </c>
       <c r="N15" s="163">
-        <v>0.11184261796743662</v>
+        <v>0.14895136711068033</v>
       </c>
       <c r="O15" s="162">
-        <v>76.161311397357139</v>
+        <v>227.13963883873711</v>
       </c>
       <c r="P15" s="159">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -7409,16 +7493,16 @@
         <v>199</v>
       </c>
       <c r="L16" s="156" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M16" s="160">
-        <v>75.320250000000001</v>
+        <v>23.265750000000001</v>
       </c>
       <c r="N16" s="161">
-        <v>0.11126823463809532</v>
+        <v>0.14862106737048494</v>
       </c>
       <c r="O16" s="160">
-        <v>80.110463691358362</v>
+        <v>342.45955133053599</v>
       </c>
       <c r="P16" s="158">
         <v>5</v>
@@ -7450,16 +7534,16 @@
         <v>201</v>
       </c>
       <c r="L17" s="157" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M17" s="162">
-        <v>86.024249999999995</v>
+        <v>36.792749999999998</v>
       </c>
       <c r="N17" s="163">
-        <v>0.11123612237247056</v>
+        <v>0.14805798945663137</v>
       </c>
       <c r="O17" s="162">
-        <v>77.772542159284384</v>
+        <v>322.32861047834535</v>
       </c>
       <c r="P17" s="159">
         <v>4</v>
@@ -7491,19 +7575,388 @@
         <v>203</v>
       </c>
       <c r="L18" s="156" t="s">
+        <v>228</v>
+      </c>
+      <c r="M18" s="160">
+        <v>109.77675000000001</v>
+      </c>
+      <c r="N18" s="161">
+        <v>0.13983945953235688</v>
+      </c>
+      <c r="O18" s="160">
+        <v>213.9222123439904</v>
+      </c>
+      <c r="P18" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="157" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" s="157" t="s">
+        <v>205</v>
+      </c>
+      <c r="L19" s="157" t="s">
+        <v>228</v>
+      </c>
+      <c r="M19" s="162">
+        <v>100.48350000000001</v>
+      </c>
+      <c r="N19" s="163">
+        <v>0.13963843619062233</v>
+      </c>
+      <c r="O19" s="162">
+        <v>304.49397984983688</v>
+      </c>
+      <c r="P19" s="159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="156" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="156" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="156" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" s="156" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" s="160">
+        <v>87.770250000000004</v>
+      </c>
+      <c r="N20" s="161">
+        <v>0.13807111836097102</v>
+      </c>
+      <c r="O20" s="160">
+        <v>237.19670789082534</v>
+      </c>
+      <c r="P20" s="158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="157" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="157" t="s">
         <v>210</v>
       </c>
-      <c r="M18" s="160">
-        <v>102.801</v>
-      </c>
-      <c r="N18" s="161">
-        <v>0.11096546239822572</v>
-      </c>
-      <c r="O18" s="160">
-        <v>73.435649483222122</v>
-      </c>
-      <c r="P18" s="158">
+      <c r="E21" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="157" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" s="157" t="s">
+        <v>228</v>
+      </c>
+      <c r="M21" s="162">
+        <v>103.27124999999999</v>
+      </c>
+      <c r="N21" s="163">
+        <v>0.13790460204073779</v>
+      </c>
+      <c r="O21" s="162">
+        <v>259.07199197740363</v>
+      </c>
+      <c r="P21" s="159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="156" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="156" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" s="156" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" s="156" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" s="160">
+        <v>93.534000000000006</v>
+      </c>
+      <c r="N22" s="161">
+        <v>0.13743726661688294</v>
+      </c>
+      <c r="O22" s="160">
+        <v>229.40085331501044</v>
+      </c>
+      <c r="P22" s="158">
         <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="157" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="157" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" s="157" t="s">
+        <v>213</v>
+      </c>
+      <c r="L23" s="157" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" s="162">
+        <v>81.409499999999994</v>
+      </c>
+      <c r="N23" s="163">
+        <v>0.13358158908774617</v>
+      </c>
+      <c r="O23" s="162">
+        <v>200.56525314736527</v>
+      </c>
+      <c r="P23" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="156" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="156" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="156" t="s">
+        <v>215</v>
+      </c>
+      <c r="L24" s="156" t="s">
+        <v>228</v>
+      </c>
+      <c r="M24" s="160">
+        <v>67.3125</v>
+      </c>
+      <c r="N24" s="161">
+        <v>0.13332202644076427</v>
+      </c>
+      <c r="O24" s="160">
+        <v>224.03871801406035</v>
+      </c>
+      <c r="P24" s="158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="157" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="157" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="157" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" s="157" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" s="162">
+        <v>72.006</v>
+      </c>
+      <c r="N25" s="163">
+        <v>0.13329939427311402</v>
+      </c>
+      <c r="O25" s="162">
+        <v>272.91435180233617</v>
+      </c>
+      <c r="P25" s="159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="156" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="156" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" s="156" t="s">
+        <v>228</v>
+      </c>
+      <c r="M26" s="160">
+        <v>77.682000000000002</v>
+      </c>
+      <c r="N26" s="161">
+        <v>0.13317206265060336</v>
+      </c>
+      <c r="O26" s="160">
+        <v>250.9534926512585</v>
+      </c>
+      <c r="P26" s="158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="157" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="157" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" s="157" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" s="157" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" s="162">
+        <v>57.319499999999998</v>
+      </c>
+      <c r="N27" s="163">
+        <v>0.13277800207180926</v>
+      </c>
+      <c r="O27" s="162">
+        <v>238.10093224981728</v>
+      </c>
+      <c r="P27" s="159">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7516,8 +7969,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98547CEB-00A8-427E-9046-9160CFE2E2DB}">
-  <dimension ref="A1:P142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A6BDB2-DA76-4D5A-8E7A-6A5F2E53F775}">
+  <dimension ref="A1:P147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -7584,19 +8037,19 @@
         <v>153</v>
       </c>
       <c r="L3" s="155" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="M3" s="155" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="O3" s="155" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="P3" s="155" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7604,10 +8057,10 @@
         <v>172</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D4" s="156" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="E4" s="156" t="s">
         <v>10</v>
@@ -7622,19 +8075,19 @@
         <v>176</v>
       </c>
       <c r="K4" s="156" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="L4" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M4" s="158">
         <v>1.125E-2</v>
       </c>
       <c r="N4" s="161">
-        <v>0.51500000000000001</v>
+        <v>0.60547369604706214</v>
       </c>
       <c r="O4" s="160">
-        <v>31.760186153134775</v>
+        <v>108.15475989055493</v>
       </c>
       <c r="P4" s="158">
         <v>1</v>
@@ -7645,10 +8098,10 @@
         <v>172</v>
       </c>
       <c r="C5" s="157" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D5" s="157" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="E5" s="157" t="s">
         <v>10</v>
@@ -7663,19 +8116,19 @@
         <v>176</v>
       </c>
       <c r="K5" s="157" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="L5" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M5" s="159">
         <v>0.13200000000000001</v>
       </c>
       <c r="N5" s="163">
-        <v>0.501</v>
+        <v>0.57960586454463925</v>
       </c>
       <c r="O5" s="162">
-        <v>20.286755794198495</v>
+        <v>91.560100656196468</v>
       </c>
       <c r="P5" s="159">
         <v>1</v>
@@ -7686,10 +8139,10 @@
         <v>172</v>
       </c>
       <c r="C6" s="156" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D6" s="156" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="E6" s="156" t="s">
         <v>10</v>
@@ -7704,19 +8157,19 @@
         <v>176</v>
       </c>
       <c r="K6" s="156" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="L6" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M6" s="158">
-        <v>0.94199999999999995</v>
+        <v>0.21375</v>
       </c>
       <c r="N6" s="161">
-        <v>0.49299999999999999</v>
+        <v>0.57320959241145331</v>
       </c>
       <c r="O6" s="160">
-        <v>20.74240537670503</v>
+        <v>150.91939986003885</v>
       </c>
       <c r="P6" s="158">
         <v>2</v>
@@ -7727,10 +8180,10 @@
         <v>172</v>
       </c>
       <c r="C7" s="157" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D7" s="157" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E7" s="157" t="s">
         <v>10</v>
@@ -7745,22 +8198,22 @@
         <v>176</v>
       </c>
       <c r="K7" s="157" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="L7" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M7" s="159">
-        <v>0.20549999999999999</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="N7" s="163">
-        <v>0.49</v>
+        <v>0.57299534979618882</v>
       </c>
       <c r="O7" s="162">
-        <v>21.193115388511671</v>
+        <v>95.303008801214105</v>
       </c>
       <c r="P7" s="159">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7768,10 +8221,10 @@
         <v>172</v>
       </c>
       <c r="C8" s="156" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D8" s="156" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="E8" s="156" t="s">
         <v>10</v>
@@ -7786,22 +8239,22 @@
         <v>176</v>
       </c>
       <c r="K8" s="156" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="L8" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M8" s="158">
         <v>0.222</v>
       </c>
       <c r="N8" s="161">
-        <v>0.48899999999999999</v>
+        <v>0.56455391735389493</v>
       </c>
       <c r="O8" s="160">
-        <v>18.642361438931523</v>
+        <v>90.700890309975236</v>
       </c>
       <c r="P8" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -7809,10 +8262,10 @@
         <v>172</v>
       </c>
       <c r="C9" s="157" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D9" s="157" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="E9" s="157" t="s">
         <v>10</v>
@@ -7827,19 +8280,19 @@
         <v>176</v>
       </c>
       <c r="K9" s="157" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="L9" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M9" s="159">
-        <v>0.48149999999999998</v>
+        <v>0.20549999999999999</v>
       </c>
       <c r="N9" s="163">
-        <v>0.46300000000000002</v>
+        <v>0.55646086641743908</v>
       </c>
       <c r="O9" s="162">
-        <v>18.442530265977414</v>
+        <v>85.369903813338894</v>
       </c>
       <c r="P9" s="159">
         <v>1</v>
@@ -7850,10 +8303,10 @@
         <v>172</v>
       </c>
       <c r="C10" s="156" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D10" s="156" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E10" s="156" t="s">
         <v>10</v>
@@ -7868,22 +8321,22 @@
         <v>176</v>
       </c>
       <c r="K10" s="156" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="L10" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M10" s="158">
-        <v>4.3147500000000001</v>
+        <v>0.48149999999999998</v>
       </c>
       <c r="N10" s="161">
-        <v>0.45</v>
+        <v>0.55571876678834353</v>
       </c>
       <c r="O10" s="160">
-        <v>19.164868819295357</v>
+        <v>113.32244404875125</v>
       </c>
       <c r="P10" s="158">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7891,10 +8344,10 @@
         <v>172</v>
       </c>
       <c r="C11" s="157" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D11" s="157" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E11" s="157" t="s">
         <v>10</v>
@@ -7909,19 +8362,19 @@
         <v>176</v>
       </c>
       <c r="K11" s="157" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="L11" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M11" s="159">
-        <v>0.90525</v>
+        <v>2.23875</v>
       </c>
       <c r="N11" s="163">
-        <v>0.44600000000000001</v>
+        <v>0.55538842146607259</v>
       </c>
       <c r="O11" s="162">
-        <v>25.804811568629027</v>
+        <v>184.18400806437</v>
       </c>
       <c r="P11" s="159">
         <v>4</v>
@@ -7932,10 +8385,10 @@
         <v>172</v>
       </c>
       <c r="C12" s="156" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="D12" s="156" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="E12" s="156" t="s">
         <v>10</v>
@@ -7950,19 +8403,19 @@
         <v>176</v>
       </c>
       <c r="K12" s="156" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="L12" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M12" s="158">
-        <v>0.21375</v>
+        <v>0.90525</v>
       </c>
       <c r="N12" s="161">
-        <v>0.44500000000000001</v>
+        <v>0.54362148490056739</v>
       </c>
       <c r="O12" s="160">
-        <v>18.579821055667093</v>
+        <v>131.81720195568911</v>
       </c>
       <c r="P12" s="158">
         <v>1</v>
@@ -7973,10 +8426,10 @@
         <v>172</v>
       </c>
       <c r="C13" s="157" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D13" s="157" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E13" s="157" t="s">
         <v>10</v>
@@ -7991,22 +8444,22 @@
         <v>176</v>
       </c>
       <c r="K13" s="157" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="L13" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M13" s="159">
         <v>1.4212499999999999</v>
       </c>
       <c r="N13" s="163">
-        <v>0.44499999999999995</v>
+        <v>0.51172011645728255</v>
       </c>
       <c r="O13" s="162">
-        <v>20.485447189968305</v>
+        <v>97.630305139536134</v>
       </c>
       <c r="P13" s="159">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -8014,10 +8467,10 @@
         <v>172</v>
       </c>
       <c r="C14" s="156" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="D14" s="156" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="E14" s="156" t="s">
         <v>10</v>
@@ -8032,22 +8485,22 @@
         <v>176</v>
       </c>
       <c r="K14" s="156" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="L14" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M14" s="158">
-        <v>2.4224999999999999</v>
+        <v>2.1030000000000002</v>
       </c>
       <c r="N14" s="161">
-        <v>0.44399999999999995</v>
+        <v>0.50785221851711282</v>
       </c>
       <c r="O14" s="160">
-        <v>20.786241329214224</v>
+        <v>135.09086284101909</v>
       </c>
       <c r="P14" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -8055,10 +8508,10 @@
         <v>172</v>
       </c>
       <c r="C15" s="157" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="D15" s="157" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="E15" s="157" t="s">
         <v>10</v>
@@ -8073,19 +8526,19 @@
         <v>176</v>
       </c>
       <c r="K15" s="157" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="L15" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M15" s="159">
-        <v>1.476</v>
+        <v>1.4744999999999999</v>
       </c>
       <c r="N15" s="163">
-        <v>0.43099999999999994</v>
+        <v>0.50527134774735971</v>
       </c>
       <c r="O15" s="162">
-        <v>20.141102756617514</v>
+        <v>138.250308875001</v>
       </c>
       <c r="P15" s="159">
         <v>3</v>
@@ -8096,10 +8549,10 @@
         <v>172</v>
       </c>
       <c r="C16" s="156" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D16" s="156" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E16" s="156" t="s">
         <v>10</v>
@@ -8114,19 +8567,19 @@
         <v>176</v>
       </c>
       <c r="K16" s="156" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="L16" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M16" s="158">
-        <v>11.789249999999999</v>
+        <v>0.83250000000000002</v>
       </c>
       <c r="N16" s="161">
-        <v>0.4307887270182581</v>
+        <v>0.5000100636922703</v>
       </c>
       <c r="O16" s="160">
-        <v>20.015257196529252</v>
+        <v>131.1337537450967</v>
       </c>
       <c r="P16" s="158">
         <v>1</v>
@@ -8137,10 +8590,10 @@
         <v>172</v>
       </c>
       <c r="C17" s="157" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D17" s="157" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E17" s="157" t="s">
         <v>10</v>
@@ -8155,22 +8608,22 @@
         <v>176</v>
       </c>
       <c r="K17" s="157" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="L17" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M17" s="159">
-        <v>7.0282499999999999</v>
+        <v>1.476</v>
       </c>
       <c r="N17" s="163">
-        <v>0.43</v>
+        <v>0.47927323018315537</v>
       </c>
       <c r="O17" s="162">
-        <v>20.989023018377928</v>
+        <v>81.671342488415021</v>
       </c>
       <c r="P17" s="159">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -8178,10 +8631,10 @@
         <v>172</v>
       </c>
       <c r="C18" s="156" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D18" s="156" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="E18" s="156" t="s">
         <v>10</v>
@@ -8196,22 +8649,22 @@
         <v>176</v>
       </c>
       <c r="K18" s="156" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="L18" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M18" s="158">
-        <v>7.54575</v>
+        <v>5.4210000000000003</v>
       </c>
       <c r="N18" s="161">
-        <v>0.42799999999999999</v>
+        <v>0.47395544719054766</v>
       </c>
       <c r="O18" s="160">
-        <v>20.124112589447744</v>
+        <v>90.298773288255106</v>
       </c>
       <c r="P18" s="158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:16">
@@ -8219,10 +8672,10 @@
         <v>172</v>
       </c>
       <c r="C19" s="157" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="D19" s="157" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="E19" s="157" t="s">
         <v>10</v>
@@ -8237,22 +8690,22 @@
         <v>176</v>
       </c>
       <c r="K19" s="157" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="L19" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M19" s="159">
-        <v>3.75</v>
+        <v>4.1527500000000002</v>
       </c>
       <c r="N19" s="163">
-        <v>0.42499999999999999</v>
+        <v>0.4679272704745196</v>
       </c>
       <c r="O19" s="162">
-        <v>21.589320908484247</v>
+        <v>140.22011360442906</v>
       </c>
       <c r="P19" s="159">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -8260,10 +8713,10 @@
         <v>172</v>
       </c>
       <c r="C20" s="156" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="D20" s="156" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="E20" s="156" t="s">
         <v>10</v>
@@ -8278,22 +8731,22 @@
         <v>176</v>
       </c>
       <c r="K20" s="156" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="L20" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M20" s="158">
-        <v>5.4210000000000003</v>
+        <v>1.5667500000000001</v>
       </c>
       <c r="N20" s="161">
-        <v>0.42199999999999999</v>
+        <v>0.4617910666503538</v>
       </c>
       <c r="O20" s="160">
-        <v>21.903859521870107</v>
+        <v>230.29317433151718</v>
       </c>
       <c r="P20" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:16">
@@ -8301,10 +8754,10 @@
         <v>172</v>
       </c>
       <c r="C21" s="157" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D21" s="157" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="E21" s="157" t="s">
         <v>10</v>
@@ -8319,22 +8772,22 @@
         <v>176</v>
       </c>
       <c r="K21" s="157" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="L21" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M21" s="159">
-        <v>2.1030000000000002</v>
+        <v>5.5514999999999999</v>
       </c>
       <c r="N21" s="163">
-        <v>0.41799999999999998</v>
+        <v>0.45911415041508091</v>
       </c>
       <c r="O21" s="162">
-        <v>23.646563550153605</v>
+        <v>117.80363544151726</v>
       </c>
       <c r="P21" s="159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:16">
@@ -8342,10 +8795,10 @@
         <v>172</v>
       </c>
       <c r="C22" s="156" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D22" s="156" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E22" s="156" t="s">
         <v>10</v>
@@ -8360,22 +8813,22 @@
         <v>176</v>
       </c>
       <c r="K22" s="156" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="L22" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M22" s="158">
-        <v>0.83250000000000002</v>
+        <v>5.4794999999999998</v>
       </c>
       <c r="N22" s="161">
-        <v>0.41599999999999998</v>
+        <v>0.45349251926597589</v>
       </c>
       <c r="O22" s="160">
-        <v>24.792463107916969</v>
+        <v>46.175485615069107</v>
       </c>
       <c r="P22" s="158">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:16">
@@ -8383,10 +8836,10 @@
         <v>172</v>
       </c>
       <c r="C23" s="157" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D23" s="157" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="E23" s="157" t="s">
         <v>10</v>
@@ -8401,22 +8854,22 @@
         <v>176</v>
       </c>
       <c r="K23" s="157" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="L23" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M23" s="159">
-        <v>2.23875</v>
+        <v>7.0282499999999999</v>
       </c>
       <c r="N23" s="163">
-        <v>0.41499999999999998</v>
+        <v>0.44728008221576948</v>
       </c>
       <c r="O23" s="162">
-        <v>23.811817391136721</v>
+        <v>44.644977662440489</v>
       </c>
       <c r="P23" s="159">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -8424,10 +8877,10 @@
         <v>172</v>
       </c>
       <c r="C24" s="156" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D24" s="156" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="E24" s="156" t="s">
         <v>10</v>
@@ -8442,22 +8895,22 @@
         <v>176</v>
       </c>
       <c r="K24" s="156" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="L24" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M24" s="158">
-        <v>1.4744999999999999</v>
+        <v>4.3147500000000001</v>
       </c>
       <c r="N24" s="161">
-        <v>0.41299999999999998</v>
+        <v>0.43447773296025288</v>
       </c>
       <c r="O24" s="160">
-        <v>21.828369391088525</v>
+        <v>-1.738573105638805</v>
       </c>
       <c r="P24" s="158">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:16">
@@ -8465,10 +8918,10 @@
         <v>172</v>
       </c>
       <c r="C25" s="157" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D25" s="157" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="E25" s="157" t="s">
         <v>10</v>
@@ -8483,22 +8936,22 @@
         <v>176</v>
       </c>
       <c r="K25" s="157" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="L25" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M25" s="159">
-        <v>6.2902500000000003</v>
+        <v>6.3097500000000002</v>
       </c>
       <c r="N25" s="163">
-        <v>0.40800000000000003</v>
+        <v>0.43159159220331572</v>
       </c>
       <c r="O25" s="162">
-        <v>21.45666179025779</v>
+        <v>25.061952485501006</v>
       </c>
       <c r="P25" s="159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:16">
@@ -8506,10 +8959,10 @@
         <v>172</v>
       </c>
       <c r="C26" s="156" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="D26" s="156" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="E26" s="156" t="s">
         <v>10</v>
@@ -8524,22 +8977,22 @@
         <v>176</v>
       </c>
       <c r="K26" s="156" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="L26" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M26" s="158">
-        <v>7.8817500000000003</v>
+        <v>6.2902500000000003</v>
       </c>
       <c r="N26" s="161">
-        <v>0.40799999999999997</v>
+        <v>0.41804908680458552</v>
       </c>
       <c r="O26" s="160">
-        <v>21.45666179025779</v>
+        <v>36.969163578579909</v>
       </c>
       <c r="P26" s="158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:16">
@@ -8547,10 +9000,10 @@
         <v>172</v>
       </c>
       <c r="C27" s="157" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="D27" s="157" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="E27" s="157" t="s">
         <v>10</v>
@@ -8565,19 +9018,19 @@
         <v>176</v>
       </c>
       <c r="K27" s="157" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="L27" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M27" s="159">
-        <v>7.11</v>
+        <v>7.9312500000000004</v>
       </c>
       <c r="N27" s="163">
-        <v>0.40300000000000008</v>
+        <v>0.41321055018703212</v>
       </c>
       <c r="O27" s="162">
-        <v>22.705972104607</v>
+        <v>64.167733956672052</v>
       </c>
       <c r="P27" s="159">
         <v>2</v>
@@ -8588,10 +9041,10 @@
         <v>172</v>
       </c>
       <c r="C28" s="156" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D28" s="156" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="E28" s="156" t="s">
         <v>10</v>
@@ -8606,19 +9059,19 @@
         <v>176</v>
       </c>
       <c r="K28" s="156" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="L28" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M28" s="158">
-        <v>7.9904999999999999</v>
+        <v>7.54575</v>
       </c>
       <c r="N28" s="161">
-        <v>0.39700000000000002</v>
+        <v>0.41233198565551887</v>
       </c>
       <c r="O28" s="160">
-        <v>22.269239000965893</v>
+        <v>-3.251653620696862</v>
       </c>
       <c r="P28" s="158">
         <v>1</v>
@@ -8629,10 +9082,10 @@
         <v>172</v>
       </c>
       <c r="C29" s="157" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="D29" s="157" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="E29" s="157" t="s">
         <v>10</v>
@@ -8647,19 +9100,19 @@
         <v>176</v>
       </c>
       <c r="K29" s="157" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="L29" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M29" s="159">
-        <v>7.7835000000000001</v>
+        <v>6.3307500000000001</v>
       </c>
       <c r="N29" s="163">
-        <v>0.39500000000000002</v>
+        <v>0.40294995999097311</v>
       </c>
       <c r="O29" s="162">
-        <v>23.448410134596752</v>
+        <v>86.599429566050702</v>
       </c>
       <c r="P29" s="159">
         <v>3</v>
@@ -8670,10 +9123,10 @@
         <v>172</v>
       </c>
       <c r="C30" s="156" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="D30" s="156" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="E30" s="156" t="s">
         <v>10</v>
@@ -8688,22 +9141,22 @@
         <v>176</v>
       </c>
       <c r="K30" s="156" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="L30" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M30" s="158">
-        <v>5.5514999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="N30" s="161">
-        <v>0.39500000000000002</v>
+        <v>0.39697151968295202</v>
       </c>
       <c r="O30" s="160">
-        <v>24.718827557464273</v>
+        <v>-22.152208145510681</v>
       </c>
       <c r="P30" s="158">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -8711,10 +9164,10 @@
         <v>172</v>
       </c>
       <c r="C31" s="157" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="D31" s="157" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="E31" s="157" t="s">
         <v>10</v>
@@ -8729,22 +9182,22 @@
         <v>176</v>
       </c>
       <c r="K31" s="157" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="L31" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M31" s="159">
-        <v>8.3302499999999995</v>
+        <v>6.7619999999999996</v>
       </c>
       <c r="N31" s="163">
-        <v>0.39</v>
+        <v>0.39521220594388218</v>
       </c>
       <c r="O31" s="162">
-        <v>23.614078010816101</v>
+        <v>35.330820181567546</v>
       </c>
       <c r="P31" s="159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:16">
@@ -8752,10 +9205,10 @@
         <v>172</v>
       </c>
       <c r="C32" s="156" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D32" s="156" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="E32" s="156" t="s">
         <v>10</v>
@@ -8770,22 +9223,22 @@
         <v>176</v>
       </c>
       <c r="K32" s="156" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="L32" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M32" s="158">
-        <v>7.9312500000000004</v>
+        <v>2.4224999999999999</v>
       </c>
       <c r="N32" s="161">
-        <v>0.38900000000000001</v>
+        <v>0.39414986229971999</v>
       </c>
       <c r="O32" s="160">
-        <v>24.510141522281458</v>
+        <v>-54.214352509296383</v>
       </c>
       <c r="P32" s="158">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:16">
@@ -8793,10 +9246,10 @@
         <v>172</v>
       </c>
       <c r="C33" s="157" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="D33" s="157" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="E33" s="157" t="s">
         <v>10</v>
@@ -8811,22 +9264,22 @@
         <v>176</v>
       </c>
       <c r="K33" s="157" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="L33" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M33" s="159">
-        <v>4.1527500000000002</v>
+        <v>7.7835000000000001</v>
       </c>
       <c r="N33" s="163">
-        <v>0.38800000000000001</v>
+        <v>0.38201746921684659</v>
       </c>
       <c r="O33" s="162">
-        <v>24.308329858290811</v>
+        <v>0.79561844591651121</v>
       </c>
       <c r="P33" s="159">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:16">
@@ -8834,10 +9287,10 @@
         <v>172</v>
       </c>
       <c r="C34" s="156" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="D34" s="156" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="E34" s="156" t="s">
         <v>10</v>
@@ -8852,19 +9305,19 @@
         <v>176</v>
       </c>
       <c r="K34" s="156" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="L34" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M34" s="158">
-        <v>15.0825</v>
+        <v>7.9904999999999999</v>
       </c>
       <c r="N34" s="161">
-        <v>0.38800000000000001</v>
+        <v>0.37434168064361761</v>
       </c>
       <c r="O34" s="160">
-        <v>22.64680580862213</v>
+        <v>-17.873933356973335</v>
       </c>
       <c r="P34" s="158">
         <v>1</v>
@@ -8875,10 +9328,10 @@
         <v>172</v>
       </c>
       <c r="C35" s="157" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="D35" s="157" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E35" s="157" t="s">
         <v>10</v>
@@ -8893,19 +9346,19 @@
         <v>176</v>
       </c>
       <c r="K35" s="157" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="L35" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M35" s="159">
         <v>7.8585000000000003</v>
       </c>
       <c r="N35" s="163">
-        <v>0.38700000000000001</v>
+        <v>0.36917162151179039</v>
       </c>
       <c r="O35" s="162">
-        <v>23.008573670349382</v>
+        <v>-9.847469487078703</v>
       </c>
       <c r="P35" s="159">
         <v>2</v>
@@ -8916,10 +9369,10 @@
         <v>172</v>
       </c>
       <c r="C36" s="156" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="D36" s="156" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="E36" s="156" t="s">
         <v>10</v>
@@ -8934,22 +9387,22 @@
         <v>176</v>
       </c>
       <c r="K36" s="156" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="L36" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M36" s="158">
-        <v>7.6604999999999999</v>
+        <v>8.3204999999999991</v>
       </c>
       <c r="N36" s="161">
-        <v>0.38400000000000001</v>
+        <v>0.36453803340134289</v>
       </c>
       <c r="O36" s="160">
-        <v>22.59352892347378</v>
+        <v>17.112497367503469</v>
       </c>
       <c r="P36" s="158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:16">
@@ -8957,10 +9410,10 @@
         <v>172</v>
       </c>
       <c r="C37" s="157" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="D37" s="157" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="E37" s="157" t="s">
         <v>10</v>
@@ -8975,19 +9428,19 @@
         <v>176</v>
       </c>
       <c r="K37" s="157" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="L37" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M37" s="159">
-        <v>7.9522500000000003</v>
+        <v>8.3302499999999995</v>
       </c>
       <c r="N37" s="163">
-        <v>0.38300000000000001</v>
+        <v>0.36281825576124332</v>
       </c>
       <c r="O37" s="162">
-        <v>23.434861958766096</v>
+        <v>-26.964460101160046</v>
       </c>
       <c r="P37" s="159">
         <v>2</v>
@@ -8998,10 +9451,10 @@
         <v>172</v>
       </c>
       <c r="C38" s="156" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="D38" s="156" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="E38" s="156" t="s">
         <v>10</v>
@@ -9016,22 +9469,22 @@
         <v>176</v>
       </c>
       <c r="K38" s="156" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="L38" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M38" s="158">
-        <v>8.1195000000000004</v>
+        <v>7.11</v>
       </c>
       <c r="N38" s="161">
-        <v>0.376</v>
+        <v>0.36076949931521968</v>
       </c>
       <c r="O38" s="160">
-        <v>23.88514704282488</v>
+        <v>-53.771594280067497</v>
       </c>
       <c r="P38" s="158">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:16">
@@ -9039,10 +9492,10 @@
         <v>172</v>
       </c>
       <c r="C39" s="157" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="D39" s="157" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="E39" s="157" t="s">
         <v>10</v>
@@ -9057,22 +9510,22 @@
         <v>176</v>
       </c>
       <c r="K39" s="157" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="L39" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M39" s="159">
-        <v>8.2560000000000002</v>
+        <v>7.9522500000000003</v>
       </c>
       <c r="N39" s="163">
-        <v>0.375</v>
+        <v>0.3503211333347076</v>
       </c>
       <c r="O39" s="162">
-        <v>26.827243672083569</v>
+        <v>-40.692675681743246</v>
       </c>
       <c r="P39" s="159">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:16">
@@ -9080,10 +9533,10 @@
         <v>172</v>
       </c>
       <c r="C40" s="156" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="D40" s="156" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="E40" s="156" t="s">
         <v>10</v>
@@ -9098,19 +9551,19 @@
         <v>176</v>
       </c>
       <c r="K40" s="156" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="L40" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M40" s="158">
-        <v>6.3307500000000001</v>
+        <v>8.2560000000000002</v>
       </c>
       <c r="N40" s="161">
-        <v>0.37</v>
+        <v>0.34982996232856922</v>
       </c>
       <c r="O40" s="160">
-        <v>28.409914277452632</v>
+        <v>4.0778536366876352</v>
       </c>
       <c r="P40" s="158">
         <v>4</v>
@@ -9121,10 +9574,10 @@
         <v>172</v>
       </c>
       <c r="C41" s="157" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="D41" s="157" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="E41" s="157" t="s">
         <v>10</v>
@@ -9139,22 +9592,22 @@
         <v>176</v>
       </c>
       <c r="K41" s="157" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="L41" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M41" s="159">
-        <v>16.640999999999998</v>
+        <v>6.9974999999999996</v>
       </c>
       <c r="N41" s="163">
-        <v>0.3695</v>
+        <v>0.3472447936452937</v>
       </c>
       <c r="O41" s="162">
-        <v>22.967898136436006</v>
+        <v>62.993675003030432</v>
       </c>
       <c r="P41" s="159">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:16">
@@ -9162,10 +9615,10 @@
         <v>172</v>
       </c>
       <c r="C42" s="156" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D42" s="156" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="E42" s="156" t="s">
         <v>10</v>
@@ -9180,19 +9633,19 @@
         <v>176</v>
       </c>
       <c r="K42" s="156" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="L42" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M42" s="158">
-        <v>8.3204999999999991</v>
+        <v>8.2560000000000002</v>
       </c>
       <c r="N42" s="161">
-        <v>0.36899999999999999</v>
+        <v>0.3460630650440007</v>
       </c>
       <c r="O42" s="160">
-        <v>25.846227965631741</v>
+        <v>-31.882299279504611</v>
       </c>
       <c r="P42" s="158">
         <v>3</v>
@@ -9203,10 +9656,10 @@
         <v>172</v>
       </c>
       <c r="C43" s="157" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="D43" s="157" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="E43" s="157" t="s">
         <v>10</v>
@@ -9221,22 +9674,22 @@
         <v>176</v>
       </c>
       <c r="K43" s="157" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="L43" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M43" s="159">
-        <v>8.2560000000000002</v>
+        <v>7.6604999999999999</v>
       </c>
       <c r="N43" s="163">
-        <v>0.36799999999999999</v>
+        <v>0.34578516432535861</v>
       </c>
       <c r="O43" s="162">
-        <v>29.714892013257927</v>
+        <v>-53.183418254394553</v>
       </c>
       <c r="P43" s="159">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:16">
@@ -9244,10 +9697,10 @@
         <v>172</v>
       </c>
       <c r="C44" s="156" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="D44" s="156" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="E44" s="156" t="s">
         <v>10</v>
@@ -9262,22 +9715,22 @@
         <v>176</v>
       </c>
       <c r="K44" s="156" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="L44" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M44" s="158">
-        <v>8.3204999999999991</v>
+        <v>16.202249999999999</v>
       </c>
       <c r="N44" s="161">
-        <v>0.36699999999999999</v>
+        <v>0.34279298051743229</v>
       </c>
       <c r="O44" s="160">
-        <v>24.77081167134455</v>
+        <v>-83.732478851235257</v>
       </c>
       <c r="P44" s="158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:16">
@@ -9285,10 +9738,10 @@
         <v>172</v>
       </c>
       <c r="C45" s="157" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D45" s="157" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="E45" s="157" t="s">
         <v>10</v>
@@ -9303,22 +9756,22 @@
         <v>176</v>
       </c>
       <c r="K45" s="157" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="L45" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M45" s="159">
-        <v>7.0365000000000002</v>
+        <v>8.2289999999999992</v>
       </c>
       <c r="N45" s="163">
-        <v>0.36399999999999999</v>
+        <v>0.34216211351346598</v>
       </c>
       <c r="O45" s="162">
-        <v>32.015861389602598</v>
+        <v>4.4526421992934404</v>
       </c>
       <c r="P45" s="159">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:16">
@@ -9326,10 +9779,10 @@
         <v>172</v>
       </c>
       <c r="C46" s="156" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="D46" s="156" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="E46" s="156" t="s">
         <v>10</v>
@@ -9344,19 +9797,19 @@
         <v>176</v>
       </c>
       <c r="K46" s="156" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="L46" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M46" s="158">
-        <v>8.2560000000000002</v>
+        <v>16.576499999999999</v>
       </c>
       <c r="N46" s="161">
-        <v>0.36099999999999999</v>
+        <v>0.34157478585116785</v>
       </c>
       <c r="O46" s="160">
-        <v>27.365903463077849</v>
+        <v>-28.058236851825193</v>
       </c>
       <c r="P46" s="158">
         <v>2</v>
@@ -9367,10 +9820,10 @@
         <v>172</v>
       </c>
       <c r="C47" s="157" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="D47" s="157" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E47" s="157" t="s">
         <v>10</v>
@@ -9385,22 +9838,22 @@
         <v>176</v>
       </c>
       <c r="K47" s="157" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="L47" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M47" s="159">
-        <v>8.3204999999999991</v>
+        <v>15.356999999999999</v>
       </c>
       <c r="N47" s="163">
-        <v>0.35899999999999999</v>
+        <v>0.34063749438726831</v>
       </c>
       <c r="O47" s="162">
-        <v>24.84532667241767</v>
+        <v>-6.6815602752851042</v>
       </c>
       <c r="P47" s="159">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="2:16">
@@ -9408,10 +9861,10 @@
         <v>172</v>
       </c>
       <c r="C48" s="156" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="D48" s="156" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="E48" s="156" t="s">
         <v>10</v>
@@ -9426,22 +9879,22 @@
         <v>176</v>
       </c>
       <c r="K48" s="156" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="L48" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M48" s="158">
-        <v>8.1735000000000007</v>
+        <v>8.2560000000000002</v>
       </c>
       <c r="N48" s="161">
-        <v>0.35399999999999998</v>
+        <v>0.33565465890466423</v>
       </c>
       <c r="O48" s="160">
-        <v>29.005450919972269</v>
+        <v>11.221842390193805</v>
       </c>
       <c r="P48" s="158">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="2:16">
@@ -9449,10 +9902,10 @@
         <v>172</v>
       </c>
       <c r="C49" s="157" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="D49" s="157" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="E49" s="157" t="s">
         <v>10</v>
@@ -9467,22 +9920,22 @@
         <v>176</v>
       </c>
       <c r="K49" s="157" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="L49" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M49" s="159">
-        <v>8.3204999999999991</v>
+        <v>16.03725</v>
       </c>
       <c r="N49" s="163">
-        <v>0.35299999999999998</v>
+        <v>0.33375566037814275</v>
       </c>
       <c r="O49" s="162">
-        <v>29.711517168086257</v>
+        <v>101.7130397503383</v>
       </c>
       <c r="P49" s="159">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="2:16">
@@ -9490,10 +9943,10 @@
         <v>172</v>
       </c>
       <c r="C50" s="156" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="D50" s="156" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="E50" s="156" t="s">
         <v>10</v>
@@ -9508,22 +9961,22 @@
         <v>176</v>
       </c>
       <c r="K50" s="156" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="L50" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M50" s="158">
-        <v>8.2289999999999992</v>
+        <v>16.356000000000002</v>
       </c>
       <c r="N50" s="161">
-        <v>0.35199999999999998</v>
+        <v>0.33102079357943931</v>
       </c>
       <c r="O50" s="160">
-        <v>25.959150840126821</v>
+        <v>-28.797154379399959</v>
       </c>
       <c r="P50" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="2:16">
@@ -9531,10 +9984,10 @@
         <v>172</v>
       </c>
       <c r="C51" s="157" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="D51" s="157" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="E51" s="157" t="s">
         <v>10</v>
@@ -9549,22 +10002,22 @@
         <v>176</v>
       </c>
       <c r="K51" s="157" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="L51" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M51" s="159">
-        <v>1.5667500000000001</v>
+        <v>16.298999999999999</v>
       </c>
       <c r="N51" s="163">
-        <v>0.34600000000000003</v>
+        <v>0.33054315194495321</v>
       </c>
       <c r="O51" s="162">
-        <v>39.485377210873828</v>
+        <v>58.559630117317219</v>
       </c>
       <c r="P51" s="159">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="2:16">
@@ -9572,10 +10025,10 @@
         <v>172</v>
       </c>
       <c r="C52" s="156" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="D52" s="156" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="E52" s="156" t="s">
         <v>10</v>
@@ -9590,22 +10043,22 @@
         <v>176</v>
       </c>
       <c r="K52" s="156" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="L52" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M52" s="158">
-        <v>8.2560000000000002</v>
+        <v>16.608000000000001</v>
       </c>
       <c r="N52" s="161">
-        <v>0.34499999999999997</v>
+        <v>0.3304441753312391</v>
       </c>
       <c r="O52" s="160">
-        <v>32.470234481413385</v>
+        <v>40.407200290473838</v>
       </c>
       <c r="P52" s="158">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="2:16">
@@ -9613,10 +10066,10 @@
         <v>172</v>
       </c>
       <c r="C53" s="157" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="D53" s="157" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E53" s="157" t="s">
         <v>10</v>
@@ -9631,22 +10084,22 @@
         <v>176</v>
       </c>
       <c r="K53" s="157" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="L53" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M53" s="159">
-        <v>8.3520000000000003</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="N53" s="163">
-        <v>0.34399999999999997</v>
+        <v>0.32928205462055127</v>
       </c>
       <c r="O53" s="162">
-        <v>29.525752457182815</v>
+        <v>-72.124794734531847</v>
       </c>
       <c r="P53" s="159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:16">
@@ -9654,10 +10107,10 @@
         <v>172</v>
       </c>
       <c r="C54" s="156" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="D54" s="156" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="E54" s="156" t="s">
         <v>10</v>
@@ -9672,22 +10125,22 @@
         <v>176</v>
       </c>
       <c r="K54" s="156" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="L54" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M54" s="158">
-        <v>8.0355000000000008</v>
+        <v>8.4172499999999992</v>
       </c>
       <c r="N54" s="161">
-        <v>0.34399999999999997</v>
+        <v>0.3248909103796751</v>
       </c>
       <c r="O54" s="160">
-        <v>26.712685306547712</v>
+        <v>75.161059629206761</v>
       </c>
       <c r="P54" s="158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="2:16">
@@ -9695,10 +10148,10 @@
         <v>172</v>
       </c>
       <c r="C55" s="157" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="D55" s="157" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="E55" s="157" t="s">
         <v>10</v>
@@ -9713,22 +10166,22 @@
         <v>176</v>
       </c>
       <c r="K55" s="157" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="L55" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M55" s="159">
-        <v>8.3520000000000003</v>
+        <v>8.3204999999999991</v>
       </c>
       <c r="N55" s="163">
-        <v>0.33800000000000002</v>
+        <v>0.32233893827024601</v>
       </c>
       <c r="O55" s="162">
-        <v>35.358139712326555</v>
+        <v>31.721408172773824</v>
       </c>
       <c r="P55" s="159">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:16">
@@ -9736,10 +10189,10 @@
         <v>172</v>
       </c>
       <c r="C56" s="156" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="D56" s="156" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="E56" s="156" t="s">
         <v>10</v>
@@ -9754,22 +10207,22 @@
         <v>176</v>
       </c>
       <c r="K56" s="156" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="L56" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M56" s="158">
-        <v>6.9974999999999996</v>
+        <v>16.494</v>
       </c>
       <c r="N56" s="161">
-        <v>0.33500000000000008</v>
+        <v>0.322297171768758</v>
       </c>
       <c r="O56" s="160">
-        <v>35.278756257248936</v>
+        <v>-51.487871065210001</v>
       </c>
       <c r="P56" s="158">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:16">
@@ -9777,10 +10230,10 @@
         <v>172</v>
       </c>
       <c r="C57" s="157" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="D57" s="157" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="E57" s="157" t="s">
         <v>10</v>
@@ -9795,22 +10248,22 @@
         <v>176</v>
       </c>
       <c r="K57" s="157" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="L57" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M57" s="159">
-        <v>8.4172499999999992</v>
+        <v>8.3940000000000001</v>
       </c>
       <c r="N57" s="163">
-        <v>0.33500000000000002</v>
+        <v>0.32000561918811909</v>
       </c>
       <c r="O57" s="162">
-        <v>29.743366057611919</v>
+        <v>175.58403301183736</v>
       </c>
       <c r="P57" s="159">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="2:16">
@@ -9818,10 +10271,10 @@
         <v>172</v>
       </c>
       <c r="C58" s="156" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="D58" s="156" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="E58" s="156" t="s">
         <v>10</v>
@@ -9836,22 +10289,22 @@
         <v>176</v>
       </c>
       <c r="K58" s="156" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="L58" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M58" s="158">
-        <v>8.4172499999999992</v>
+        <v>8.2822499999999994</v>
       </c>
       <c r="N58" s="161">
-        <v>0.33200000000000002</v>
+        <v>0.31646037881333522</v>
       </c>
       <c r="O58" s="160">
-        <v>33.621396058340082</v>
+        <v>81.430090360472647</v>
       </c>
       <c r="P58" s="158">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:16">
@@ -9859,10 +10312,10 @@
         <v>172</v>
       </c>
       <c r="C59" s="157" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="D59" s="157" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="E59" s="157" t="s">
         <v>10</v>
@@ -9877,22 +10330,22 @@
         <v>176</v>
       </c>
       <c r="K59" s="157" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="L59" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M59" s="159">
-        <v>8.3204999999999991</v>
+        <v>7.9522500000000003</v>
       </c>
       <c r="N59" s="163">
-        <v>0.32900000000000001</v>
+        <v>0.3136383423020469</v>
       </c>
       <c r="O59" s="162">
-        <v>29.656657548553735</v>
+        <v>20.132717410086368</v>
       </c>
       <c r="P59" s="159">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="2:16">
@@ -9900,10 +10353,10 @@
         <v>172</v>
       </c>
       <c r="C60" s="156" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="D60" s="156" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="E60" s="156" t="s">
         <v>10</v>
@@ -9918,22 +10371,22 @@
         <v>176</v>
       </c>
       <c r="K60" s="156" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="L60" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M60" s="158">
-        <v>8.3204999999999991</v>
+        <v>16.361249999999998</v>
       </c>
       <c r="N60" s="161">
-        <v>0.32900000000000001</v>
+        <v>0.31285721283411039</v>
       </c>
       <c r="O60" s="160">
-        <v>28.749216532219847</v>
+        <v>-2.8961506294229724</v>
       </c>
       <c r="P60" s="158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:16">
@@ -9941,10 +10394,10 @@
         <v>172</v>
       </c>
       <c r="C61" s="157" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="D61" s="157" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="E61" s="157" t="s">
         <v>10</v>
@@ -9959,22 +10412,22 @@
         <v>176</v>
       </c>
       <c r="K61" s="157" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="L61" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M61" s="159">
-        <v>8.3520000000000003</v>
+        <v>16.737749999999998</v>
       </c>
       <c r="N61" s="163">
-        <v>0.32700000000000001</v>
+        <v>0.30678696296062757</v>
       </c>
       <c r="O61" s="162">
-        <v>36.558657452084866</v>
+        <v>-35.458572011386941</v>
       </c>
       <c r="P61" s="159">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:16">
@@ -9982,10 +10435,10 @@
         <v>172</v>
       </c>
       <c r="C62" s="156" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="D62" s="156" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="E62" s="156" t="s">
         <v>10</v>
@@ -10000,22 +10453,22 @@
         <v>176</v>
       </c>
       <c r="K62" s="156" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="L62" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M62" s="158">
-        <v>8.0265000000000004</v>
+        <v>8.2702500000000008</v>
       </c>
       <c r="N62" s="161">
-        <v>0.32700000000000001</v>
+        <v>0.30647247396222338</v>
       </c>
       <c r="O62" s="160">
-        <v>35.651216435750854</v>
+        <v>73.462304401312636</v>
       </c>
       <c r="P62" s="158">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="2:16">
@@ -10023,10 +10476,10 @@
         <v>172</v>
       </c>
       <c r="C63" s="157" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="D63" s="157" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="E63" s="157" t="s">
         <v>10</v>
@@ -10041,22 +10494,22 @@
         <v>176</v>
       </c>
       <c r="K63" s="157" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="L63" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M63" s="159">
-        <v>24.425249999999998</v>
+        <v>8.2560000000000002</v>
       </c>
       <c r="N63" s="163">
-        <v>0.32266466054595144</v>
+        <v>0.30527266685973509</v>
       </c>
       <c r="O63" s="162">
-        <v>31.893271957608661</v>
+        <v>29.886105423474326</v>
       </c>
       <c r="P63" s="159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="2:16">
@@ -10064,10 +10517,10 @@
         <v>172</v>
       </c>
       <c r="C64" s="156" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="D64" s="156" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="E64" s="156" t="s">
         <v>10</v>
@@ -10082,22 +10535,22 @@
         <v>176</v>
       </c>
       <c r="K64" s="156" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="L64" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M64" s="158">
-        <v>16.296749999999999</v>
+        <v>16.704000000000001</v>
       </c>
       <c r="N64" s="161">
-        <v>0.32198679184499973</v>
+        <v>0.30271532050989003</v>
       </c>
       <c r="O64" s="160">
-        <v>33.668011633632915</v>
+        <v>-65.150684207738237</v>
       </c>
       <c r="P64" s="158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:16">
@@ -10105,10 +10558,10 @@
         <v>172</v>
       </c>
       <c r="C65" s="157" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="D65" s="157" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="E65" s="157" t="s">
         <v>10</v>
@@ -10123,22 +10576,22 @@
         <v>176</v>
       </c>
       <c r="K65" s="157" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="L65" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M65" s="159">
-        <v>16.734749999999998</v>
+        <v>7.5682499999999999</v>
       </c>
       <c r="N65" s="163">
-        <v>0.32148509837314571</v>
+        <v>0.3021035866727661</v>
       </c>
       <c r="O65" s="162">
-        <v>40.336702464423006</v>
+        <v>92.344884108007165</v>
       </c>
       <c r="P65" s="159">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="2:16">
@@ -10146,10 +10599,10 @@
         <v>172</v>
       </c>
       <c r="C66" s="156" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="D66" s="156" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="E66" s="156" t="s">
         <v>10</v>
@@ -10164,22 +10617,22 @@
         <v>176</v>
       </c>
       <c r="K66" s="156" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="L66" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M66" s="158">
-        <v>16.20825</v>
+        <v>16.427250000000001</v>
       </c>
       <c r="N66" s="161">
-        <v>0.31900000000000001</v>
+        <v>0.30209248954799067</v>
       </c>
       <c r="O66" s="160">
-        <v>34.011440857326157</v>
+        <v>-7.9998339587603366</v>
       </c>
       <c r="P66" s="158">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="2:16">
@@ -10187,10 +10640,10 @@
         <v>172</v>
       </c>
       <c r="C67" s="157" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="D67" s="157" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E67" s="157" t="s">
         <v>10</v>
@@ -10205,22 +10658,22 @@
         <v>176</v>
       </c>
       <c r="K67" s="157" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="L67" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M67" s="159">
-        <v>16.0245</v>
+        <v>8.3977500000000003</v>
       </c>
       <c r="N67" s="163">
-        <v>0.31648375924365818</v>
+        <v>0.30123828002817632</v>
       </c>
       <c r="O67" s="162">
-        <v>36.454193110856835</v>
+        <v>156.35681584354796</v>
       </c>
       <c r="P67" s="159">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="2:16">
@@ -10228,10 +10681,10 @@
         <v>172</v>
       </c>
       <c r="C68" s="156" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="D68" s="156" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="E68" s="156" t="s">
         <v>10</v>
@@ -10246,22 +10699,22 @@
         <v>176</v>
       </c>
       <c r="K68" s="156" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="L68" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M68" s="158">
-        <v>16.461749999999999</v>
+        <v>16.360499999999998</v>
       </c>
       <c r="N68" s="161">
-        <v>0.31301471593238872</v>
+        <v>0.29903263838542082</v>
       </c>
       <c r="O68" s="160">
-        <v>29.150698752787928</v>
+        <v>44.698491704671582</v>
       </c>
       <c r="P68" s="158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="2:16">
@@ -10269,10 +10722,10 @@
         <v>172</v>
       </c>
       <c r="C69" s="157" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="D69" s="157" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="E69" s="157" t="s">
         <v>10</v>
@@ -10287,22 +10740,22 @@
         <v>176</v>
       </c>
       <c r="K69" s="157" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="L69" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M69" s="159">
-        <v>8.3520000000000003</v>
+        <v>15.666</v>
       </c>
       <c r="N69" s="163">
-        <v>0.313</v>
+        <v>0.29243956740762711</v>
       </c>
       <c r="O69" s="162">
-        <v>40.925179451501293</v>
+        <v>-43.1087272823357</v>
       </c>
       <c r="P69" s="159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="2:16">
@@ -10310,10 +10763,10 @@
         <v>172</v>
       </c>
       <c r="C70" s="156" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="D70" s="156" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="E70" s="156" t="s">
         <v>10</v>
@@ -10328,22 +10781,22 @@
         <v>176</v>
       </c>
       <c r="K70" s="156" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="L70" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M70" s="158">
-        <v>8.4172499999999992</v>
+        <v>15.19425</v>
       </c>
       <c r="N70" s="161">
-        <v>0.312</v>
+        <v>0.2921506139120435</v>
       </c>
       <c r="O70" s="160">
-        <v>41.67730713239493</v>
+        <v>20.137939175552734</v>
       </c>
       <c r="P70" s="158">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="2:16">
@@ -10351,10 +10804,10 @@
         <v>172</v>
       </c>
       <c r="C71" s="157" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="D71" s="157" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="E71" s="157" t="s">
         <v>10</v>
@@ -10369,22 +10822,22 @@
         <v>176</v>
       </c>
       <c r="K71" s="157" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="L71" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M71" s="159">
-        <v>16.434000000000001</v>
+        <v>16.608000000000001</v>
       </c>
       <c r="N71" s="163">
-        <v>0.30650711938663744</v>
+        <v>0.28948670470745452</v>
       </c>
       <c r="O71" s="162">
-        <v>36.500170690745833</v>
+        <v>-61.720110069028557</v>
       </c>
       <c r="P71" s="159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:16">
@@ -10392,10 +10845,10 @@
         <v>172</v>
       </c>
       <c r="C72" s="156" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="D72" s="156" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="E72" s="156" t="s">
         <v>10</v>
@@ -10410,19 +10863,19 @@
         <v>176</v>
       </c>
       <c r="K72" s="156" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="L72" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M72" s="158">
-        <v>7.3274999999999997</v>
+        <v>8.2560000000000002</v>
       </c>
       <c r="N72" s="161">
-        <v>0.30499999999999999</v>
+        <v>0.28641433365004793</v>
       </c>
       <c r="O72" s="160">
-        <v>43.543359160657502</v>
+        <v>92.788692685060425</v>
       </c>
       <c r="P72" s="158">
         <v>5</v>
@@ -10433,10 +10886,10 @@
         <v>172</v>
       </c>
       <c r="C73" s="157" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="D73" s="157" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="E73" s="157" t="s">
         <v>10</v>
@@ -10451,22 +10904,22 @@
         <v>176</v>
       </c>
       <c r="K73" s="157" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="L73" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M73" s="159">
-        <v>8.2702500000000008</v>
+        <v>8.2560000000000002</v>
       </c>
       <c r="N73" s="163">
-        <v>0.30199999999999999</v>
+        <v>0.28531699904219149</v>
       </c>
       <c r="O73" s="162">
-        <v>60.739229238496378</v>
+        <v>57.76491999519299</v>
       </c>
       <c r="P73" s="159">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="2:16">
@@ -10474,10 +10927,10 @@
         <v>172</v>
       </c>
       <c r="C74" s="156" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="D74" s="156" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="E74" s="156" t="s">
         <v>10</v>
@@ -10492,22 +10945,22 @@
         <v>176</v>
       </c>
       <c r="K74" s="156" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="L74" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M74" s="158">
-        <v>15.90225</v>
+        <v>24.786000000000001</v>
       </c>
       <c r="N74" s="161">
-        <v>0.30152082252511442</v>
+        <v>0.28197110055070385</v>
       </c>
       <c r="O74" s="160">
-        <v>42.639321574419995</v>
+        <v>-59.066666326587857</v>
       </c>
       <c r="P74" s="158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:16">
@@ -10515,10 +10968,10 @@
         <v>172</v>
       </c>
       <c r="C75" s="157" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="D75" s="157" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="E75" s="157" t="s">
         <v>10</v>
@@ -10533,22 +10986,22 @@
         <v>176</v>
       </c>
       <c r="K75" s="157" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="L75" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M75" s="159">
-        <v>16.481999999999999</v>
+        <v>16.512</v>
       </c>
       <c r="N75" s="163">
-        <v>0.30049968147069533</v>
+        <v>0.28085097369955403</v>
       </c>
       <c r="O75" s="162">
-        <v>33.064033907257304</v>
+        <v>1.4152152308249681</v>
       </c>
       <c r="P75" s="159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="2:16">
@@ -10556,10 +11009,10 @@
         <v>172</v>
       </c>
       <c r="C76" s="156" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="D76" s="156" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="E76" s="156" t="s">
         <v>10</v>
@@ -10574,22 +11027,22 @@
         <v>176</v>
       </c>
       <c r="K76" s="156" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="L76" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M76" s="158">
-        <v>7.8667499999999997</v>
+        <v>15.9975</v>
       </c>
       <c r="N76" s="161">
-        <v>0.29699999999999999</v>
+        <v>0.28005162341503592</v>
       </c>
       <c r="O76" s="160">
-        <v>48.511914204013969</v>
+        <v>28.210102381436414</v>
       </c>
       <c r="P76" s="158">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="2:16">
@@ -10597,10 +11050,10 @@
         <v>172</v>
       </c>
       <c r="C77" s="157" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="D77" s="157" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="E77" s="157" t="s">
         <v>10</v>
@@ -10615,22 +11068,22 @@
         <v>176</v>
       </c>
       <c r="K77" s="157" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="L77" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M77" s="159">
-        <v>8.2552500000000002</v>
+        <v>16.191749999999999</v>
       </c>
       <c r="N77" s="163">
-        <v>0.29599999999999999</v>
+        <v>0.27959436616938216</v>
       </c>
       <c r="O77" s="162">
-        <v>46.333626966597926</v>
+        <v>77.74602107893692</v>
       </c>
       <c r="P77" s="159">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="2:16">
@@ -10638,10 +11091,10 @@
         <v>172</v>
       </c>
       <c r="C78" s="156" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="D78" s="156" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="E78" s="156" t="s">
         <v>10</v>
@@ -10656,22 +11109,22 @@
         <v>176</v>
       </c>
       <c r="K78" s="156" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="L78" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M78" s="158">
-        <v>16.246500000000001</v>
+        <v>16.22325</v>
       </c>
       <c r="N78" s="161">
-        <v>0.29198365801865017</v>
+        <v>0.27902728741545046</v>
       </c>
       <c r="O78" s="160">
-        <v>33.029726890618271</v>
+        <v>178.56911138148811</v>
       </c>
       <c r="P78" s="158">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="2:16">
@@ -10679,10 +11132,10 @@
         <v>172</v>
       </c>
       <c r="C79" s="157" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D79" s="157" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="E79" s="157" t="s">
         <v>10</v>
@@ -10697,22 +11150,22 @@
         <v>176</v>
       </c>
       <c r="K79" s="157" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="L79" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M79" s="159">
-        <v>16.314</v>
+        <v>15.7425</v>
       </c>
       <c r="N79" s="163">
-        <v>0.29099999999999998</v>
+        <v>0.27406503677631833</v>
       </c>
       <c r="O79" s="162">
-        <v>36.807239357255987</v>
+        <v>142.77398556727138</v>
       </c>
       <c r="P79" s="159">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="2:16">
@@ -10720,10 +11173,10 @@
         <v>172</v>
       </c>
       <c r="C80" s="156" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D80" s="156" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="E80" s="156" t="s">
         <v>10</v>
@@ -10738,22 +11191,22 @@
         <v>176</v>
       </c>
       <c r="K80" s="156" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="L80" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M80" s="158">
-        <v>15.450749999999999</v>
+        <v>15.724500000000001</v>
       </c>
       <c r="N80" s="161">
-        <v>0.28955084704625983</v>
+        <v>0.27048194139357729</v>
       </c>
       <c r="O80" s="160">
-        <v>42.410783952318006</v>
+        <v>109.2686447986227</v>
       </c>
       <c r="P80" s="158">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="2:16">
@@ -10761,10 +11214,10 @@
         <v>172</v>
       </c>
       <c r="C81" s="157" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="D81" s="157" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="E81" s="157" t="s">
         <v>10</v>
@@ -10779,22 +11232,22 @@
         <v>176</v>
       </c>
       <c r="K81" s="157" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="L81" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M81" s="159">
-        <v>8.1974999999999998</v>
+        <v>24.497250000000001</v>
       </c>
       <c r="N81" s="163">
-        <v>0.28799999999999998</v>
+        <v>0.27001044045013539</v>
       </c>
       <c r="O81" s="162">
-        <v>50.75386433595655</v>
+        <v>-2.0968468736019044</v>
       </c>
       <c r="P81" s="159">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="2:16">
@@ -10802,10 +11255,10 @@
         <v>172</v>
       </c>
       <c r="C82" s="156" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="D82" s="156" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="E82" s="156" t="s">
         <v>10</v>
@@ -10820,22 +11273,22 @@
         <v>176</v>
       </c>
       <c r="K82" s="156" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="L82" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M82" s="158">
-        <v>8.0835000000000008</v>
+        <v>24.4725</v>
       </c>
       <c r="N82" s="161">
-        <v>0.28599999999999998</v>
+        <v>0.26832787025108823</v>
       </c>
       <c r="O82" s="160">
-        <v>55.703737792343738</v>
+        <v>-64.401070809652012</v>
       </c>
       <c r="P82" s="158">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="2:16">
@@ -10843,10 +11296,10 @@
         <v>172</v>
       </c>
       <c r="C83" s="157" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="D83" s="157" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="E83" s="157" t="s">
         <v>10</v>
@@ -10861,22 +11314,22 @@
         <v>176</v>
       </c>
       <c r="K83" s="157" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="L83" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M83" s="159">
-        <v>8.3940000000000001</v>
+        <v>24.669750000000001</v>
       </c>
       <c r="N83" s="163">
-        <v>0.28399999999999997</v>
+        <v>0.26785881678952761</v>
       </c>
       <c r="O83" s="162">
-        <v>71.271371026713695</v>
+        <v>70.340947287675107</v>
       </c>
       <c r="P83" s="159">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="2:16">
@@ -10884,10 +11337,10 @@
         <v>172</v>
       </c>
       <c r="C84" s="156" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="D84" s="156" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="E84" s="156" t="s">
         <v>10</v>
@@ -10902,19 +11355,19 @@
         <v>176</v>
       </c>
       <c r="K84" s="156" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="L84" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M84" s="158">
-        <v>15.922499999999999</v>
+        <v>16.286999999999999</v>
       </c>
       <c r="N84" s="161">
-        <v>0.28349109750353274</v>
+        <v>0.26358218830149871</v>
       </c>
       <c r="O84" s="160">
-        <v>36.624988141802646</v>
+        <v>-22.519355666052963</v>
       </c>
       <c r="P84" s="158">
         <v>1</v>
@@ -10925,10 +11378,10 @@
         <v>172</v>
       </c>
       <c r="C85" s="157" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="D85" s="157" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="E85" s="157" t="s">
         <v>10</v>
@@ -10943,22 +11396,22 @@
         <v>176</v>
       </c>
       <c r="K85" s="157" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="L85" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M85" s="159">
-        <v>16.512</v>
+        <v>7.9237500000000001</v>
       </c>
       <c r="N85" s="163">
-        <v>0.27900000000000003</v>
+        <v>0.26353984242186729</v>
       </c>
       <c r="O85" s="162">
-        <v>38.141334580621049</v>
+        <v>87.589492325028658</v>
       </c>
       <c r="P85" s="159">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="2:16">
@@ -10966,10 +11419,10 @@
         <v>172</v>
       </c>
       <c r="C86" s="156" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="D86" s="156" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="E86" s="156" t="s">
         <v>10</v>
@@ -10984,22 +11437,22 @@
         <v>176</v>
       </c>
       <c r="K86" s="156" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="L86" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M86" s="158">
-        <v>8.3977500000000003</v>
+        <v>16.715250000000001</v>
       </c>
       <c r="N86" s="161">
-        <v>0.27700000000000002</v>
+        <v>0.26077231253296362</v>
       </c>
       <c r="O86" s="160">
-        <v>79.875639459232502</v>
+        <v>59.207008044344533</v>
       </c>
       <c r="P86" s="158">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="2:16">
@@ -11007,10 +11460,10 @@
         <v>172</v>
       </c>
       <c r="C87" s="157" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="D87" s="157" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="E87" s="157" t="s">
         <v>10</v>
@@ -11025,19 +11478,19 @@
         <v>176</v>
       </c>
       <c r="K87" s="157" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="L87" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M87" s="159">
-        <v>8.4172499999999992</v>
+        <v>8.4030000000000005</v>
       </c>
       <c r="N87" s="163">
-        <v>0.27600000000000002</v>
+        <v>0.26071132583799828</v>
       </c>
       <c r="O87" s="162">
-        <v>58.010660615378427</v>
+        <v>64.31840010467927</v>
       </c>
       <c r="P87" s="159">
         <v>3</v>
@@ -11048,10 +11501,10 @@
         <v>172</v>
       </c>
       <c r="C88" s="156" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="D88" s="156" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="E88" s="156" t="s">
         <v>10</v>
@@ -11066,22 +11519,22 @@
         <v>176</v>
       </c>
       <c r="K88" s="156" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="L88" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M88" s="158">
-        <v>16.60425</v>
+        <v>8.2447499999999998</v>
       </c>
       <c r="N88" s="161">
-        <v>0.27149722209675237</v>
+        <v>0.25624716754528271</v>
       </c>
       <c r="O88" s="160">
-        <v>51.127657149304106</v>
+        <v>91.915014763997718</v>
       </c>
       <c r="P88" s="158">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="2:16">
@@ -11089,10 +11542,10 @@
         <v>172</v>
       </c>
       <c r="C89" s="157" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="D89" s="157" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="E89" s="157" t="s">
         <v>10</v>
@@ -11107,22 +11560,22 @@
         <v>176</v>
       </c>
       <c r="K89" s="157" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="L89" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M89" s="159">
-        <v>16.723500000000001</v>
+        <v>8.3190000000000008</v>
       </c>
       <c r="N89" s="163">
-        <v>0.27048273387747779</v>
+        <v>0.25437685697328188</v>
       </c>
       <c r="O89" s="162">
-        <v>73.583745890606409</v>
+        <v>227.2822309267444</v>
       </c>
       <c r="P89" s="159">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="2:16">
@@ -11130,10 +11583,10 @@
         <v>172</v>
       </c>
       <c r="C90" s="156" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="D90" s="156" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="E90" s="156" t="s">
         <v>10</v>
@@ -11148,22 +11601,22 @@
         <v>176</v>
       </c>
       <c r="K90" s="156" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="L90" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M90" s="158">
-        <v>16.646249999999998</v>
+        <v>8.3520000000000003</v>
       </c>
       <c r="N90" s="161">
-        <v>0.26997738229330936</v>
+        <v>0.25033910336926979</v>
       </c>
       <c r="O90" s="160">
-        <v>40.460311237750915</v>
+        <v>118.48236026367645</v>
       </c>
       <c r="P90" s="158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="2:16">
@@ -11171,10 +11624,10 @@
         <v>172</v>
       </c>
       <c r="C91" s="157" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="D91" s="157" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="E91" s="157" t="s">
         <v>10</v>
@@ -11189,22 +11642,22 @@
         <v>176</v>
       </c>
       <c r="K91" s="157" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="L91" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M91" s="159">
-        <v>16.571999999999999</v>
+        <v>16.623750000000001</v>
       </c>
       <c r="N91" s="163">
-        <v>0.26800416364952934</v>
+        <v>0.25016385744889219</v>
       </c>
       <c r="O91" s="162">
-        <v>63.360104279973761</v>
+        <v>7.3804143091248333</v>
       </c>
       <c r="P91" s="159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="2:16">
@@ -11212,10 +11665,10 @@
         <v>172</v>
       </c>
       <c r="C92" s="156" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="D92" s="156" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="E92" s="156" t="s">
         <v>10</v>
@@ -11230,22 +11683,22 @@
         <v>176</v>
       </c>
       <c r="K92" s="156" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="L92" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M92" s="158">
-        <v>7.8360000000000003</v>
+        <v>16.6035</v>
       </c>
       <c r="N92" s="161">
-        <v>0.26800000000000002</v>
+        <v>0.24992012655828535</v>
       </c>
       <c r="O92" s="160">
-        <v>193.87158506747753</v>
+        <v>-70.505114962936517</v>
       </c>
       <c r="P92" s="158">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="2:16">
@@ -11253,10 +11706,10 @@
         <v>172</v>
       </c>
       <c r="C93" s="157" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="D93" s="157" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="E93" s="157" t="s">
         <v>10</v>
@@ -11271,22 +11724,22 @@
         <v>176</v>
       </c>
       <c r="K93" s="157" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="L93" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M93" s="159">
-        <v>8.3032500000000002</v>
+        <v>8.1412499999999994</v>
       </c>
       <c r="N93" s="163">
-        <v>0.26300000000000001</v>
+        <v>0.24866879062703021</v>
       </c>
       <c r="O93" s="162">
-        <v>78.369982153045513</v>
+        <v>139.54838408107824</v>
       </c>
       <c r="P93" s="159">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="2:16">
@@ -11294,10 +11747,10 @@
         <v>172</v>
       </c>
       <c r="C94" s="156" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="D94" s="156" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="E94" s="156" t="s">
         <v>10</v>
@@ -11312,19 +11765,19 @@
         <v>176</v>
       </c>
       <c r="K94" s="156" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="L94" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M94" s="158">
-        <v>16.353000000000002</v>
+        <v>8.2334999999999994</v>
       </c>
       <c r="N94" s="161">
-        <v>0.26300000000000001</v>
+        <v>0.24453800228933559</v>
       </c>
       <c r="O94" s="160">
-        <v>51.975322221186026</v>
+        <v>103.51377944848643</v>
       </c>
       <c r="P94" s="158">
         <v>1</v>
@@ -11335,10 +11788,10 @@
         <v>172</v>
       </c>
       <c r="C95" s="157" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="D95" s="157" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="E95" s="157" t="s">
         <v>10</v>
@@ -11353,22 +11806,22 @@
         <v>176</v>
       </c>
       <c r="K95" s="157" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="L95" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M95" s="159">
-        <v>16.50075</v>
+        <v>8.4120000000000008</v>
       </c>
       <c r="N95" s="163">
-        <v>0.26201849915912911</v>
+        <v>0.23431152599072719</v>
       </c>
       <c r="O95" s="162">
-        <v>71.167906820613425</v>
+        <v>235.92235294141742</v>
       </c>
       <c r="P95" s="159">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="2:16">
@@ -11376,10 +11829,10 @@
         <v>172</v>
       </c>
       <c r="C96" s="156" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="D96" s="156" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="E96" s="156" t="s">
         <v>10</v>
@@ -11394,22 +11847,22 @@
         <v>176</v>
       </c>
       <c r="K96" s="156" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="L96" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M96" s="158">
-        <v>15.952500000000001</v>
+        <v>16.8</v>
       </c>
       <c r="N96" s="161">
-        <v>0.25904212505876822</v>
+        <v>0.2314743086100115</v>
       </c>
       <c r="O96" s="160">
-        <v>60.615386835508168</v>
+        <v>129.2937848780729</v>
       </c>
       <c r="P96" s="158">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="2:16">
@@ -11417,10 +11870,10 @@
         <v>172</v>
       </c>
       <c r="C97" s="157" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="D97" s="157" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="E97" s="157" t="s">
         <v>10</v>
@@ -11435,22 +11888,22 @@
         <v>176</v>
       </c>
       <c r="K97" s="157" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="L97" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M97" s="159">
-        <v>15.722250000000001</v>
+        <v>16.5825</v>
       </c>
       <c r="N97" s="163">
-        <v>0.25848580832896056</v>
+        <v>0.23134606115543929</v>
       </c>
       <c r="O97" s="162">
-        <v>64.685527736434324</v>
+        <v>66.524231808485027</v>
       </c>
       <c r="P97" s="159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="2:16">
@@ -11458,10 +11911,10 @@
         <v>172</v>
       </c>
       <c r="C98" s="156" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="D98" s="156" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="E98" s="156" t="s">
         <v>10</v>
@@ -11476,22 +11929,22 @@
         <v>176</v>
       </c>
       <c r="K98" s="156" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="L98" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M98" s="158">
-        <v>7.9237500000000001</v>
+        <v>16.484999999999999</v>
       </c>
       <c r="N98" s="161">
-        <v>0.254</v>
+        <v>0.22943265061460602</v>
       </c>
       <c r="O98" s="160">
-        <v>50.065944694287225</v>
+        <v>89.480067939526009</v>
       </c>
       <c r="P98" s="158">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="2:16">
@@ -11499,10 +11952,10 @@
         <v>172</v>
       </c>
       <c r="C99" s="157" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="D99" s="157" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="E99" s="157" t="s">
         <v>10</v>
@@ -11517,22 +11970,22 @@
         <v>176</v>
       </c>
       <c r="K99" s="157" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="L99" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M99" s="159">
-        <v>7.8719999999999999</v>
+        <v>16.834499999999998</v>
       </c>
       <c r="N99" s="163">
-        <v>0.252</v>
+        <v>0.22595625908105055</v>
       </c>
       <c r="O99" s="162">
-        <v>57.446988331059579</v>
+        <v>-130.09568691013246</v>
       </c>
       <c r="P99" s="159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="2:16">
@@ -11540,10 +11993,10 @@
         <v>172</v>
       </c>
       <c r="C100" s="156" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="D100" s="156" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="E100" s="156" t="s">
         <v>10</v>
@@ -11558,22 +12011,22 @@
         <v>176</v>
       </c>
       <c r="K100" s="156" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="L100" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M100" s="158">
-        <v>8.1044999999999998</v>
+        <v>16.22475</v>
       </c>
       <c r="N100" s="161">
-        <v>0.252</v>
+        <v>0.22244751832298354</v>
       </c>
       <c r="O100" s="160">
-        <v>80.495990145941533</v>
+        <v>103.61221316290009</v>
       </c>
       <c r="P100" s="158">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="2:16">
@@ -11581,10 +12034,10 @@
         <v>172</v>
       </c>
       <c r="C101" s="157" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="D101" s="157" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="E101" s="157" t="s">
         <v>10</v>
@@ -11599,19 +12052,19 @@
         <v>176</v>
       </c>
       <c r="K101" s="157" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="L101" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M101" s="159">
-        <v>8.2447499999999998</v>
+        <v>8.2784999999999993</v>
       </c>
       <c r="N101" s="163">
-        <v>0.251</v>
+        <v>0.2213539932129876</v>
       </c>
       <c r="O101" s="162">
-        <v>70.434987626584586</v>
+        <v>145.00773285271126</v>
       </c>
       <c r="P101" s="159">
         <v>4</v>
@@ -11622,10 +12075,10 @@
         <v>172</v>
       </c>
       <c r="C102" s="156" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="D102" s="156" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="E102" s="156" t="s">
         <v>10</v>
@@ -11640,22 +12093,22 @@
         <v>176</v>
       </c>
       <c r="K102" s="156" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="L102" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M102" s="158">
-        <v>8.3512500000000003</v>
+        <v>16.131</v>
       </c>
       <c r="N102" s="161">
-        <v>0.245</v>
+        <v>0.21900587927997026</v>
       </c>
       <c r="O102" s="160">
-        <v>66.524161811506062</v>
+        <v>35.050980215979571</v>
       </c>
       <c r="P102" s="158">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="2:16">
@@ -11663,10 +12116,10 @@
         <v>172</v>
       </c>
       <c r="C103" s="157" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="D103" s="157" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="E103" s="157" t="s">
         <v>10</v>
@@ -11681,22 +12134,22 @@
         <v>176</v>
       </c>
       <c r="K103" s="157" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="L103" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M103" s="159">
-        <v>16.366499999999998</v>
+        <v>16.48875</v>
       </c>
       <c r="N103" s="163">
-        <v>0.23952763266428373</v>
+        <v>0.21846639115997579</v>
       </c>
       <c r="O103" s="162">
-        <v>95.033313284550957</v>
+        <v>60.196506796509361</v>
       </c>
       <c r="P103" s="159">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="2:16">
@@ -11704,10 +12157,10 @@
         <v>172</v>
       </c>
       <c r="C104" s="156" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="D104" s="156" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="E104" s="156" t="s">
         <v>10</v>
@@ -11722,22 +12175,22 @@
         <v>176</v>
       </c>
       <c r="K104" s="156" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="L104" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M104" s="158">
-        <v>16.574999999999999</v>
+        <v>8.4172499999999992</v>
       </c>
       <c r="N104" s="161">
-        <v>0.23949217194570133</v>
+        <v>0.217092880817122</v>
       </c>
       <c r="O104" s="160">
-        <v>53.920113753763438</v>
+        <v>165.85302149940537</v>
       </c>
       <c r="P104" s="158">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="2:16">
@@ -11745,10 +12198,10 @@
         <v>172</v>
       </c>
       <c r="C105" s="157" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="D105" s="157" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="E105" s="157" t="s">
         <v>10</v>
@@ -11763,22 +12216,22 @@
         <v>176</v>
       </c>
       <c r="K105" s="157" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="L105" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M105" s="159">
-        <v>16.725750000000001</v>
+        <v>16.253250000000001</v>
       </c>
       <c r="N105" s="163">
-        <v>0.23749804941482441</v>
+        <v>0.21300171263089362</v>
       </c>
       <c r="O105" s="162">
-        <v>70.385506772497209</v>
+        <v>-67.226952478237337</v>
       </c>
       <c r="P105" s="159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="2:16">
@@ -11786,10 +12239,10 @@
         <v>172</v>
       </c>
       <c r="C106" s="156" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="D106" s="156" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="E106" s="156" t="s">
         <v>10</v>
@@ -11804,22 +12257,22 @@
         <v>176</v>
       </c>
       <c r="K106" s="156" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="L106" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M106" s="158">
-        <v>8.2087500000000002</v>
+        <v>8.1487499999999997</v>
       </c>
       <c r="N106" s="161">
-        <v>0.23499999999999999</v>
+        <v>0.21070878780867561</v>
       </c>
       <c r="O106" s="160">
-        <v>101.91859461516201</v>
+        <v>-43.760796160261478</v>
       </c>
       <c r="P106" s="158">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="2:16">
@@ -11827,10 +12280,10 @@
         <v>172</v>
       </c>
       <c r="C107" s="157" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="D107" s="157" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="E107" s="157" t="s">
         <v>10</v>
@@ -11845,22 +12298,22 @@
         <v>176</v>
       </c>
       <c r="K107" s="157" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="L107" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M107" s="159">
-        <v>16.29</v>
+        <v>8.3684999999999992</v>
       </c>
       <c r="N107" s="163">
-        <v>0.23499999999999999</v>
+        <v>0.2085778275618437</v>
       </c>
       <c r="O107" s="162">
-        <v>81.684372892060281</v>
+        <v>79.770479740918731</v>
       </c>
       <c r="P107" s="159">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="2:16">
@@ -11868,10 +12321,10 @@
         <v>172</v>
       </c>
       <c r="C108" s="156" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="D108" s="156" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="E108" s="156" t="s">
         <v>10</v>
@@ -11886,19 +12339,19 @@
         <v>176</v>
       </c>
       <c r="K108" s="156" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="L108" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M108" s="158">
-        <v>7.7137500000000001</v>
+        <v>7.7519999999999998</v>
       </c>
       <c r="N108" s="161">
-        <v>0.23300000000000001</v>
+        <v>0.20722419775208159</v>
       </c>
       <c r="O108" s="160">
-        <v>100.64984634838171</v>
+        <v>38.493804051577726</v>
       </c>
       <c r="P108" s="158">
         <v>3</v>
@@ -11909,10 +12362,10 @@
         <v>172</v>
       </c>
       <c r="C109" s="157" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="D109" s="157" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="E109" s="157" t="s">
         <v>10</v>
@@ -11927,22 +12380,22 @@
         <v>176</v>
       </c>
       <c r="K109" s="157" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="L109" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M109" s="159">
-        <v>8.3827499999999997</v>
+        <v>8.1517499999999998</v>
       </c>
       <c r="N109" s="163">
-        <v>0.22900000000000001</v>
+        <v>0.2069558113847936</v>
       </c>
       <c r="O109" s="162">
-        <v>115.75721176855335</v>
+        <v>120.96586006302846</v>
       </c>
       <c r="P109" s="159">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="2:16">
@@ -11950,10 +12403,10 @@
         <v>172</v>
       </c>
       <c r="C110" s="156" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="D110" s="156" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="E110" s="156" t="s">
         <v>10</v>
@@ -11968,22 +12421,22 @@
         <v>176</v>
       </c>
       <c r="K110" s="156" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="L110" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M110" s="158">
-        <v>8.0145</v>
+        <v>8.4112500000000008</v>
       </c>
       <c r="N110" s="161">
-        <v>0.22800000000000001</v>
+        <v>0.20417104587625901</v>
       </c>
       <c r="O110" s="160">
-        <v>79.40768955761672</v>
+        <v>14.502752639370653</v>
       </c>
       <c r="P110" s="158">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="2:16">
@@ -11991,10 +12444,10 @@
         <v>172</v>
       </c>
       <c r="C111" s="157" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="D111" s="157" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="E111" s="157" t="s">
         <v>10</v>
@@ -12009,22 +12462,22 @@
         <v>176</v>
       </c>
       <c r="K111" s="157" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="L111" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M111" s="159">
-        <v>8.4172499999999992</v>
+        <v>8.3520000000000003</v>
       </c>
       <c r="N111" s="163">
-        <v>0.22600000000000001</v>
+        <v>0.20381315305750669</v>
       </c>
       <c r="O111" s="162">
-        <v>76.447723557685052</v>
+        <v>-14.984962140483223</v>
       </c>
       <c r="P111" s="159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="2:16">
@@ -12032,10 +12485,10 @@
         <v>172</v>
       </c>
       <c r="C112" s="156" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="D112" s="156" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="E112" s="156" t="s">
         <v>10</v>
@@ -12050,22 +12503,22 @@
         <v>176</v>
       </c>
       <c r="K112" s="156" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="L112" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M112" s="158">
-        <v>24.794250000000002</v>
+        <v>8.1329999999999991</v>
       </c>
       <c r="N112" s="161">
-        <v>0.22202301945007413</v>
+        <v>0.19960804861015211</v>
       </c>
       <c r="O112" s="160">
-        <v>79.831341311551029</v>
+        <v>92.191997164808186</v>
       </c>
       <c r="P112" s="158">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="2:16">
@@ -12073,10 +12526,10 @@
         <v>172</v>
       </c>
       <c r="C113" s="157" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="D113" s="157" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="E113" s="157" t="s">
         <v>10</v>
@@ -12091,22 +12544,22 @@
         <v>176</v>
       </c>
       <c r="K113" s="157" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="L113" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M113" s="159">
-        <v>24.65175</v>
+        <v>8.3467500000000001</v>
       </c>
       <c r="N113" s="163">
-        <v>0.22066037908059266</v>
+        <v>0.1987438354835861</v>
       </c>
       <c r="O113" s="162">
-        <v>53.602123127609275</v>
+        <v>76.655862819521175</v>
       </c>
       <c r="P113" s="159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="2:16">
@@ -12114,10 +12567,10 @@
         <v>172</v>
       </c>
       <c r="C114" s="156" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="D114" s="156" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="E114" s="156" t="s">
         <v>10</v>
@@ -12132,22 +12585,22 @@
         <v>176</v>
       </c>
       <c r="K114" s="156" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="L114" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M114" s="158">
-        <v>16.51275</v>
+        <v>8.1577500000000001</v>
       </c>
       <c r="N114" s="161">
-        <v>0.22007793977381113</v>
+        <v>0.1954346092831527</v>
       </c>
       <c r="O114" s="160">
-        <v>93.047164180586066</v>
+        <v>-202.85448728654958</v>
       </c>
       <c r="P114" s="158">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="2:16">
@@ -12155,10 +12608,10 @@
         <v>172</v>
       </c>
       <c r="C115" s="157" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="D115" s="157" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="E115" s="157" t="s">
         <v>10</v>
@@ -12173,22 +12626,22 @@
         <v>176</v>
       </c>
       <c r="K115" s="157" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="L115" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M115" s="159">
-        <v>24.84825</v>
+        <v>8.4172499999999992</v>
       </c>
       <c r="N115" s="163">
-        <v>0.21868060124958499</v>
+        <v>0.19307640154597469</v>
       </c>
       <c r="O115" s="162">
-        <v>89.035277995547546</v>
+        <v>-122.21315423488811</v>
       </c>
       <c r="P115" s="159">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="2:16">
@@ -12196,10 +12649,10 @@
         <v>172</v>
       </c>
       <c r="C116" s="156" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="D116" s="156" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
       <c r="E116" s="156" t="s">
         <v>10</v>
@@ -12214,22 +12667,22 @@
         <v>176</v>
       </c>
       <c r="K116" s="156" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="L116" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M116" s="158">
-        <v>24.75825</v>
+        <v>8.2530000000000001</v>
       </c>
       <c r="N116" s="161">
-        <v>0.21867465390324434</v>
+        <v>0.1920373552511174</v>
       </c>
       <c r="O116" s="160">
-        <v>70.225253325750813</v>
+        <v>-83.675046949279022</v>
       </c>
       <c r="P116" s="158">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="2:16">
@@ -12237,10 +12690,10 @@
         <v>172</v>
       </c>
       <c r="C117" s="157" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="D117" s="157" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="E117" s="157" t="s">
         <v>10</v>
@@ -12255,19 +12708,19 @@
         <v>176</v>
       </c>
       <c r="K117" s="157" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="L117" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M117" s="159">
-        <v>15.635999999999999</v>
+        <v>8.0145</v>
       </c>
       <c r="N117" s="163">
-        <v>0.21299999999999999</v>
+        <v>0.1910895850265463</v>
       </c>
       <c r="O117" s="162">
-        <v>61.325638572891222</v>
+        <v>-143.65131133635822</v>
       </c>
       <c r="P117" s="159">
         <v>1</v>
@@ -12278,10 +12731,10 @@
         <v>172</v>
       </c>
       <c r="C118" s="156" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="D118" s="156" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="E118" s="156" t="s">
         <v>10</v>
@@ -12296,22 +12749,22 @@
         <v>176</v>
       </c>
       <c r="K118" s="156" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="L118" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M118" s="158">
-        <v>8.2784999999999993</v>
+        <v>8.4172499999999992</v>
       </c>
       <c r="N118" s="161">
-        <v>0.21199999999999999</v>
+        <v>0.18934356175103029</v>
       </c>
       <c r="O118" s="160">
-        <v>92.524990786428518</v>
+        <v>-42.20112344184281</v>
       </c>
       <c r="P118" s="158">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="2:16">
@@ -12319,10 +12772,10 @@
         <v>172</v>
       </c>
       <c r="C119" s="157" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="D119" s="157" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="E119" s="157" t="s">
         <v>10</v>
@@ -12337,19 +12790,19 @@
         <v>176</v>
       </c>
       <c r="K119" s="157" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="L119" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M119" s="159">
-        <v>8.3684999999999992</v>
+        <v>8.1959999999999997</v>
       </c>
       <c r="N119" s="163">
-        <v>0.21</v>
+        <v>0.18492326876860271</v>
       </c>
       <c r="O119" s="162">
-        <v>88.319326106164425</v>
+        <v>-6.6563769327865074</v>
       </c>
       <c r="P119" s="159">
         <v>4</v>
@@ -12360,10 +12813,10 @@
         <v>172</v>
       </c>
       <c r="C120" s="156" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="D120" s="156" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="E120" s="156" t="s">
         <v>10</v>
@@ -12378,22 +12831,22 @@
         <v>176</v>
       </c>
       <c r="K120" s="156" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="L120" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M120" s="158">
-        <v>8.4120000000000008</v>
+        <v>16.204499999999999</v>
       </c>
       <c r="N120" s="161">
-        <v>0.20699999999999999</v>
+        <v>0.18328507151636589</v>
       </c>
       <c r="O120" s="160">
-        <v>87.662127039500405</v>
+        <v>-105.79285263880739</v>
       </c>
       <c r="P120" s="158">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="2:16">
@@ -12401,10 +12854,10 @@
         <v>172</v>
       </c>
       <c r="C121" s="157" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="D121" s="157" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="E121" s="157" t="s">
         <v>10</v>
@@ -12419,22 +12872,22 @@
         <v>176</v>
       </c>
       <c r="K121" s="157" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="L121" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M121" s="159">
-        <v>8.4172499999999992</v>
+        <v>16.234500000000001</v>
       </c>
       <c r="N121" s="163">
-        <v>0.20699999999999999</v>
+        <v>0.18299240011642368</v>
       </c>
       <c r="O121" s="162">
-        <v>76.409858436959482</v>
+        <v>-190.37215558319755</v>
       </c>
       <c r="P121" s="159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="2:16">
@@ -12442,10 +12895,10 @@
         <v>172</v>
       </c>
       <c r="C122" s="156" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="D122" s="156" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="E122" s="156" t="s">
         <v>10</v>
@@ -12460,22 +12913,22 @@
         <v>176</v>
       </c>
       <c r="K122" s="156" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="L122" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M122" s="158">
-        <v>16.413</v>
+        <v>8.0932499999999994</v>
       </c>
       <c r="N122" s="161">
-        <v>0.2015085450557485</v>
+        <v>0.1800625315270642</v>
       </c>
       <c r="O122" s="160">
-        <v>100.57706889911303</v>
+        <v>21.242292735448959</v>
       </c>
       <c r="P122" s="158">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="2:16">
@@ -12483,10 +12936,10 @@
         <v>172</v>
       </c>
       <c r="C123" s="157" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="D123" s="157" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="E123" s="157" t="s">
         <v>10</v>
@@ -12501,22 +12954,22 @@
         <v>176</v>
       </c>
       <c r="K123" s="157" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="L123" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M123" s="159">
-        <v>25.155000000000001</v>
+        <v>8.1262500000000006</v>
       </c>
       <c r="N123" s="163">
-        <v>0.20134230769230768</v>
+        <v>0.17649544137809611</v>
       </c>
       <c r="O123" s="162">
-        <v>64.303063753388358</v>
+        <v>-41.250704291029479</v>
       </c>
       <c r="P123" s="159">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="2:16">
@@ -12524,10 +12977,10 @@
         <v>172</v>
       </c>
       <c r="C124" s="156" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="D124" s="156" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="E124" s="156" t="s">
         <v>10</v>
@@ -12542,22 +12995,22 @@
         <v>176</v>
       </c>
       <c r="K124" s="156" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="L124" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M124" s="158">
-        <v>16.363499999999998</v>
+        <v>8.0954999999999995</v>
       </c>
       <c r="N124" s="161">
-        <v>0.19898533321111009</v>
+        <v>0.17322038910379561</v>
       </c>
       <c r="O124" s="160">
-        <v>95.382524847118589</v>
+        <v>-207.65912167312297</v>
       </c>
       <c r="P124" s="158">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="2:16">
@@ -12565,10 +13018,10 @@
         <v>172</v>
       </c>
       <c r="C125" s="157" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="D125" s="157" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="E125" s="157" t="s">
         <v>10</v>
@@ -12583,22 +13036,22 @@
         <v>176</v>
       </c>
       <c r="K125" s="157" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="L125" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M125" s="159">
-        <v>12.6435</v>
+        <v>8.0662500000000001</v>
       </c>
       <c r="N125" s="163">
-        <v>0.19850094910428284</v>
+        <v>0.17119241346264749</v>
       </c>
       <c r="O125" s="162">
-        <v>107.50941486029578</v>
+        <v>-124.84861767389492</v>
       </c>
       <c r="P125" s="159">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="2:16">
@@ -12606,10 +13059,10 @@
         <v>172</v>
       </c>
       <c r="C126" s="156" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="D126" s="156" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="E126" s="156" t="s">
         <v>10</v>
@@ -12624,19 +13077,19 @@
         <v>176</v>
       </c>
       <c r="K126" s="156" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="L126" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M126" s="158">
-        <v>24.728249999999999</v>
+        <v>8.3992500000000003</v>
       </c>
       <c r="N126" s="161">
-        <v>0.19666033787267601</v>
+        <v>0.1680996609254681</v>
       </c>
       <c r="O126" s="160">
-        <v>80.779050685374855</v>
+        <v>-136.17621747489227</v>
       </c>
       <c r="P126" s="158">
         <v>2</v>
@@ -12647,10 +13100,10 @@
         <v>172</v>
       </c>
       <c r="C127" s="157" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="D127" s="157" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="E127" s="157" t="s">
         <v>10</v>
@@ -12665,22 +13118,22 @@
         <v>176</v>
       </c>
       <c r="K127" s="157" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="L127" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M127" s="159">
-        <v>7.8937499999999998</v>
+        <v>7.8179999999999996</v>
       </c>
       <c r="N127" s="163">
-        <v>0.19</v>
+        <v>0.16530815223310119</v>
       </c>
       <c r="O127" s="162">
-        <v>110.9698082313907</v>
+        <v>-98.379082199392016</v>
       </c>
       <c r="P127" s="159">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="2:16">
@@ -12688,10 +13141,10 @@
         <v>172</v>
       </c>
       <c r="C128" s="156" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="D128" s="156" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="E128" s="156" t="s">
         <v>10</v>
@@ -12706,22 +13159,22 @@
         <v>176</v>
       </c>
       <c r="K128" s="156" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="L128" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M128" s="158">
-        <v>7.8179999999999996</v>
+        <v>8.2117500000000003</v>
       </c>
       <c r="N128" s="161">
-        <v>0.19</v>
+        <v>0.1648640031148178</v>
       </c>
       <c r="O128" s="160">
-        <v>108.61046158892253</v>
+        <v>-152.21629120941424</v>
       </c>
       <c r="P128" s="158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="2:16">
@@ -12729,10 +13182,10 @@
         <v>172</v>
       </c>
       <c r="C129" s="157" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="D129" s="157" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="E129" s="157" t="s">
         <v>10</v>
@@ -12747,22 +13200,22 @@
         <v>176</v>
       </c>
       <c r="K129" s="157" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="L129" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M129" s="159">
-        <v>8.0932499999999994</v>
+        <v>8.2560000000000002</v>
       </c>
       <c r="N129" s="163">
-        <v>0.189</v>
+        <v>0.1520135729443049</v>
       </c>
       <c r="O129" s="162">
-        <v>90.389087889688383</v>
+        <v>-165.89714048976313</v>
       </c>
       <c r="P129" s="159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="2:16">
@@ -12770,10 +13223,10 @@
         <v>172</v>
       </c>
       <c r="C130" s="156" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="D130" s="156" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="E130" s="156" t="s">
         <v>10</v>
@@ -12788,22 +13241,22 @@
         <v>176</v>
       </c>
       <c r="K130" s="156" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="L130" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M130" s="158">
         <v>8.1442499999999995</v>
       </c>
       <c r="N130" s="161">
-        <v>0.185</v>
+        <v>0.151708166751155</v>
       </c>
       <c r="O130" s="160">
-        <v>132.50040931715574</v>
+        <v>-179.81952955292456</v>
       </c>
       <c r="P130" s="158">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="2:16">
@@ -12811,10 +13264,10 @@
         <v>172</v>
       </c>
       <c r="C131" s="157" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="D131" s="157" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="E131" s="157" t="s">
         <v>10</v>
@@ -12829,22 +13282,22 @@
         <v>176</v>
       </c>
       <c r="K131" s="157" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="L131" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M131" s="159">
-        <v>16.5855</v>
+        <v>8.3294999999999995</v>
       </c>
       <c r="N131" s="163">
-        <v>0.18200443158180338</v>
+        <v>0.15002509122581789</v>
       </c>
       <c r="O131" s="162">
-        <v>109.89756432451613</v>
+        <v>-207.91055465462003</v>
       </c>
       <c r="P131" s="159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="2:16">
@@ -12852,10 +13305,10 @@
         <v>172</v>
       </c>
       <c r="C132" s="156" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="D132" s="156" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="E132" s="156" t="s">
         <v>10</v>
@@ -12870,22 +13323,22 @@
         <v>176</v>
       </c>
       <c r="K132" s="156" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="L132" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M132" s="158">
-        <v>15.645</v>
+        <v>8.4172499999999992</v>
       </c>
       <c r="N132" s="161">
-        <v>0.18117689357622244</v>
+        <v>0.1486604569627136</v>
       </c>
       <c r="O132" s="160">
-        <v>96.7544460584338</v>
+        <v>-406.59783763399821</v>
       </c>
       <c r="P132" s="158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="2:16">
@@ -12893,10 +13346,10 @@
         <v>172</v>
       </c>
       <c r="C133" s="157" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="D133" s="157" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E133" s="157" t="s">
         <v>10</v>
@@ -12911,19 +13364,19 @@
         <v>176</v>
       </c>
       <c r="K133" s="157" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="L133" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M133" s="159">
-        <v>15.945</v>
+        <v>7.7272499999999997</v>
       </c>
       <c r="N133" s="163">
-        <v>0.18009228598306679</v>
+        <v>0.14069336661847689</v>
       </c>
       <c r="O133" s="162">
-        <v>80.553304975294893</v>
+        <v>-302.35426147751036</v>
       </c>
       <c r="P133" s="159">
         <v>1</v>
@@ -12934,10 +13387,10 @@
         <v>172</v>
       </c>
       <c r="C134" s="156" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="D134" s="156" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="E134" s="156" t="s">
         <v>10</v>
@@ -12952,22 +13405,22 @@
         <v>176</v>
       </c>
       <c r="K134" s="156" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="L134" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M134" s="158">
-        <v>1.1220000000000001</v>
+        <v>8.2177500000000006</v>
       </c>
       <c r="N134" s="161">
-        <v>0.17899999999999999</v>
+        <v>0.1335690204311058</v>
       </c>
       <c r="O134" s="160">
-        <v>197.49900357647627</v>
+        <v>-452.80734996548546</v>
       </c>
       <c r="P134" s="158">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="2:16">
@@ -12975,10 +13428,10 @@
         <v>172</v>
       </c>
       <c r="C135" s="157" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="D135" s="157" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="E135" s="157" t="s">
         <v>10</v>
@@ -12993,22 +13446,22 @@
         <v>176</v>
       </c>
       <c r="K135" s="157" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="L135" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M135" s="159">
-        <v>5.0430000000000001</v>
+        <v>7.1909999999999998</v>
       </c>
       <c r="N135" s="163">
-        <v>0.17599999999999999</v>
+        <v>0.118271462242377</v>
       </c>
       <c r="O135" s="162">
-        <v>123.51539786900126</v>
+        <v>-299.15079637727132</v>
       </c>
       <c r="P135" s="159">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="2:16">
@@ -13016,10 +13469,10 @@
         <v>172</v>
       </c>
       <c r="C136" s="156" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="D136" s="156" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="E136" s="156" t="s">
         <v>10</v>
@@ -13034,19 +13487,19 @@
         <v>176</v>
       </c>
       <c r="K136" s="156" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="L136" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M136" s="158">
-        <v>6.9930000000000003</v>
+        <v>7.3612500000000001</v>
       </c>
       <c r="N136" s="161">
-        <v>0.17299999999999999</v>
+        <v>0.113610085547156</v>
       </c>
       <c r="O136" s="160">
-        <v>161.45714280650267</v>
+        <v>-731.14394974516961</v>
       </c>
       <c r="P136" s="158">
         <v>2</v>
@@ -13057,10 +13510,10 @@
         <v>172</v>
       </c>
       <c r="C137" s="157" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="D137" s="157" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="E137" s="157" t="s">
         <v>10</v>
@@ -13075,19 +13528,19 @@
         <v>176</v>
       </c>
       <c r="K137" s="157" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="L137" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M137" s="159">
-        <v>2.0242499999999999</v>
+        <v>8.2837499999999995</v>
       </c>
       <c r="N137" s="163">
-        <v>0.16700000000000001</v>
+        <v>0.1106928942651814</v>
       </c>
       <c r="O137" s="162">
-        <v>159.04538534992781</v>
+        <v>-860.18733527542304</v>
       </c>
       <c r="P137" s="159">
         <v>1</v>
@@ -13098,10 +13551,10 @@
         <v>172</v>
       </c>
       <c r="C138" s="156" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="D138" s="156" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="E138" s="156" t="s">
         <v>10</v>
@@ -13116,22 +13569,22 @@
         <v>176</v>
       </c>
       <c r="K138" s="156" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="L138" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M138" s="158">
-        <v>2.8544999999999998</v>
+        <v>7.8937499999999998</v>
       </c>
       <c r="N138" s="161">
-        <v>0.16400000000000001</v>
+        <v>0.1038043665341269</v>
       </c>
       <c r="O138" s="160">
-        <v>156.79285139817034</v>
+        <v>-1039.7212314543053</v>
       </c>
       <c r="P138" s="158">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="2:16">
@@ -13139,10 +13592,10 @@
         <v>172</v>
       </c>
       <c r="C139" s="157" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="D139" s="157" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="E139" s="157" t="s">
         <v>10</v>
@@ -13157,19 +13610,19 @@
         <v>176</v>
       </c>
       <c r="K139" s="157" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="L139" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M139" s="159">
-        <v>7.7370000000000001</v>
+        <v>6.9930000000000003</v>
       </c>
       <c r="N139" s="163">
-        <v>0.159</v>
+        <v>9.3457654798712805E-2</v>
       </c>
       <c r="O139" s="162">
-        <v>122.09623695903696</v>
+        <v>-1133.8718867988619</v>
       </c>
       <c r="P139" s="159">
         <v>2</v>
@@ -13180,10 +13633,10 @@
         <v>172</v>
       </c>
       <c r="C140" s="156" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="D140" s="156" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="E140" s="156" t="s">
         <v>10</v>
@@ -13198,19 +13651,19 @@
         <v>176</v>
       </c>
       <c r="K140" s="156" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="L140" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M140" s="158">
-        <v>7.6942500000000003</v>
+        <v>7.7370000000000001</v>
       </c>
       <c r="N140" s="161">
-        <v>0.15500000000000003</v>
+        <v>8.6101260740745103E-2</v>
       </c>
       <c r="O140" s="160">
-        <v>82.538249795027014</v>
+        <v>-1279.9297761244434</v>
       </c>
       <c r="P140" s="158">
         <v>1</v>
@@ -13221,10 +13674,10 @@
         <v>172</v>
       </c>
       <c r="C141" s="157" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="D141" s="157" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="E141" s="157" t="s">
         <v>10</v>
@@ -13239,22 +13692,22 @@
         <v>176</v>
       </c>
       <c r="K141" s="157" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="L141" s="157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M141" s="159">
-        <v>1.0740000000000001</v>
+        <v>7.6942500000000003</v>
       </c>
       <c r="N141" s="163">
-        <v>0.151</v>
+        <v>7.03514394781561E-2</v>
       </c>
       <c r="O141" s="162">
-        <v>205.68898479278224</v>
+        <v>-1961.3520380781501</v>
       </c>
       <c r="P141" s="159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="2:16">
@@ -13262,10 +13715,10 @@
         <v>172</v>
       </c>
       <c r="C142" s="156" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="D142" s="156" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="E142" s="156" t="s">
         <v>10</v>
@@ -13280,21 +13733,226 @@
         <v>176</v>
       </c>
       <c r="K142" s="156" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="L142" s="156" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="M142" s="158">
-        <v>7.1909999999999998</v>
+        <v>4.5172499999999998</v>
       </c>
       <c r="N142" s="161">
-        <v>0.14900000000000002</v>
+        <v>5.1050580434309399E-2</v>
       </c>
       <c r="O142" s="160">
-        <v>159.96089140847366</v>
+        <v>-3752.4512034100371</v>
       </c>
       <c r="P142" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:16">
+      <c r="B143" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" s="157" t="s">
+        <v>507</v>
+      </c>
+      <c r="D143" s="157" t="s">
+        <v>508</v>
+      </c>
+      <c r="E143" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G143" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="H143" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="K143" s="157" t="s">
+        <v>507</v>
+      </c>
+      <c r="L143" s="157" t="s">
+        <v>517</v>
+      </c>
+      <c r="M143" s="159">
+        <v>5.0430000000000001</v>
+      </c>
+      <c r="N143" s="163">
+        <v>5.0246123962461697E-2</v>
+      </c>
+      <c r="O143" s="162">
+        <v>-3620.596637667732</v>
+      </c>
+      <c r="P143" s="159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16">
+      <c r="B144" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="C144" s="156" t="s">
+        <v>509</v>
+      </c>
+      <c r="D144" s="156" t="s">
+        <v>510</v>
+      </c>
+      <c r="E144" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="H144" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="K144" s="156" t="s">
+        <v>509</v>
+      </c>
+      <c r="L144" s="156" t="s">
+        <v>517</v>
+      </c>
+      <c r="M144" s="158">
+        <v>2.0242499999999999</v>
+      </c>
+      <c r="N144" s="161">
+        <v>2.8461322395155499E-2</v>
+      </c>
+      <c r="O144" s="160">
+        <v>-7515.3148461089286</v>
+      </c>
+      <c r="P144" s="158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:16">
+      <c r="B145" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="C145" s="157" t="s">
+        <v>511</v>
+      </c>
+      <c r="D145" s="157" t="s">
+        <v>512</v>
+      </c>
+      <c r="E145" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="H145" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="K145" s="157" t="s">
+        <v>511</v>
+      </c>
+      <c r="L145" s="157" t="s">
+        <v>517</v>
+      </c>
+      <c r="M145" s="159">
+        <v>2.8544999999999998</v>
+      </c>
+      <c r="N145" s="163">
+        <v>2.8014890642676895E-2</v>
+      </c>
+      <c r="O145" s="162">
+        <v>-7636.1459255167883</v>
+      </c>
+      <c r="P145" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="2:16">
+      <c r="B146" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="C146" s="156" t="s">
+        <v>513</v>
+      </c>
+      <c r="D146" s="156" t="s">
+        <v>514</v>
+      </c>
+      <c r="E146" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="H146" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="K146" s="156" t="s">
+        <v>513</v>
+      </c>
+      <c r="L146" s="156" t="s">
+        <v>517</v>
+      </c>
+      <c r="M146" s="158">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="N146" s="161">
+        <v>2.1418931566030801E-2</v>
+      </c>
+      <c r="O146" s="160">
+        <v>-10343.267358413719</v>
+      </c>
+      <c r="P146" s="158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:16">
+      <c r="B147" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" s="157" t="s">
+        <v>515</v>
+      </c>
+      <c r="D147" s="157" t="s">
+        <v>516</v>
+      </c>
+      <c r="E147" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G147" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="H147" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="K147" s="157" t="s">
+        <v>515</v>
+      </c>
+      <c r="L147" s="157" t="s">
+        <v>517</v>
+      </c>
+      <c r="M147" s="159">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="N147" s="163">
+        <v>2.02272857010726E-2</v>
+      </c>
+      <c r="O147" s="162">
+        <v>-11348.404371795066</v>
+      </c>
+      <c r="P147" s="159">
         <v>1</v>
       </c>
     </row>
@@ -13308,7 +13966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22F86DE-86BA-4477-A3DE-A5B067307BF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1852C978-D09E-44BC-B6AA-B6761ED9B5BA}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -13351,10 +14009,10 @@
         <v>153</v>
       </c>
       <c r="C3" s="155" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="D3" s="155" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="E3" s="155">
         <v>2023</v>
@@ -13392,7 +14050,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="B4" s="156" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="C4" s="156" t="s">
         <v>33</v>
@@ -13416,7 +14074,7 @@
         <v>172</v>
       </c>
       <c r="L4" s="156" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="M4" s="156"/>
       <c r="N4" s="156" t="s">
@@ -13426,15 +14084,15 @@
         <v>21</v>
       </c>
       <c r="P4" s="156" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q4" s="156" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="157" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="C5" s="157" t="s">
         <v>33</v>
@@ -13452,13 +14110,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H5" s="157" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="K5" s="157" t="s">
         <v>172</v>
       </c>
       <c r="L5" s="157" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="M5" s="157"/>
       <c r="N5" s="157" t="s">
@@ -13468,15 +14126,15 @@
         <v>21</v>
       </c>
       <c r="P5" s="157" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q5" s="157" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="156" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="C6" s="156" t="s">
         <v>33</v>
@@ -13494,13 +14152,13 @@
         <v>5100</v>
       </c>
       <c r="H6" s="156" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="K6" s="156" t="s">
         <v>172</v>
       </c>
       <c r="L6" s="156" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="M6" s="156"/>
       <c r="N6" s="156" t="s">
@@ -13510,15 +14168,15 @@
         <v>21</v>
       </c>
       <c r="P6" s="156" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q6" s="156" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="B7" s="157" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="C7" s="157" t="s">
         <v>33</v>
@@ -13536,13 +14194,13 @@
         <v>175</v>
       </c>
       <c r="H7" s="157" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="K7" s="157" t="s">
         <v>172</v>
       </c>
       <c r="L7" s="157" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="M7" s="157"/>
       <c r="N7" s="157" t="s">
@@ -13552,15 +14210,15 @@
         <v>21</v>
       </c>
       <c r="P7" s="157" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q7" s="157" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="B8" s="156" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="C8" s="156" t="s">
         <v>33</v>
@@ -13578,13 +14236,13 @@
         <v>3</v>
       </c>
       <c r="H8" s="156" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="K8" s="156" t="s">
         <v>172</v>
       </c>
       <c r="L8" s="156" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="M8" s="156"/>
       <c r="N8" s="156" t="s">
@@ -13594,15 +14252,15 @@
         <v>21</v>
       </c>
       <c r="P8" s="156" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q8" s="156" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" s="157" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="C9" s="157" t="s">
         <v>33</v>
@@ -13626,7 +14284,7 @@
         <v>172</v>
       </c>
       <c r="L9" s="157" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="M9" s="157"/>
       <c r="N9" s="157" t="s">
@@ -13636,15 +14294,15 @@
         <v>21</v>
       </c>
       <c r="P9" s="157" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q9" s="157" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="B10" s="156" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="C10" s="156" t="s">
         <v>33</v>
@@ -13662,13 +14320,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H10" s="156" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="K10" s="156" t="s">
         <v>172</v>
       </c>
       <c r="L10" s="156" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="M10" s="156"/>
       <c r="N10" s="156" t="s">
@@ -13678,15 +14336,15 @@
         <v>21</v>
       </c>
       <c r="P10" s="156" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q10" s="156" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="B11" s="157" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="C11" s="157" t="s">
         <v>33</v>
@@ -13704,13 +14362,13 @@
         <v>2300</v>
       </c>
       <c r="H11" s="157" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="K11" s="157" t="s">
         <v>172</v>
       </c>
       <c r="L11" s="157" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="M11" s="157"/>
       <c r="N11" s="157" t="s">
@@ -13720,15 +14378,15 @@
         <v>21</v>
       </c>
       <c r="P11" s="157" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q11" s="157" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="B12" s="156" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="C12" s="156" t="s">
         <v>33</v>
@@ -13746,13 +14404,13 @@
         <v>80</v>
       </c>
       <c r="H12" s="156" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="K12" s="156" t="s">
         <v>172</v>
       </c>
       <c r="L12" s="156" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="M12" s="156"/>
       <c r="N12" s="156" t="s">
@@ -13762,15 +14420,15 @@
         <v>21</v>
       </c>
       <c r="P12" s="156" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q12" s="156" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="157" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="C13" s="157" t="s">
         <v>33</v>
@@ -13788,13 +14446,13 @@
         <v>3</v>
       </c>
       <c r="H13" s="157" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="K13" s="157" t="s">
         <v>172</v>
       </c>
       <c r="L13" s="157" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="M13" s="157"/>
       <c r="N13" s="157" t="s">
@@ -13804,15 +14462,15 @@
         <v>21</v>
       </c>
       <c r="P13" s="157" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q13" s="157" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="156" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="C14" s="156" t="s">
         <v>35</v>
@@ -13836,7 +14494,7 @@
         <v>172</v>
       </c>
       <c r="L14" s="156" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="M14" s="156"/>
       <c r="N14" s="156" t="s">
@@ -13846,15 +14504,15 @@
         <v>21</v>
       </c>
       <c r="P14" s="156" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q14" s="156" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="B15" s="157" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="C15" s="157" t="s">
         <v>35</v>
@@ -13872,13 +14530,13 @@
         <v>1000</v>
       </c>
       <c r="H15" s="157" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="K15" s="157" t="s">
         <v>172</v>
       </c>
       <c r="L15" s="157" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="M15" s="157"/>
       <c r="N15" s="157" t="s">
@@ -13888,15 +14546,15 @@
         <v>21</v>
       </c>
       <c r="P15" s="157" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q15" s="157" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="B16" s="156" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="C16" s="156" t="s">
         <v>35</v>
@@ -13914,13 +14572,13 @@
         <v>25</v>
       </c>
       <c r="H16" s="156" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="K16" s="156" t="s">
         <v>172</v>
       </c>
       <c r="L16" s="156" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="M16" s="156"/>
       <c r="N16" s="156" t="s">
@@ -13930,15 +14588,15 @@
         <v>21</v>
       </c>
       <c r="P16" s="156" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q16" s="156" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="157" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="C17" s="157" t="s">
         <v>35</v>
@@ -13962,7 +14620,7 @@
         <v>172</v>
       </c>
       <c r="L17" s="157" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="M17" s="157"/>
       <c r="N17" s="157" t="s">
@@ -13972,15 +14630,15 @@
         <v>21</v>
       </c>
       <c r="P17" s="157" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q17" s="157" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="156" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="C18" s="156" t="s">
         <v>35</v>
@@ -13998,13 +14656,13 @@
         <v>2400</v>
       </c>
       <c r="H18" s="156" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="K18" s="156" t="s">
         <v>172</v>
       </c>
       <c r="L18" s="156" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="M18" s="156"/>
       <c r="N18" s="156" t="s">
@@ -14014,15 +14672,15 @@
         <v>21</v>
       </c>
       <c r="P18" s="156" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q18" s="156" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="157" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="C19" s="157" t="s">
         <v>35</v>
@@ -14040,13 +14698,13 @@
         <v>60</v>
       </c>
       <c r="H19" s="157" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="K19" s="157" t="s">
         <v>172</v>
       </c>
       <c r="L19" s="157" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="M19" s="157"/>
       <c r="N19" s="157" t="s">
@@ -14056,15 +14714,15 @@
         <v>21</v>
       </c>
       <c r="P19" s="157" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q19" s="157" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" s="156" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="C20" s="156" t="s">
         <v>34</v>
@@ -14088,7 +14746,7 @@
         <v>172</v>
       </c>
       <c r="L20" s="156" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="M20" s="156"/>
       <c r="N20" s="156" t="s">
@@ -14098,15 +14756,15 @@
         <v>21</v>
       </c>
       <c r="P20" s="156" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="Q20" s="156" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="157" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="C21" s="157" t="s">
         <v>34</v>
@@ -14124,12 +14782,12 @@
         <v>4350</v>
       </c>
       <c r="H21" s="157" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" s="156" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="C22" s="156" t="s">
         <v>34</v>
@@ -14147,12 +14805,12 @@
         <v>130</v>
       </c>
       <c r="H22" s="156" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="2:17">
       <c r="B23" s="157" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="C23" s="157" t="s">
         <v>35</v>
@@ -14175,7 +14833,7 @@
     </row>
     <row r="24" spans="2:17">
       <c r="B24" s="156" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="C24" s="156" t="s">
         <v>35</v>
@@ -14193,12 +14851,12 @@
         <v>500</v>
       </c>
       <c r="H24" s="156" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="2:17">
       <c r="B25" s="157" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="C25" s="157" t="s">
         <v>35</v>
@@ -14216,12 +14874,12 @@
         <v>20</v>
       </c>
       <c r="H25" s="157" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="2:17">
       <c r="B26" s="156" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="C26" s="156" t="s">
         <v>29</v>
@@ -14244,7 +14902,7 @@
     </row>
     <row r="27" spans="2:17">
       <c r="B27" s="157" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="C27" s="157" t="s">
         <v>29</v>
@@ -14262,12 +14920,12 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="H27" s="157" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="2:17">
       <c r="B28" s="156" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="C28" s="156" t="s">
         <v>29</v>
@@ -14285,12 +14943,12 @@
         <v>2650</v>
       </c>
       <c r="H28" s="156" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="2:17">
       <c r="B29" s="157" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="C29" s="157" t="s">
         <v>29</v>
@@ -14308,12 +14966,12 @@
         <v>65</v>
       </c>
       <c r="H29" s="157" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="2:17">
       <c r="B30" s="156" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="C30" s="156" t="s">
         <v>29</v>
@@ -14331,12 +14989,12 @@
         <v>4</v>
       </c>
       <c r="H30" s="156" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="2:17">
       <c r="B31" s="157" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C31" s="157" t="s">
         <v>35</v>
@@ -14359,7 +15017,7 @@
     </row>
     <row r="32" spans="2:17">
       <c r="B32" s="156" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C32" s="156" t="s">
         <v>35</v>
@@ -14377,12 +15035,12 @@
         <v>2300</v>
       </c>
       <c r="H32" s="156" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="157" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="C33" s="157" t="s">
         <v>35</v>
@@ -14400,12 +15058,12 @@
         <v>80</v>
       </c>
       <c r="H33" s="157" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="156" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="C34" s="156" t="s">
         <v>34</v>
@@ -14428,7 +15086,7 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="157" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="C35" s="157" t="s">
         <v>34</v>
@@ -14446,12 +15104,12 @@
         <v>5100</v>
       </c>
       <c r="H35" s="157" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="156" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="C36" s="156" t="s">
         <v>34</v>
@@ -14469,12 +15127,12 @@
         <v>180</v>
       </c>
       <c r="H36" s="156" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="157" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="C37" s="157" t="s">
         <v>38</v>
@@ -14497,7 +15155,7 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="156" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="C38" s="156" t="s">
         <v>38</v>
@@ -14515,12 +15173,12 @@
         <v>4500</v>
       </c>
       <c r="H38" s="156" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="157" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="C39" s="157" t="s">
         <v>38</v>
@@ -14538,12 +15196,12 @@
         <v>160</v>
       </c>
       <c r="H39" s="157" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="156" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="C40" s="156" t="s">
         <v>34</v>
@@ -14566,7 +15224,7 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="157" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="C41" s="157" t="s">
         <v>34</v>
@@ -14584,12 +15242,12 @@
         <v>5100</v>
       </c>
       <c r="H41" s="157" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="156" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="C42" s="156" t="s">
         <v>34</v>
@@ -14607,12 +15265,12 @@
         <v>155</v>
       </c>
       <c r="H42" s="156" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="157" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="C43" s="157" t="s">
         <v>27</v>
@@ -14635,7 +15293,7 @@
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="156" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="C44" s="156" t="s">
         <v>27</v>
@@ -14653,12 +15311,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H44" s="156" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="157" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="C45" s="157" t="s">
         <v>27</v>
@@ -14676,12 +15334,12 @@
         <v>340</v>
       </c>
       <c r="H45" s="157" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="156" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="C46" s="156" t="s">
         <v>27</v>
@@ -14699,12 +15357,12 @@
         <v>10</v>
       </c>
       <c r="H46" s="156" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="157" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="C47" s="157" t="s">
         <v>27</v>
@@ -14722,12 +15380,12 @@
         <v>1.5</v>
       </c>
       <c r="H47" s="157" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="156" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="C48" s="156" t="s">
         <v>34</v>
@@ -14750,7 +15408,7 @@
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="157" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="C49" s="157" t="s">
         <v>34</v>
@@ -14768,12 +15426,12 @@
         <v>1700</v>
       </c>
       <c r="H49" s="157" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="156" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="C50" s="156" t="s">
         <v>34</v>
@@ -14791,12 +15449,12 @@
         <v>45</v>
       </c>
       <c r="H50" s="156" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="157" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="C51" s="157" t="s">
         <v>34</v>
@@ -14819,7 +15477,7 @@
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="156" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="C52" s="156" t="s">
         <v>34</v>
@@ -14837,12 +15495,12 @@
         <v>2000</v>
       </c>
       <c r="H52" s="156" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="157" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="C53" s="157" t="s">
         <v>34</v>
@@ -14860,12 +15518,12 @@
         <v>60</v>
       </c>
       <c r="H53" s="157" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="156" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="C54" s="156" t="s">
         <v>34</v>
@@ -14888,7 +15546,7 @@
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="157" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="C55" s="157" t="s">
         <v>34</v>
@@ -14906,12 +15564,12 @@
         <v>2200</v>
       </c>
       <c r="H55" s="157" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="156" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="C56" s="156" t="s">
         <v>34</v>
@@ -14929,12 +15587,12 @@
         <v>65</v>
       </c>
       <c r="H56" s="156" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="157" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="C57" s="157" t="s">
         <v>28</v>
@@ -14957,7 +15615,7 @@
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="156" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="C58" s="156" t="s">
         <v>28</v>
@@ -14975,12 +15633,12 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="H58" s="156" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="157" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="C59" s="157" t="s">
         <v>28</v>
@@ -14998,12 +15656,12 @@
         <v>1660</v>
       </c>
       <c r="H59" s="157" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="156" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="C60" s="156" t="s">
         <v>28</v>
@@ -15021,12 +15679,12 @@
         <v>40</v>
       </c>
       <c r="H60" s="156" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="157" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="C61" s="157" t="s">
         <v>28</v>
@@ -15044,12 +15702,12 @@
         <v>3</v>
       </c>
       <c r="H61" s="157" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="156" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="C62" s="156" t="s">
         <v>28</v>
@@ -15072,7 +15730,7 @@
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="157" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="C63" s="157" t="s">
         <v>28</v>
@@ -15090,12 +15748,12 @@
         <v>0.3</v>
       </c>
       <c r="H63" s="157" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="156" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="C64" s="156" t="s">
         <v>28</v>
@@ -15113,12 +15771,12 @@
         <v>1490</v>
       </c>
       <c r="H64" s="156" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="157" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="C65" s="157" t="s">
         <v>28</v>
@@ -15136,12 +15794,12 @@
         <v>38</v>
       </c>
       <c r="H65" s="157" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="156" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="C66" s="156" t="s">
         <v>28</v>
@@ -15159,7 +15817,7 @@
         <v>1.5</v>
       </c>
       <c r="H66" s="156" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55179210-A823-4FF0-A5CB-686AB6AB9B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15284001-B827-4E3F-9E56-A73472D5019C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="543">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -1745,6 +1745,9 @@
   </si>
   <si>
     <t>Wind offshore</t>
+  </si>
+  <si>
+    <t>unknown</t>
   </si>
   <si>
     <t>Wind onshore</t>
@@ -2797,7 +2800,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C183C4E3-6B03-DCC9-AC6B-9D290B00ED33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C82396-8B08-8A24-3987-AFBAD8E83DDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,7 +2855,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469B5564-95C2-4D41-4EC4-2235BFF2310A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05357143-C91B-FBCE-5FD4-A6B42DEFD392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2907,7 +2910,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEEB80E4-0804-CA22-51F1-C860A495FAE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5364EB-C085-6464-1DE4-ACE3477E6104}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2962,7 +2965,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B90310-1A00-9D3D-CE01-7CD44291780F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B01B09E-A888-834A-38D3-91F3E7813CD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6892,7 +6895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3886466-D9F7-43DF-8C5F-0FBEF770D2C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEC3FE8-78C7-4F13-B4D9-AD3979207FE1}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7969,7 +7972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A6BDB2-DA76-4D5A-8E7A-6A5F2E53F775}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105A63B8-1C05-498C-BFE3-B670ACDAE17E}">
   <dimension ref="A1:P147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13966,7 +13969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1852C978-D09E-44BC-B6AA-B6761ED9B5BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF17CCD-954E-47F2-90E3-1E1D1A00A55E}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -14084,10 +14087,10 @@
         <v>21</v>
       </c>
       <c r="P4" s="156" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q4" s="156" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -14126,10 +14129,10 @@
         <v>21</v>
       </c>
       <c r="P5" s="157" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q5" s="157" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -14168,10 +14171,10 @@
         <v>21</v>
       </c>
       <c r="P6" s="156" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q6" s="156" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -14210,10 +14213,10 @@
         <v>21</v>
       </c>
       <c r="P7" s="157" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q7" s="157" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -14252,10 +14255,10 @@
         <v>21</v>
       </c>
       <c r="P8" s="156" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q8" s="156" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -14294,10 +14297,10 @@
         <v>21</v>
       </c>
       <c r="P9" s="157" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q9" s="157" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -14336,10 +14339,10 @@
         <v>21</v>
       </c>
       <c r="P10" s="156" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q10" s="156" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -14378,10 +14381,10 @@
         <v>21</v>
       </c>
       <c r="P11" s="157" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q11" s="157" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -14420,10 +14423,10 @@
         <v>21</v>
       </c>
       <c r="P12" s="156" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q12" s="156" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -14462,10 +14465,10 @@
         <v>21</v>
       </c>
       <c r="P13" s="157" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q13" s="157" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -14504,10 +14507,10 @@
         <v>21</v>
       </c>
       <c r="P14" s="156" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="156" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -14546,10 +14549,10 @@
         <v>21</v>
       </c>
       <c r="P15" s="157" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q15" s="157" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -14588,10 +14591,10 @@
         <v>21</v>
       </c>
       <c r="P16" s="156" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q16" s="156" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="2:17">
@@ -14630,10 +14633,10 @@
         <v>21</v>
       </c>
       <c r="P17" s="157" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q17" s="157" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="2:17">
@@ -14672,10 +14675,10 @@
         <v>21</v>
       </c>
       <c r="P18" s="156" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q18" s="156" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="2:17">
@@ -14714,10 +14717,10 @@
         <v>21</v>
       </c>
       <c r="P19" s="157" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q19" s="157" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="2:17">
@@ -14746,7 +14749,7 @@
         <v>172</v>
       </c>
       <c r="L20" s="156" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M20" s="156"/>
       <c r="N20" s="156" t="s">
@@ -14756,10 +14759,10 @@
         <v>21</v>
       </c>
       <c r="P20" s="156" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q20" s="156" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="2:17">
@@ -15595,7 +15598,7 @@
         <v>538</v>
       </c>
       <c r="C57" s="157" t="s">
-        <v>28</v>
+        <v>539</v>
       </c>
       <c r="D57" s="157" t="s">
         <v>19</v>
@@ -15618,7 +15621,7 @@
         <v>538</v>
       </c>
       <c r="C58" s="156" t="s">
-        <v>28</v>
+        <v>539</v>
       </c>
       <c r="D58" s="156" t="s">
         <v>19</v>
@@ -15641,7 +15644,7 @@
         <v>538</v>
       </c>
       <c r="C59" s="157" t="s">
-        <v>28</v>
+        <v>539</v>
       </c>
       <c r="D59" s="157" t="s">
         <v>19</v>
@@ -15664,7 +15667,7 @@
         <v>538</v>
       </c>
       <c r="C60" s="156" t="s">
-        <v>28</v>
+        <v>539</v>
       </c>
       <c r="D60" s="156" t="s">
         <v>19</v>
@@ -15687,7 +15690,7 @@
         <v>538</v>
       </c>
       <c r="C61" s="157" t="s">
-        <v>28</v>
+        <v>539</v>
       </c>
       <c r="D61" s="157" t="s">
         <v>19</v>
@@ -15707,10 +15710,10 @@
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="156" t="s">
+        <v>540</v>
+      </c>
+      <c r="C62" s="156" t="s">
         <v>539</v>
-      </c>
-      <c r="C62" s="156" t="s">
-        <v>28</v>
       </c>
       <c r="D62" s="156" t="s">
         <v>19</v>
@@ -15730,10 +15733,10 @@
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="157" t="s">
+        <v>540</v>
+      </c>
+      <c r="C63" s="157" t="s">
         <v>539</v>
-      </c>
-      <c r="C63" s="157" t="s">
-        <v>28</v>
       </c>
       <c r="D63" s="157" t="s">
         <v>19</v>
@@ -15753,10 +15756,10 @@
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="156" t="s">
+        <v>540</v>
+      </c>
+      <c r="C64" s="156" t="s">
         <v>539</v>
-      </c>
-      <c r="C64" s="156" t="s">
-        <v>28</v>
       </c>
       <c r="D64" s="156" t="s">
         <v>19</v>
@@ -15776,10 +15779,10 @@
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="157" t="s">
+        <v>540</v>
+      </c>
+      <c r="C65" s="157" t="s">
         <v>539</v>
-      </c>
-      <c r="C65" s="157" t="s">
-        <v>28</v>
       </c>
       <c r="D65" s="157" t="s">
         <v>19</v>
@@ -15799,10 +15802,10 @@
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="156" t="s">
+        <v>540</v>
+      </c>
+      <c r="C66" s="156" t="s">
         <v>539</v>
-      </c>
-      <c r="C66" s="156" t="s">
-        <v>28</v>
       </c>
       <c r="D66" s="156" t="s">
         <v>19</v>

--- a/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15284001-B827-4E3F-9E56-A73472D5019C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C757E023-CD8A-493C-A95B-136D37ABFDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2800,7 +2800,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C82396-8B08-8A24-3987-AFBAD8E83DDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBB6F41-C5A0-3465-8089-61AC53F5CA8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2855,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05357143-C91B-FBCE-5FD4-A6B42DEFD392}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91DD294-1AC8-23BD-E314-E527FCD4D2C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5364EB-C085-6464-1DE4-ACE3477E6104}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73411106-AD71-3FF4-26B2-EF26518D6356}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2965,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B01B09E-A888-834A-38D3-91F3E7813CD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B9F7E3-58D7-F7E6-ED1A-DF37DFA1B5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6895,7 +6895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEC3FE8-78C7-4F13-B4D9-AD3979207FE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BDA319-AB55-4511-8966-E89D9648B514}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7972,7 +7972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105A63B8-1C05-498C-BFE3-B670ACDAE17E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84FC64-FA23-4FAC-B368-CCB4DD3A4433}">
   <dimension ref="A1:P147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13969,7 +13969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF17CCD-954E-47F2-90E3-1E1D1A00A55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D93A9B-F785-43FF-826A-718D3FA73717}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C757E023-CD8A-493C-A95B-136D37ABFDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{538F5984-CAE0-4484-841E-E6FFF7C2F564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2800,7 +2800,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBB6F41-C5A0-3465-8089-61AC53F5CA8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B103C88-1CB9-292F-246D-297CA8118BF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2855,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91DD294-1AC8-23BD-E314-E527FCD4D2C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97EFFCA5-4B02-ACF4-B862-C746345F32B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +2910,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73411106-AD71-3FF4-26B2-EF26518D6356}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B424EA-B8CD-8A77-A181-8B6FB1A10D5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +2965,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B9F7E3-58D7-F7E6-ED1A-DF37DFA1B5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA79CD9B-17E1-BEE2-A316-2AAE6370FB8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6895,7 +6895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BDA319-AB55-4511-8966-E89D9648B514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B4A611-D73C-41EA-B2AB-C0CF3F1C6711}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7972,7 +7972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C84FC64-FA23-4FAC-B368-CCB4DD3A4433}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3FDB3C-3379-42BA-8052-1F6201163294}">
   <dimension ref="A1:P147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13969,7 +13969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D93A9B-F785-43FF-826A-718D3FA73717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D1E3E1-4F4D-4CCB-BDDC-DC9B9ECE648A}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C050752-66BE-414E-975D-69E1F69292DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FB87C35-88B3-4BAD-84FA-21BE7444021E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="616">
   <si>
     <t>~FI_Process</t>
   </si>
@@ -1682,6 +1682,225 @@
   </si>
   <si>
     <t>elc_won-DEU</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_59_c3</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_59 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_59_c5</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_59 -- cost class 5</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_59_c2</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_59 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_59_c4</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_59 -- cost class 4</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_59_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_59 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_58_c3</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_58 -- cost class 3</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_58_c2</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_58 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_58_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_58 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_57_c2</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_57 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_57_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_57 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_56_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_56 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_55_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_55 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_54_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_54 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_53_c2</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_53 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_53_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_53 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_52_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_52 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_52_c2</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_52 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_49_c2</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_49 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_49_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_49 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_48_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_48 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_46_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_46 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_46_c2</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_46 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_44_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_44 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_43_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_43 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_42_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_42 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_40_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_40 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_39_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_39 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_39_c2</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_39 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_36_c2</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_36 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_36_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_36 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_35_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_35 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_34_c2</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_34 -- cost class 2</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_34_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_34 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_31_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_31 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_30_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_30 -- cost class 1</t>
+  </si>
+  <si>
+    <t>e_wof-DEU_29_c1</t>
+  </si>
+  <si>
+    <t>offshore wind resource -- CF class wof-DEU_29 -- cost class 1</t>
+  </si>
+  <si>
+    <t>elc_wof-DEU</t>
   </si>
   <si>
     <t>comm-in</t>
@@ -2800,7 +3019,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BC1A71-01B8-2DD8-EDD3-4B012ECA05B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580E2BD9-B885-6EE0-BDCD-45052E27766A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +3074,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841538BC-84BC-E047-9653-B43CFCF71A49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FABB0C-987F-6E33-35AA-8BF5267D8504}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2910,7 +3129,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478BE0AC-5ED6-23DB-6F54-D92980CA32C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F4CA59-85F2-E984-96A9-0E244ABE5476}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,7 +3184,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B417802-957C-3FE6-B4D9-CE2AF4B17E99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FD4F18-AF89-1422-04AA-C4CC8C12F9FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6895,7 +7114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CECAE9-2946-4E0D-A22C-4A8821927575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8905F6-3653-4930-97B5-EB6447F2C35D}">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7972,8 +8191,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A337A4-2075-4AAC-B13C-54F688CDC3E1}">
-  <dimension ref="A1:O154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899E3FFA-71C8-40E0-BF81-6954D2208FCA}">
+  <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -7992,9 +8211,18 @@
     <col min="11" max="13" width="10.59765625" customWidth="1"/>
     <col min="14" max="14" width="19.265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.59765625" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1"/>
+    <col min="18" max="18" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.59765625" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.59765625" customWidth="1"/>
+    <col min="25" max="25" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.05" customHeight="1">
+    <row r="1" spans="1:29" ht="22.05" customHeight="1">
       <c r="A1" s="153" t="s">
         <v>163</v>
       </c>
@@ -8006,15 +8234,21 @@
       <c r="G1" s="153"/>
       <c r="H1" s="153"/>
     </row>
-    <row r="9" spans="1:15" ht="14.65" thickBot="1">
+    <row r="9" spans="1:29" ht="14.65" thickBot="1">
       <c r="B9" s="154" t="s">
         <v>152</v>
       </c>
       <c r="J9" s="154" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1">
+      <c r="Q9" s="154" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y9" s="154" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" thickBot="1">
       <c r="B10" s="155" t="s">
         <v>168</v>
       </c>
@@ -8054,8 +8288,44 @@
       <c r="O10" s="155" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="Q10" s="155" t="s">
+        <v>168</v>
+      </c>
+      <c r="R10" s="155" t="s">
+        <v>153</v>
+      </c>
+      <c r="S10" s="155" t="s">
+        <v>154</v>
+      </c>
+      <c r="T10" s="155" t="s">
+        <v>169</v>
+      </c>
+      <c r="U10" s="155" t="s">
+        <v>170</v>
+      </c>
+      <c r="V10" s="155" t="s">
+        <v>155</v>
+      </c>
+      <c r="W10" s="155" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y10" s="155" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z10" s="155" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA10" s="155" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB10" s="155" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC10" s="155" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="B11" s="156" t="s">
         <v>172</v>
       </c>
@@ -8095,8 +8365,44 @@
       <c r="O11" s="158">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q11" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R11" s="156" t="s">
+        <v>518</v>
+      </c>
+      <c r="S11" s="156" t="s">
+        <v>519</v>
+      </c>
+      <c r="T11" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U11" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W11" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y11" s="156" t="s">
+        <v>518</v>
+      </c>
+      <c r="Z11" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA11" s="158">
+        <v>13.8675</v>
+      </c>
+      <c r="AB11" s="161">
+        <v>0.59497267100000006</v>
+      </c>
+      <c r="AC11" s="158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="B12" s="157" t="s">
         <v>172</v>
       </c>
@@ -8136,8 +8442,44 @@
       <c r="O12" s="159">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="Q12" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R12" s="157" t="s">
+        <v>520</v>
+      </c>
+      <c r="S12" s="157" t="s">
+        <v>521</v>
+      </c>
+      <c r="T12" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W12" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y12" s="157" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z12" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA12" s="159">
+        <v>11.755000000000001</v>
+      </c>
+      <c r="AB12" s="163">
+        <v>0.59425257200000003</v>
+      </c>
+      <c r="AC12" s="159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="B13" s="156" t="s">
         <v>172</v>
       </c>
@@ -8177,8 +8519,44 @@
       <c r="O13" s="158">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="Q13" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R13" s="156" t="s">
+        <v>522</v>
+      </c>
+      <c r="S13" s="156" t="s">
+        <v>523</v>
+      </c>
+      <c r="T13" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W13" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y13" s="156" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z13" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA13" s="158">
+        <v>27.734999999999999</v>
+      </c>
+      <c r="AB13" s="161">
+        <v>0.59103745399999996</v>
+      </c>
+      <c r="AC13" s="158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="B14" s="157" t="s">
         <v>172</v>
       </c>
@@ -8218,8 +8596,44 @@
       <c r="O14" s="159">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Q14" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R14" s="157" t="s">
+        <v>524</v>
+      </c>
+      <c r="S14" s="157" t="s">
+        <v>525</v>
+      </c>
+      <c r="T14" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W14" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y14" s="157" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z14" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA14" s="159">
+        <v>13.8675</v>
+      </c>
+      <c r="AB14" s="163">
+        <v>0.58995215400000001</v>
+      </c>
+      <c r="AC14" s="159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="B15" s="156" t="s">
         <v>172</v>
       </c>
@@ -8259,8 +8673,44 @@
       <c r="O15" s="158">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="Q15" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R15" s="156" t="s">
+        <v>526</v>
+      </c>
+      <c r="S15" s="156" t="s">
+        <v>527</v>
+      </c>
+      <c r="T15" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W15" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y15" s="156" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z15" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA15" s="158">
+        <v>27.734999999999999</v>
+      </c>
+      <c r="AB15" s="161">
+        <v>0.58755964500000002</v>
+      </c>
+      <c r="AC15" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="B16" s="157" t="s">
         <v>172</v>
       </c>
@@ -8300,8 +8750,44 @@
       <c r="O16" s="159">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="Q16" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R16" s="157" t="s">
+        <v>528</v>
+      </c>
+      <c r="S16" s="157" t="s">
+        <v>529</v>
+      </c>
+      <c r="T16" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V16" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W16" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" s="157" t="s">
+        <v>528</v>
+      </c>
+      <c r="Z16" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA16" s="159">
+        <v>13.8675</v>
+      </c>
+      <c r="AB16" s="163">
+        <v>0.58303503899999998</v>
+      </c>
+      <c r="AC16" s="159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
       <c r="B17" s="156" t="s">
         <v>172</v>
       </c>
@@ -8341,8 +8827,44 @@
       <c r="O17" s="158">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:15">
+      <c r="Q17" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R17" s="156" t="s">
+        <v>530</v>
+      </c>
+      <c r="S17" s="156" t="s">
+        <v>531</v>
+      </c>
+      <c r="T17" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W17" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" s="156" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z17" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA17" s="158">
+        <v>14.02875</v>
+      </c>
+      <c r="AB17" s="161">
+        <v>0.57868857299999998</v>
+      </c>
+      <c r="AC17" s="158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
       <c r="B18" s="157" t="s">
         <v>172</v>
       </c>
@@ -8382,8 +8904,44 @@
       <c r="O18" s="159">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="Q18" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R18" s="157" t="s">
+        <v>532</v>
+      </c>
+      <c r="S18" s="157" t="s">
+        <v>533</v>
+      </c>
+      <c r="T18" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U18" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W18" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y18" s="157" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z18" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA18" s="159">
+        <v>13.8675</v>
+      </c>
+      <c r="AB18" s="163">
+        <v>0.57695094899999999</v>
+      </c>
+      <c r="AC18" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
       <c r="B19" s="156" t="s">
         <v>172</v>
       </c>
@@ -8423,8 +8981,44 @@
       <c r="O19" s="158">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="Q19" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R19" s="156" t="s">
+        <v>534</v>
+      </c>
+      <c r="S19" s="156" t="s">
+        <v>535</v>
+      </c>
+      <c r="T19" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U19" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W19" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y19" s="156" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z19" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA19" s="158">
+        <v>14.02875</v>
+      </c>
+      <c r="AB19" s="161">
+        <v>0.57442702300000004</v>
+      </c>
+      <c r="AC19" s="158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
       <c r="B20" s="157" t="s">
         <v>172</v>
       </c>
@@ -8464,8 +9058,44 @@
       <c r="O20" s="159">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="Q20" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R20" s="157" t="s">
+        <v>536</v>
+      </c>
+      <c r="S20" s="157" t="s">
+        <v>537</v>
+      </c>
+      <c r="T20" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W20" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y20" s="157" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z20" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA20" s="159">
+        <v>13.827500000000001</v>
+      </c>
+      <c r="AB20" s="163">
+        <v>0.57279671099999996</v>
+      </c>
+      <c r="AC20" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
       <c r="B21" s="156" t="s">
         <v>172</v>
       </c>
@@ -8505,8 +9135,44 @@
       <c r="O21" s="158">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="2:15">
+      <c r="Q21" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R21" s="156" t="s">
+        <v>538</v>
+      </c>
+      <c r="S21" s="156" t="s">
+        <v>539</v>
+      </c>
+      <c r="T21" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W21" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y21" s="156" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z21" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA21" s="158">
+        <v>13.92625</v>
+      </c>
+      <c r="AB21" s="161">
+        <v>0.56071739600000003</v>
+      </c>
+      <c r="AC21" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
       <c r="B22" s="157" t="s">
         <v>172</v>
       </c>
@@ -8546,8 +9212,44 @@
       <c r="O22" s="159">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:15">
+      <c r="Q22" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R22" s="157" t="s">
+        <v>540</v>
+      </c>
+      <c r="S22" s="157" t="s">
+        <v>541</v>
+      </c>
+      <c r="T22" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W22" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y22" s="157" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z22" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA22" s="159">
+        <v>13.23875</v>
+      </c>
+      <c r="AB22" s="163">
+        <v>0.553779154</v>
+      </c>
+      <c r="AC22" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
       <c r="B23" s="156" t="s">
         <v>172</v>
       </c>
@@ -8587,8 +9289,44 @@
       <c r="O23" s="158">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:15">
+      <c r="Q23" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R23" s="156" t="s">
+        <v>542</v>
+      </c>
+      <c r="S23" s="156" t="s">
+        <v>543</v>
+      </c>
+      <c r="T23" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U23" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W23" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y23" s="156" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z23" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA23" s="158">
+        <v>4.5162500000000003</v>
+      </c>
+      <c r="AB23" s="161">
+        <v>0.54469198200000002</v>
+      </c>
+      <c r="AC23" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29">
       <c r="B24" s="157" t="s">
         <v>172</v>
       </c>
@@ -8628,8 +9366,44 @@
       <c r="O24" s="159">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:15">
+      <c r="Q24" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R24" s="157" t="s">
+        <v>544</v>
+      </c>
+      <c r="S24" s="157" t="s">
+        <v>545</v>
+      </c>
+      <c r="T24" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U24" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W24" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y24" s="157" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z24" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA24" s="159">
+        <v>13.8675</v>
+      </c>
+      <c r="AB24" s="163">
+        <v>0.53262292899999997</v>
+      </c>
+      <c r="AC24" s="159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29">
       <c r="B25" s="156" t="s">
         <v>172</v>
       </c>
@@ -8669,8 +9443,44 @@
       <c r="O25" s="158">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:15">
+      <c r="Q25" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R25" s="156" t="s">
+        <v>546</v>
+      </c>
+      <c r="S25" s="156" t="s">
+        <v>547</v>
+      </c>
+      <c r="T25" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U25" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W25" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y25" s="156" t="s">
+        <v>546</v>
+      </c>
+      <c r="Z25" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA25" s="158">
+        <v>8.1549999999999994</v>
+      </c>
+      <c r="AB25" s="161">
+        <v>0.53167315900000001</v>
+      </c>
+      <c r="AC25" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
       <c r="B26" s="157" t="s">
         <v>172</v>
       </c>
@@ -8710,8 +9520,44 @@
       <c r="O26" s="159">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:15">
+      <c r="Q26" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R26" s="157" t="s">
+        <v>548</v>
+      </c>
+      <c r="S26" s="157" t="s">
+        <v>549</v>
+      </c>
+      <c r="T26" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U26" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W26" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y26" s="157" t="s">
+        <v>548</v>
+      </c>
+      <c r="Z26" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA26" s="159">
+        <v>9.06</v>
+      </c>
+      <c r="AB26" s="163">
+        <v>0.52457923100000003</v>
+      </c>
+      <c r="AC26" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
       <c r="B27" s="156" t="s">
         <v>172</v>
       </c>
@@ -8751,8 +9597,44 @@
       <c r="O27" s="158">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="2:15">
+      <c r="Q27" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R27" s="156" t="s">
+        <v>550</v>
+      </c>
+      <c r="S27" s="156" t="s">
+        <v>551</v>
+      </c>
+      <c r="T27" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U27" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W27" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y27" s="156" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z27" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA27" s="158">
+        <v>11.2575</v>
+      </c>
+      <c r="AB27" s="161">
+        <v>0.51877992900000003</v>
+      </c>
+      <c r="AC27" s="158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29">
       <c r="B28" s="157" t="s">
         <v>172</v>
       </c>
@@ -8792,8 +9674,44 @@
       <c r="O28" s="159">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:15">
+      <c r="Q28" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R28" s="157" t="s">
+        <v>552</v>
+      </c>
+      <c r="S28" s="157" t="s">
+        <v>553</v>
+      </c>
+      <c r="T28" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U28" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W28" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y28" s="157" t="s">
+        <v>552</v>
+      </c>
+      <c r="Z28" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA28" s="159">
+        <v>10.8575</v>
+      </c>
+      <c r="AB28" s="163">
+        <v>0.49296379099999993</v>
+      </c>
+      <c r="AC28" s="159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29">
       <c r="B29" s="156" t="s">
         <v>172</v>
       </c>
@@ -8833,8 +9751,44 @@
       <c r="O29" s="158">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="2:15">
+      <c r="Q29" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R29" s="156" t="s">
+        <v>554</v>
+      </c>
+      <c r="S29" s="156" t="s">
+        <v>555</v>
+      </c>
+      <c r="T29" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W29" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y29" s="156" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z29" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA29" s="158">
+        <v>6.6375000000000002</v>
+      </c>
+      <c r="AB29" s="161">
+        <v>0.48683053799999998</v>
+      </c>
+      <c r="AC29" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29">
       <c r="B30" s="157" t="s">
         <v>172</v>
       </c>
@@ -8874,8 +9828,44 @@
       <c r="O30" s="159">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:15">
+      <c r="Q30" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R30" s="157" t="s">
+        <v>556</v>
+      </c>
+      <c r="S30" s="157" t="s">
+        <v>557</v>
+      </c>
+      <c r="T30" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U30" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W30" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y30" s="157" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z30" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA30" s="159">
+        <v>12.063750000000001</v>
+      </c>
+      <c r="AB30" s="163">
+        <v>0.47927646499999998</v>
+      </c>
+      <c r="AC30" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29">
       <c r="B31" s="156" t="s">
         <v>172</v>
       </c>
@@ -8915,8 +9905,44 @@
       <c r="O31" s="158">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:15">
+      <c r="Q31" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R31" s="156" t="s">
+        <v>558</v>
+      </c>
+      <c r="S31" s="156" t="s">
+        <v>559</v>
+      </c>
+      <c r="T31" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U31" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W31" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y31" s="156" t="s">
+        <v>558</v>
+      </c>
+      <c r="Z31" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA31" s="158">
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="AB31" s="161">
+        <v>0.46083247599999999</v>
+      </c>
+      <c r="AC31" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29">
       <c r="B32" s="157" t="s">
         <v>172</v>
       </c>
@@ -8956,8 +9982,44 @@
       <c r="O32" s="159">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="2:15">
+      <c r="Q32" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R32" s="157" t="s">
+        <v>560</v>
+      </c>
+      <c r="S32" s="157" t="s">
+        <v>561</v>
+      </c>
+      <c r="T32" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U32" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W32" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y32" s="157" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z32" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA32" s="159">
+        <v>2.8424999999999998</v>
+      </c>
+      <c r="AB32" s="163">
+        <v>0.45533161299999997</v>
+      </c>
+      <c r="AC32" s="159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29">
       <c r="B33" s="156" t="s">
         <v>172</v>
       </c>
@@ -8997,8 +10059,44 @@
       <c r="O33" s="158">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:15">
+      <c r="Q33" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R33" s="156" t="s">
+        <v>562</v>
+      </c>
+      <c r="S33" s="156" t="s">
+        <v>563</v>
+      </c>
+      <c r="T33" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U33" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V33" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W33" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y33" s="156" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z33" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA33" s="158">
+        <v>10.682499999999999</v>
+      </c>
+      <c r="AB33" s="161">
+        <v>0.43737909600000002</v>
+      </c>
+      <c r="AC33" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29">
       <c r="B34" s="157" t="s">
         <v>172</v>
       </c>
@@ -9038,8 +10136,44 @@
       <c r="O34" s="159">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:15">
+      <c r="Q34" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R34" s="157" t="s">
+        <v>564</v>
+      </c>
+      <c r="S34" s="157" t="s">
+        <v>565</v>
+      </c>
+      <c r="T34" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U34" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V34" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W34" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y34" s="157" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z34" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA34" s="159">
+        <v>5.9212499999999997</v>
+      </c>
+      <c r="AB34" s="163">
+        <v>0.43435844699999998</v>
+      </c>
+      <c r="AC34" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29">
       <c r="B35" s="156" t="s">
         <v>172</v>
       </c>
@@ -9079,8 +10213,44 @@
       <c r="O35" s="158">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:15">
+      <c r="Q35" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R35" s="156" t="s">
+        <v>566</v>
+      </c>
+      <c r="S35" s="156" t="s">
+        <v>567</v>
+      </c>
+      <c r="T35" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U35" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W35" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y35" s="156" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z35" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA35" s="158">
+        <v>2.61375</v>
+      </c>
+      <c r="AB35" s="161">
+        <v>0.42359337499999994</v>
+      </c>
+      <c r="AC35" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29">
       <c r="B36" s="157" t="s">
         <v>172</v>
       </c>
@@ -9120,8 +10290,44 @@
       <c r="O36" s="159">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15">
+      <c r="Q36" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R36" s="157" t="s">
+        <v>568</v>
+      </c>
+      <c r="S36" s="157" t="s">
+        <v>569</v>
+      </c>
+      <c r="T36" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U36" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V36" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W36" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y36" s="157" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z36" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA36" s="159">
+        <v>3.9175</v>
+      </c>
+      <c r="AB36" s="163">
+        <v>0.402605345</v>
+      </c>
+      <c r="AC36" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29">
       <c r="B37" s="156" t="s">
         <v>172</v>
       </c>
@@ -9161,8 +10367,44 @@
       <c r="O37" s="158">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:15">
+      <c r="Q37" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R37" s="156" t="s">
+        <v>570</v>
+      </c>
+      <c r="S37" s="156" t="s">
+        <v>571</v>
+      </c>
+      <c r="T37" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U37" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V37" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W37" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y37" s="156" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z37" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA37" s="158">
+        <v>1.0075000000000001</v>
+      </c>
+      <c r="AB37" s="161">
+        <v>0.39005562999999999</v>
+      </c>
+      <c r="AC37" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29">
       <c r="B38" s="157" t="s">
         <v>172</v>
       </c>
@@ -9202,8 +10444,44 @@
       <c r="O38" s="159">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="2:15">
+      <c r="Q38" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R38" s="157" t="s">
+        <v>572</v>
+      </c>
+      <c r="S38" s="157" t="s">
+        <v>573</v>
+      </c>
+      <c r="T38" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U38" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V38" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W38" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y38" s="157" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z38" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA38" s="159">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="AB38" s="163">
+        <v>0.38518730299999998</v>
+      </c>
+      <c r="AC38" s="159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29">
       <c r="B39" s="156" t="s">
         <v>172</v>
       </c>
@@ -9243,8 +10521,44 @@
       <c r="O39" s="158">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:15">
+      <c r="Q39" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R39" s="156" t="s">
+        <v>574</v>
+      </c>
+      <c r="S39" s="156" t="s">
+        <v>575</v>
+      </c>
+      <c r="T39" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U39" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W39" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y39" s="156" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z39" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA39" s="158">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="AB39" s="161">
+        <v>0.36300389399999999</v>
+      </c>
+      <c r="AC39" s="158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29">
       <c r="B40" s="157" t="s">
         <v>172</v>
       </c>
@@ -9284,8 +10598,44 @@
       <c r="O40" s="159">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:15">
+      <c r="Q40" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R40" s="157" t="s">
+        <v>576</v>
+      </c>
+      <c r="S40" s="157" t="s">
+        <v>577</v>
+      </c>
+      <c r="T40" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U40" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V40" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W40" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y40" s="157" t="s">
+        <v>576</v>
+      </c>
+      <c r="Z40" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA40" s="159">
+        <v>0.57625000000000004</v>
+      </c>
+      <c r="AB40" s="163">
+        <v>0.35521376900000001</v>
+      </c>
+      <c r="AC40" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29">
       <c r="B41" s="156" t="s">
         <v>172</v>
       </c>
@@ -9325,8 +10675,44 @@
       <c r="O41" s="158">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:15">
+      <c r="Q41" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R41" s="156" t="s">
+        <v>578</v>
+      </c>
+      <c r="S41" s="156" t="s">
+        <v>579</v>
+      </c>
+      <c r="T41" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U41" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V41" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W41" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y41" s="156" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z41" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA41" s="158">
+        <v>2.75E-2</v>
+      </c>
+      <c r="AB41" s="161">
+        <v>0.35255688199999996</v>
+      </c>
+      <c r="AC41" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29">
       <c r="B42" s="157" t="s">
         <v>172</v>
       </c>
@@ -9366,8 +10752,44 @@
       <c r="O42" s="159">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="2:15">
+      <c r="Q42" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R42" s="157" t="s">
+        <v>580</v>
+      </c>
+      <c r="S42" s="157" t="s">
+        <v>581</v>
+      </c>
+      <c r="T42" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U42" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V42" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W42" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y42" s="157" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z42" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA42" s="159">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="AB42" s="163">
+        <v>0.34343951499999997</v>
+      </c>
+      <c r="AC42" s="159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29">
       <c r="B43" s="156" t="s">
         <v>172</v>
       </c>
@@ -9407,8 +10829,44 @@
       <c r="O43" s="158">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15">
+      <c r="Q43" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R43" s="156" t="s">
+        <v>582</v>
+      </c>
+      <c r="S43" s="156" t="s">
+        <v>583</v>
+      </c>
+      <c r="T43" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U43" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V43" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W43" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y43" s="156" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z43" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA43" s="158">
+        <v>0.21625</v>
+      </c>
+      <c r="AB43" s="161">
+        <v>0.34322851199999999</v>
+      </c>
+      <c r="AC43" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29">
       <c r="B44" s="157" t="s">
         <v>172</v>
       </c>
@@ -9448,8 +10906,44 @@
       <c r="O44" s="159">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="2:15">
+      <c r="Q44" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R44" s="157" t="s">
+        <v>584</v>
+      </c>
+      <c r="S44" s="157" t="s">
+        <v>585</v>
+      </c>
+      <c r="T44" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U44" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V44" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W44" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y44" s="157" t="s">
+        <v>584</v>
+      </c>
+      <c r="Z44" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA44" s="159">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AB44" s="163">
+        <v>0.30605732200000002</v>
+      </c>
+      <c r="AC44" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29">
       <c r="B45" s="156" t="s">
         <v>172</v>
       </c>
@@ -9489,8 +10983,44 @@
       <c r="O45" s="158">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:15">
+      <c r="Q45" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="R45" s="156" t="s">
+        <v>586</v>
+      </c>
+      <c r="S45" s="156" t="s">
+        <v>587</v>
+      </c>
+      <c r="T45" s="156" t="s">
+        <v>10</v>
+      </c>
+      <c r="U45" s="156" t="s">
+        <v>21</v>
+      </c>
+      <c r="V45" s="156" t="s">
+        <v>175</v>
+      </c>
+      <c r="W45" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y45" s="156" t="s">
+        <v>586</v>
+      </c>
+      <c r="Z45" s="156" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA45" s="158">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AB45" s="161">
+        <v>0.30015657400000001</v>
+      </c>
+      <c r="AC45" s="158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29">
       <c r="B46" s="157" t="s">
         <v>172</v>
       </c>
@@ -9530,8 +11060,44 @@
       <c r="O46" s="159">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="2:15">
+      <c r="Q46" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="R46" s="157" t="s">
+        <v>588</v>
+      </c>
+      <c r="S46" s="157" t="s">
+        <v>589</v>
+      </c>
+      <c r="T46" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="U46" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="V46" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="W46" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y46" s="157" t="s">
+        <v>588</v>
+      </c>
+      <c r="Z46" s="157" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA46" s="159">
+        <v>1.125E-2</v>
+      </c>
+      <c r="AB46" s="163">
+        <v>0.29489109000000002</v>
+      </c>
+      <c r="AC46" s="159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29">
       <c r="B47" s="156" t="s">
         <v>172</v>
       </c>
@@ -9572,7 +11138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:29">
       <c r="B48" s="157" t="s">
         <v>172</v>
       </c>
@@ -13969,7 +15535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF778A4-C78B-4C8A-8EFB-951DA82E413D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CDB70-31B1-4E5C-8DFE-C0ABFA789317}">
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -14012,7 +15578,7 @@
         <v>153</v>
       </c>
       <c r="C10" s="155" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
       <c r="D10" s="155" t="s">
         <v>223</v>
@@ -14053,7 +15619,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="156" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
       <c r="C11" s="156" t="s">
         <v>33</v>
@@ -14077,7 +15643,7 @@
         <v>172</v>
       </c>
       <c r="K11" s="156" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
       <c r="L11" s="156"/>
       <c r="M11" s="156" t="s">
@@ -14087,15 +15653,15 @@
         <v>21</v>
       </c>
       <c r="O11" s="156" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P11" s="156" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="B12" s="157" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
       <c r="C12" s="157" t="s">
         <v>33</v>
@@ -14113,13 +15679,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H12" s="157" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="J12" s="157" t="s">
         <v>172</v>
       </c>
       <c r="K12" s="157" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="L12" s="157"/>
       <c r="M12" s="157" t="s">
@@ -14129,15 +15695,15 @@
         <v>21</v>
       </c>
       <c r="O12" s="157" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P12" s="157" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="B13" s="156" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
       <c r="C13" s="156" t="s">
         <v>33</v>
@@ -14155,13 +15721,13 @@
         <v>5100</v>
       </c>
       <c r="H13" s="156" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="J13" s="156" t="s">
         <v>172</v>
       </c>
       <c r="K13" s="156" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="L13" s="156"/>
       <c r="M13" s="156" t="s">
@@ -14171,15 +15737,15 @@
         <v>21</v>
       </c>
       <c r="O13" s="156" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P13" s="156" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="B14" s="157" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
       <c r="C14" s="157" t="s">
         <v>33</v>
@@ -14197,13 +15763,13 @@
         <v>175</v>
       </c>
       <c r="H14" s="157" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
       <c r="J14" s="157" t="s">
         <v>172</v>
       </c>
       <c r="K14" s="157" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="L14" s="157"/>
       <c r="M14" s="157" t="s">
@@ -14213,15 +15779,15 @@
         <v>21</v>
       </c>
       <c r="O14" s="157" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P14" s="157" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="B15" s="156" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
       <c r="C15" s="156" t="s">
         <v>33</v>
@@ -14239,13 +15805,13 @@
         <v>3</v>
       </c>
       <c r="H15" s="156" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
       <c r="J15" s="156" t="s">
         <v>172</v>
       </c>
       <c r="K15" s="156" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="L15" s="156"/>
       <c r="M15" s="156" t="s">
@@ -14255,15 +15821,15 @@
         <v>21</v>
       </c>
       <c r="O15" s="156" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P15" s="156" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="157" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="C16" s="157" t="s">
         <v>33</v>
@@ -14287,7 +15853,7 @@
         <v>172</v>
       </c>
       <c r="K16" s="157" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="L16" s="157"/>
       <c r="M16" s="157" t="s">
@@ -14297,15 +15863,15 @@
         <v>21</v>
       </c>
       <c r="O16" s="157" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P16" s="157" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="156" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="C17" s="156" t="s">
         <v>33</v>
@@ -14323,13 +15889,13 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="H17" s="156" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="J17" s="156" t="s">
         <v>172</v>
       </c>
       <c r="K17" s="156" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="L17" s="156"/>
       <c r="M17" s="156" t="s">
@@ -14339,15 +15905,15 @@
         <v>21</v>
       </c>
       <c r="O17" s="156" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P17" s="156" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="157" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="C18" s="157" t="s">
         <v>33</v>
@@ -14365,13 +15931,13 @@
         <v>2300</v>
       </c>
       <c r="H18" s="157" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="J18" s="157" t="s">
         <v>172</v>
       </c>
       <c r="K18" s="157" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
       <c r="L18" s="157"/>
       <c r="M18" s="157" t="s">
@@ -14381,15 +15947,15 @@
         <v>21</v>
       </c>
       <c r="O18" s="157" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P18" s="157" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="156" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="C19" s="156" t="s">
         <v>33</v>
@@ -14407,13 +15973,13 @@
         <v>80</v>
       </c>
       <c r="H19" s="156" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
       <c r="J19" s="156" t="s">
         <v>172</v>
       </c>
       <c r="K19" s="156" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
       <c r="L19" s="156"/>
       <c r="M19" s="156" t="s">
@@ -14423,15 +15989,15 @@
         <v>21</v>
       </c>
       <c r="O19" s="156" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P19" s="156" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="157" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="C20" s="157" t="s">
         <v>33</v>
@@ -14449,13 +16015,13 @@
         <v>3</v>
       </c>
       <c r="H20" s="157" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
       <c r="J20" s="157" t="s">
         <v>172</v>
       </c>
       <c r="K20" s="157" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="L20" s="157"/>
       <c r="M20" s="157" t="s">
@@ -14465,15 +16031,15 @@
         <v>21</v>
       </c>
       <c r="O20" s="157" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P20" s="157" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="156" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="C21" s="156" t="s">
         <v>35</v>
@@ -14497,7 +16063,7 @@
         <v>172</v>
       </c>
       <c r="K21" s="156" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
       <c r="L21" s="156"/>
       <c r="M21" s="156" t="s">
@@ -14507,15 +16073,15 @@
         <v>21</v>
       </c>
       <c r="O21" s="156" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P21" s="156" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="2:16">
       <c r="B22" s="157" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="C22" s="157" t="s">
         <v>35</v>
@@ -14533,13 +16099,13 @@
         <v>1000</v>
       </c>
       <c r="H22" s="157" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="J22" s="157" t="s">
         <v>172</v>
       </c>
       <c r="K22" s="157" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="L22" s="157"/>
       <c r="M22" s="157" t="s">
@@ -14549,15 +16115,15 @@
         <v>21</v>
       </c>
       <c r="O22" s="157" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P22" s="157" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="156" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="C23" s="156" t="s">
         <v>35</v>
@@ -14575,13 +16141,13 @@
         <v>25</v>
       </c>
       <c r="H23" s="156" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
       <c r="J23" s="156" t="s">
         <v>172</v>
       </c>
       <c r="K23" s="156" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="L23" s="156"/>
       <c r="M23" s="156" t="s">
@@ -14591,15 +16157,15 @@
         <v>21</v>
       </c>
       <c r="O23" s="156" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P23" s="156" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="2:16">
       <c r="B24" s="157" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="C24" s="157" t="s">
         <v>35</v>
@@ -14623,7 +16189,7 @@
         <v>172</v>
       </c>
       <c r="K24" s="157" t="s">
-        <v>536</v>
+        <v>609</v>
       </c>
       <c r="L24" s="157"/>
       <c r="M24" s="157" t="s">
@@ -14633,15 +16199,15 @@
         <v>21</v>
       </c>
       <c r="O24" s="157" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P24" s="157" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="2:16">
       <c r="B25" s="156" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="C25" s="156" t="s">
         <v>35</v>
@@ -14659,13 +16225,13 @@
         <v>2400</v>
       </c>
       <c r="H25" s="156" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="J25" s="156" t="s">
         <v>172</v>
       </c>
       <c r="K25" s="156" t="s">
-        <v>537</v>
+        <v>610</v>
       </c>
       <c r="L25" s="156"/>
       <c r="M25" s="156" t="s">
@@ -14675,15 +16241,15 @@
         <v>21</v>
       </c>
       <c r="O25" s="156" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P25" s="156" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="2:16">
       <c r="B26" s="157" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="C26" s="157" t="s">
         <v>35</v>
@@ -14701,13 +16267,13 @@
         <v>60</v>
       </c>
       <c r="H26" s="157" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
       <c r="J26" s="157" t="s">
         <v>172</v>
       </c>
       <c r="K26" s="157" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
       <c r="L26" s="157"/>
       <c r="M26" s="157" t="s">
@@ -14717,15 +16283,15 @@
         <v>21</v>
       </c>
       <c r="O26" s="157" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P26" s="157" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="2:16">
       <c r="B27" s="156" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="C27" s="156" t="s">
         <v>34</v>
@@ -14749,7 +16315,7 @@
         <v>172</v>
       </c>
       <c r="K27" s="156" t="s">
-        <v>540</v>
+        <v>613</v>
       </c>
       <c r="L27" s="156"/>
       <c r="M27" s="156" t="s">
@@ -14759,15 +16325,15 @@
         <v>21</v>
       </c>
       <c r="O27" s="156" t="s">
-        <v>541</v>
+        <v>614</v>
       </c>
       <c r="P27" s="156" t="s">
-        <v>542</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="2:16">
       <c r="B28" s="157" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="C28" s="157" t="s">
         <v>34</v>
@@ -14785,12 +16351,12 @@
         <v>4350</v>
       </c>
       <c r="H28" s="157" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="156" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="C29" s="156" t="s">
         <v>34</v>
@@ -14808,12 +16374,12 @@
         <v>130</v>
       </c>
       <c r="H29" s="156" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="2:16">
       <c r="B30" s="157" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="C30" s="157" t="s">
         <v>35</v>
@@ -14836,7 +16402,7 @@
     </row>
     <row r="31" spans="2:16">
       <c r="B31" s="156" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="C31" s="156" t="s">
         <v>35</v>
@@ -14854,12 +16420,12 @@
         <v>500</v>
       </c>
       <c r="H31" s="156" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="2:16">
       <c r="B32" s="157" t="s">
-        <v>528</v>
+        <v>601</v>
       </c>
       <c r="C32" s="157" t="s">
         <v>35</v>
@@ -14877,12 +16443,12 @@
         <v>20</v>
       </c>
       <c r="H32" s="157" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="156" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="C33" s="156" t="s">
         <v>29</v>
@@ -14905,7 +16471,7 @@
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="157" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="C34" s="157" t="s">
         <v>29</v>
@@ -14923,12 +16489,12 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="H34" s="157" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="156" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="C35" s="156" t="s">
         <v>29</v>
@@ -14946,12 +16512,12 @@
         <v>2650</v>
       </c>
       <c r="H35" s="156" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="157" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="C36" s="157" t="s">
         <v>29</v>
@@ -14969,12 +16535,12 @@
         <v>65</v>
       </c>
       <c r="H36" s="157" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="156" t="s">
-        <v>529</v>
+        <v>602</v>
       </c>
       <c r="C37" s="156" t="s">
         <v>29</v>
@@ -14992,12 +16558,12 @@
         <v>4</v>
       </c>
       <c r="H37" s="156" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="157" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
       <c r="C38" s="157" t="s">
         <v>35</v>
@@ -15020,7 +16586,7 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="156" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
       <c r="C39" s="156" t="s">
         <v>35</v>
@@ -15038,12 +16604,12 @@
         <v>2300</v>
       </c>
       <c r="H39" s="156" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="157" t="s">
-        <v>530</v>
+        <v>603</v>
       </c>
       <c r="C40" s="157" t="s">
         <v>35</v>
@@ -15061,12 +16627,12 @@
         <v>80</v>
       </c>
       <c r="H40" s="157" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="156" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
       <c r="C41" s="156" t="s">
         <v>34</v>
@@ -15089,7 +16655,7 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="157" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
       <c r="C42" s="157" t="s">
         <v>34</v>
@@ -15107,12 +16673,12 @@
         <v>5100</v>
       </c>
       <c r="H42" s="157" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="156" t="s">
-        <v>531</v>
+        <v>604</v>
       </c>
       <c r="C43" s="156" t="s">
         <v>34</v>
@@ -15130,12 +16696,12 @@
         <v>180</v>
       </c>
       <c r="H43" s="156" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="157" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="C44" s="157" t="s">
         <v>38</v>
@@ -15158,7 +16724,7 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="156" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="C45" s="156" t="s">
         <v>38</v>
@@ -15176,12 +16742,12 @@
         <v>4500</v>
       </c>
       <c r="H45" s="156" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="157" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="C46" s="157" t="s">
         <v>38</v>
@@ -15199,12 +16765,12 @@
         <v>160</v>
       </c>
       <c r="H46" s="157" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="156" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
       <c r="C47" s="156" t="s">
         <v>34</v>
@@ -15227,7 +16793,7 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="157" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
       <c r="C48" s="157" t="s">
         <v>34</v>
@@ -15245,12 +16811,12 @@
         <v>5100</v>
       </c>
       <c r="H48" s="157" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="156" t="s">
-        <v>533</v>
+        <v>606</v>
       </c>
       <c r="C49" s="156" t="s">
         <v>34</v>
@@ -15268,12 +16834,12 @@
         <v>155</v>
       </c>
       <c r="H49" s="156" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="157" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="C50" s="157" t="s">
         <v>27</v>
@@ -15296,7 +16862,7 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="156" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="C51" s="156" t="s">
         <v>27</v>
@@ -15314,12 +16880,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H51" s="156" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="157" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="C52" s="157" t="s">
         <v>27</v>
@@ -15337,12 +16903,12 @@
         <v>340</v>
       </c>
       <c r="H52" s="157" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="156" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="C53" s="156" t="s">
         <v>27</v>
@@ -15360,12 +16926,12 @@
         <v>10</v>
       </c>
       <c r="H53" s="156" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="157" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="C54" s="157" t="s">
         <v>27</v>
@@ -15383,12 +16949,12 @@
         <v>1.5</v>
       </c>
       <c r="H54" s="157" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="156" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="C55" s="156" t="s">
         <v>34</v>
@@ -15411,7 +16977,7 @@
     </row>
     <row r="56" spans="2:8">
       <c r="B56" s="157" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="C56" s="157" t="s">
         <v>34</v>
@@ -15429,12 +16995,12 @@
         <v>1700</v>
       </c>
       <c r="H56" s="157" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="156" t="s">
-        <v>535</v>
+        <v>608</v>
       </c>
       <c r="C57" s="156" t="s">
         <v>34</v>
@@ -15452,12 +17018,12 @@
         <v>45</v>
       </c>
       <c r="H57" s="156" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="58" spans="2:8">
       <c r="B58" s="157" t="s">
-        <v>536</v>
+        <v>609</v>
       </c>
       <c r="C58" s="157" t="s">
         <v>34</v>
@@ -15480,7 +17046,7 @@
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="156" t="s">
-        <v>536</v>
+        <v>609</v>
       </c>
       <c r="C59" s="156" t="s">
         <v>34</v>
@@ -15498,12 +17064,12 @@
         <v>2000</v>
       </c>
       <c r="H59" s="156" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="60" spans="2:8">
       <c r="B60" s="157" t="s">
-        <v>536</v>
+        <v>609</v>
       </c>
       <c r="C60" s="157" t="s">
         <v>34</v>
@@ -15521,12 +17087,12 @@
         <v>60</v>
       </c>
       <c r="H60" s="157" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="2:8">
       <c r="B61" s="156" t="s">
-        <v>537</v>
+        <v>610</v>
       </c>
       <c r="C61" s="156" t="s">
         <v>34</v>
@@ -15549,7 +17115,7 @@
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="157" t="s">
-        <v>537</v>
+        <v>610</v>
       </c>
       <c r="C62" s="157" t="s">
         <v>34</v>
@@ -15567,12 +17133,12 @@
         <v>2200</v>
       </c>
       <c r="H62" s="157" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="156" t="s">
-        <v>537</v>
+        <v>610</v>
       </c>
       <c r="C63" s="156" t="s">
         <v>34</v>
@@ -15590,15 +17156,15 @@
         <v>65</v>
       </c>
       <c r="H63" s="156" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="2:8">
       <c r="B64" s="157" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
       <c r="C64" s="157" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="D64" s="157" t="s">
         <v>19</v>
@@ -15618,10 +17184,10 @@
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="156" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
       <c r="C65" s="156" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="D65" s="156" t="s">
         <v>19</v>
@@ -15636,15 +17202,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="H65" s="156" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="157" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
       <c r="C66" s="157" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="D66" s="157" t="s">
         <v>19</v>
@@ -15659,15 +17225,15 @@
         <v>1660</v>
       </c>
       <c r="H66" s="157" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="156" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
       <c r="C67" s="156" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="D67" s="156" t="s">
         <v>19</v>
@@ -15682,15 +17248,15 @@
         <v>40</v>
       </c>
       <c r="H67" s="156" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="157" t="s">
-        <v>538</v>
+        <v>611</v>
       </c>
       <c r="C68" s="157" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="D68" s="157" t="s">
         <v>19</v>
@@ -15705,15 +17271,15 @@
         <v>3</v>
       </c>
       <c r="H68" s="157" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="156" t="s">
-        <v>540</v>
+        <v>613</v>
       </c>
       <c r="C69" s="156" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="D69" s="156" t="s">
         <v>19</v>
@@ -15733,10 +17299,10 @@
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="157" t="s">
-        <v>540</v>
+        <v>613</v>
       </c>
       <c r="C70" s="157" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="D70" s="157" t="s">
         <v>19</v>
@@ -15751,15 +17317,15 @@
         <v>0.3</v>
       </c>
       <c r="H70" s="157" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="156" t="s">
-        <v>540</v>
+        <v>613</v>
       </c>
       <c r="C71" s="156" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="D71" s="156" t="s">
         <v>19</v>
@@ -15774,15 +17340,15 @@
         <v>1490</v>
       </c>
       <c r="H71" s="156" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="157" t="s">
-        <v>540</v>
+        <v>613</v>
       </c>
       <c r="C72" s="157" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="D72" s="157" t="s">
         <v>19</v>
@@ -15797,15 +17363,15 @@
         <v>38</v>
       </c>
       <c r="H72" s="157" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="156" t="s">
-        <v>540</v>
+        <v>613</v>
       </c>
       <c r="C73" s="156" t="s">
-        <v>539</v>
+        <v>612</v>
       </c>
       <c r="D73" s="156" t="s">
         <v>19</v>
@@ -15820,7 +17386,7 @@
         <v>1.5</v>
       </c>
       <c r="H73" s="156" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FB87C35-88B3-4BAD-84FA-21BE7444021E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{078C34FB-F2FE-4E4A-929A-1E1C54280D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3019,7 +3019,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580E2BD9-B885-6EE0-BDCD-45052E27766A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876FE61A-E049-3447-AE4F-99DB0B717FC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,7 +3074,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FABB0C-987F-6E33-35AA-8BF5267D8504}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE03331-9FF1-52FA-C3AC-BA4B76E25A91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3129,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F4CA59-85F2-E984-96A9-0E244ABE5476}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7883C82D-7037-3BCB-6EE7-2EF78B36B7BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,7 +3184,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FD4F18-AF89-1422-04AA-C4CC8C12F9FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB0F6A2-A781-FDC6-C7EA-5FE46600FFC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7114,7 +7114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8905F6-3653-4930-97B5-EB6447F2C35D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9822D14A-7F03-4965-9CFF-95B00AF7DC71}">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8191,7 +8191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899E3FFA-71C8-40E0-BF81-6954D2208FCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A528B8-7D44-4AE0-909B-89EB5192152F}">
   <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15535,7 +15535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CDB70-31B1-4E5C-8DFE-C0ABFA789317}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AB0281-B3C3-4BFB-B69D-B8AA5173E726}">
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{078C34FB-F2FE-4E4A-929A-1E1C54280D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{702ECD12-6800-40E6-AF57-F7BE9BCB27A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3019,7 +3019,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876FE61A-E049-3447-AE4F-99DB0B717FC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919AC051-24CD-2A8B-E3D3-9B0974C0FDB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3074,7 +3074,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE03331-9FF1-52FA-C3AC-BA4B76E25A91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C31DA64-95A9-C93C-2B01-F31D85A664F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3129,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7883C82D-7037-3BCB-6EE7-2EF78B36B7BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5227BB17-DD67-695D-F14F-12DEF6CCF753}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,7 +3184,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB0F6A2-A781-FDC6-C7EA-5FE46600FFC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F0F294-D41C-858C-484B-2EE2EF205EE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7114,7 +7114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9822D14A-7F03-4965-9CFF-95B00AF7DC71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC60CD7-A2B4-4EAD-AF36-A03EB802FB98}">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8191,7 +8191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A528B8-7D44-4AE0-909B-89EB5192152F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58F27DC-F219-4AD3-98FB-808DF58CD13B}">
   <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15535,7 +15535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AB0281-B3C3-4BFB-B69D-B8AA5173E726}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DA05FA-545A-47C5-AE6D-3C5940237EC4}">
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DB88CD1-9C0C-48F8-B97F-8C684E671AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C6EE88E-EAE6-462D-AC7C-D2F03B444FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3022,7 +3022,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B160C630-9A11-6493-504A-DD20BC69CAEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFEFAB3-FCD9-A5E3-4D5E-22781F2C2A21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3077,7 +3077,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773D0F34-7F57-0EEE-126E-CE2B3B589747}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9BFF308-30E0-AC3D-AB6E-7B3FC242B82A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,7 +3132,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548A6A56-BD7A-7E98-BDA1-239E9C69A5F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A31C04-5ABB-3C44-D8C3-7F613FF70F2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3187,7 +3187,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48718462-DDB7-DC07-52CC-5DADAA046D4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16696F2-499D-0343-788F-39E206FADB7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7117,7 +7117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E58F44-C1B3-4FCD-834D-8D87D3E45505}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F19FDBC-2233-4882-9638-718A84BE06BA}">
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8117,7 +8117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83B6D7A-0698-40FF-A6BC-BB7D45B66468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B780D27-D910-41E2-A4DD-93E1A0D0A275}">
   <dimension ref="A1:AB154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15060,7 +15060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD309F23-38AC-4F26-A3EC-8DD623C72707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918D8F42-BD08-463B-B813-4B8A9BDB9E5F}">
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9766A3C8-FA57-4CCC-9658-4E8DE38B0BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE2CF4D9-C39D-475D-827A-4C49E37562A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6891,7 +6891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515A2F74-7CEE-4C5E-B3B6-3CE29FA3D88E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9452858D-2B4A-404D-88B5-7E6EFC500214}">
   <dimension ref="B9:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7862,7 +7862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA30F32-C801-4B18-8642-D57491E5E056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3B44AF-6343-4808-8034-47786F335F6A}">
   <dimension ref="B9:AB154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14767,7 +14767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D48F797-FF88-4125-86EB-C18ED24DC716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2471423F-6A29-4671-9EB6-7DB474540ECF}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE2CF4D9-C39D-475D-827A-4C49E37562A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{719378AA-2A12-472B-8FF8-110A7B755739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6891,7 +6891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9452858D-2B4A-404D-88B5-7E6EFC500214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C553C85-6D24-4918-ADC7-0C4BCC50581C}">
   <dimension ref="B9:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7862,7 +7862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3B44AF-6343-4808-8034-47786F335F6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DBF5BA-0BF8-4283-9800-3D3CCF252100}">
   <dimension ref="B9:AB154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14767,7 +14767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2471423F-6A29-4671-9EB6-7DB474540ECF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BED1BE-1163-472B-A715-EE7AA0C0ADE2}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
+++ b/VerveStacks_DEU/SubRES_Tmpl/SubRES_New_RE_and_Conventional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{719378AA-2A12-472B-8FF8-110A7B755739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF00CA0A-0D61-4C11-A066-4E743671F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6891,7 +6891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C553C85-6D24-4918-ADC7-0C4BCC50581C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B27A2E9-3479-41D7-8954-2C95332B0262}">
   <dimension ref="B9:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7862,7 +7862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DBF5BA-0BF8-4283-9800-3D3CCF252100}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD55BEA1-A5FD-4BBF-BC5E-C750043F35F1}">
   <dimension ref="B9:AB154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14767,7 +14767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BED1BE-1163-472B-A715-EE7AA0C0ADE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC28E8ED-F7EA-4C0C-A5C6-3D0400455E26}">
   <dimension ref="B9:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
